--- a/Results/d_1_2_3_comparison_init_no_init_no_init_time_limit.xlsx
+++ b/Results/d_1_2_3_comparison_init_no_init_no_init_time_limit.xlsx
@@ -5,17 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees_backup/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D647499B-125F-4944-9AE3-163B27C303A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8866C8A-CA34-7F47-99AB-049EB977550D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-2140" windowWidth="38400" windowHeight="19560" activeTab="2" xr2:uid="{6FABF61E-5EBE-E440-8258-C5C2D179FD09}"/>
+    <workbookView xWindow="29100" yWindow="-2140" windowWidth="38400" windowHeight="19560" activeTab="6" xr2:uid="{6FABF61E-5EBE-E440-8258-C5C2D179FD09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="d1" sheetId="4" r:id="rId4"/>
+    <sheet name="d2" sheetId="5" r:id="rId5"/>
+    <sheet name="d3" sheetId="6" r:id="rId6"/>
+    <sheet name="d4" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="res_continuous_2023_03_17" localSheetId="0">Sheet1!$A$2:$K$32</definedName>
@@ -23,6 +27,10 @@
     <definedName name="res_continuous_2023_03_21" localSheetId="1">Sheet2!$A$2:$L$16</definedName>
     <definedName name="res_continuous_2023_03_21_1" localSheetId="1">Sheet2!$A$18:$O$32</definedName>
     <definedName name="res_continuous_2023_03_21_1" localSheetId="2">Sheet3!$A$2:$L$16</definedName>
+    <definedName name="res_continuous_2023_03_22" localSheetId="3">'d1'!$A$2:$K$16</definedName>
+    <definedName name="res_continuous_2023_03_22" localSheetId="4">'d2'!$A$2:$K$16</definedName>
+    <definedName name="res_continuous_2023_03_22" localSheetId="5">'d3'!$A$2:$K$16</definedName>
+    <definedName name="res_continuous_2023_03_22" localSheetId="6">'d4'!$A$2:$K$16</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -91,7 +99,7 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{F61C3614-5D58-794E-A653-93BAA3E6D644}" name="res_continuous_2023-03-21" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-21.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-21.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -112,7 +120,7 @@
     </textPr>
   </connection>
   <connection id="4" xr16:uid="{12312042-73BB-D546-B368-D7584038647F}" name="res_continuous_2023-03-211" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-21.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-21.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -133,7 +141,91 @@
     </textPr>
   </connection>
   <connection id="5" xr16:uid="{72CBC193-DF90-DA48-AAAD-1827DB3CD0D2}" name="res_continuous_2023-03-2111" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-21.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-21.csv" comma="1">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" xr16:uid="{2219E069-800F-FB4C-999B-4D01E79E33A4}" name="res_continuous_2023-03-22" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees_backup/Results/res_continuous_2023-03-22.csv" comma="1">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="7" xr16:uid="{53E8F1B5-C132-A144-BDC5-F74B95195479}" name="res_continuous_2023-03-221" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees_backup/Results/res_continuous_2023-03-22.csv" comma="1">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="8" xr16:uid="{8E23A30B-453B-664B-9867-B92BACDFE696}" name="res_continuous_2023-03-222" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees_backup/Results/res_continuous_2023-03-22.csv" comma="1">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="9" xr16:uid="{0E911E47-3104-394A-B619-8A4604585186}" name="res_continuous_2023-03-223" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees_backup/Results/res_continuous_2023-03-22.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -157,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="34">
   <si>
     <t>yacht_hydrodynamics_reg.csv</t>
   </si>
@@ -248,6 +340,18 @@
   <si>
     <t>[False]</t>
   </si>
+  <si>
+    <t>initial solution</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>initialization time</t>
+  </si>
 </sst>
 </file>
 
@@ -301,11 +405,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -324,23 +429,39 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-17" connectionId="1" xr16:uid="{001C276C-1108-EC48-9063-24A6196E6C73}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-18" connectionId="2" xr16:uid="{78CB4E18-9BB6-D34D-9177-678E75660766}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-17" connectionId="1" xr16:uid="{001C276C-1108-EC48-9063-24A6196E6C73}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_21_1" connectionId="4" xr16:uid="{BA017236-576A-1543-BD2D-FC4FFAFCBA2B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-21" connectionId="3" xr16:uid="{DA90511F-46E1-864E-9F44-FE92330B9747}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-21" connectionId="3" xr16:uid="{DA90511F-46E1-864E-9F44-FE92330B9747}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_21_1" connectionId="4" xr16:uid="{BA017236-576A-1543-BD2D-FC4FFAFCBA2B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_21_1" connectionId="5" xr16:uid="{B01E4D8D-B577-EE45-B822-75DA8EB11D48}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-22" connectionId="6" xr16:uid="{A5D38850-8ACE-B74B-A1F6-1DB61CF3BEA5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-22" connectionId="7" xr16:uid="{5939C551-5B47-984D-8403-7AC38DECB97D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-22" connectionId="8" xr16:uid="{750810FD-BE1B-3847-9B2A-75BDF00C35CF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-22" connectionId="9" xr16:uid="{EABDB209-7D94-D04F-B7C9-522F40F33E86}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3627,8 +3748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2F320B-2CF1-614B-B643-7448000E355E}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4251,4 +4372,2363 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CABA91-DA58-7347-B01E-66DDF933C3C2}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
+    <col min="10" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>4176</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>71.585846900939899</v>
+      </c>
+      <c r="F2">
+        <v>5.8064157251868198E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.51896274526930997</v>
+      </c>
+      <c r="H2">
+        <v>5.6567033257232897E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.53593631514551099</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2">
+        <v>59.925750017166102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4176</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>360</v>
+      </c>
+      <c r="E3">
+        <v>413.30565595626803</v>
+      </c>
+      <c r="F3">
+        <v>5.4591450634970597E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.51443699730631098</v>
+      </c>
+      <c r="H3">
+        <v>5.2376340130824997E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.546584896413846</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3">
+        <v>46.067264795303302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4176</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>360</v>
+      </c>
+      <c r="E4">
+        <v>364.96678209304798</v>
+      </c>
+      <c r="F4">
+        <v>5.5619410361688597E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.53036671249618705</v>
+      </c>
+      <c r="H4">
+        <v>5.3566090037466103E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.55801243305320003</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1502</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>15.259091377258301</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.101037318487485</v>
+      </c>
+      <c r="G5">
+        <v>0.524154724101623</v>
+      </c>
+      <c r="H5">
+        <v>9.3757599872394501E-2</v>
+      </c>
+      <c r="I5">
+        <v>0.50524105805886399</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5">
+        <v>12.657376050949001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1502</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>360</v>
+      </c>
+      <c r="E6">
+        <v>374.51696491241398</v>
+      </c>
+      <c r="F6">
+        <v>8.3734515733796894E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.633342659907004</v>
+      </c>
+      <c r="H6">
+        <v>8.2814292993655295E-2</v>
+      </c>
+      <c r="I6">
+        <v>0.57889698400530198</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6">
+        <v>12.2244679927825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1502</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>360</v>
+      </c>
+      <c r="E7">
+        <v>361.351740837097</v>
+      </c>
+      <c r="F7">
+        <v>8.3379827812867E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.64513606718590299</v>
+      </c>
+      <c r="H7">
+        <v>8.1154430823851806E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.59834568285551604</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>391</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>10.174567222595201</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.193341362757184</v>
+      </c>
+      <c r="G8">
+        <v>0.49043728085876298</v>
+      </c>
+      <c r="H8">
+        <v>0.214109427814864</v>
+      </c>
+      <c r="I8">
+        <v>0.41001560310406898</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8">
+        <v>9.3851857185363698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>391</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>360</v>
+      </c>
+      <c r="E9">
+        <v>373.90707087516699</v>
+      </c>
+      <c r="F9">
+        <v>0.18624054045555899</v>
+      </c>
+      <c r="G9">
+        <v>0.35081479440545399</v>
+      </c>
+      <c r="H9">
+        <v>0.23477554028109399</v>
+      </c>
+      <c r="I9">
+        <v>0.219063605839079</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9">
+        <v>12.6975889205932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>391</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>360</v>
+      </c>
+      <c r="E10">
+        <v>360.48158884048399</v>
+      </c>
+      <c r="F10">
+        <v>0.150924856466183</v>
+      </c>
+      <c r="G10">
+        <v>0.473597746626511</v>
+      </c>
+      <c r="H10">
+        <v>0.192053877228791</v>
+      </c>
+      <c r="I10">
+        <v>0.33352289216839298</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>4897</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>107.744113922119</v>
+      </c>
+      <c r="F11">
+        <v>9.6587734170940201E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.30158466572772902</v>
+      </c>
+      <c r="H11">
+        <v>9.8168695814899606E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.30701362207143901</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11">
+        <v>96.433967828750596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>4897</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>360</v>
+      </c>
+      <c r="E12">
+        <v>446.61713981628401</v>
+      </c>
+      <c r="F12">
+        <v>9.6358448658171197E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.28049753708394798</v>
+      </c>
+      <c r="H12">
+        <v>9.66809390961932E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.29483234582729101</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12">
+        <v>73.702027082443195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>4897</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>360</v>
+      </c>
+      <c r="E13">
+        <v>367.421705245971</v>
+      </c>
+      <c r="F13">
+        <v>9.6358448658171197E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.28049753708394798</v>
+      </c>
+      <c r="H13">
+        <v>9.66809390961932E-2</v>
+      </c>
+      <c r="I13">
+        <v>0.29483234582729101</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>307</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>7.7512829303741402</v>
+      </c>
+      <c r="F14" s="4">
+        <v>4.7020424408479401E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.88130791676074005</v>
+      </c>
+      <c r="H14">
+        <v>4.3295118766224203E-2</v>
+      </c>
+      <c r="I14">
+        <v>0.90945530809714104</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14">
+        <v>7.2819240093231201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>307</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>360</v>
+      </c>
+      <c r="E15">
+        <v>367.977332115173</v>
+      </c>
+      <c r="F15">
+        <v>2.0894071063046901E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.97908382671898597</v>
+      </c>
+      <c r="H15">
+        <v>2.2867234527443301E-2</v>
+      </c>
+      <c r="I15">
+        <v>0.975887492056837</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15">
+        <v>7.2683680057525599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>307</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>360</v>
+      </c>
+      <c r="E16">
+        <v>360.41126704215998</v>
+      </c>
+      <c r="F16">
+        <v>2.0525929695595399E-2</v>
+      </c>
+      <c r="G16">
+        <v>0.97984374941335195</v>
+      </c>
+      <c r="H16">
+        <v>2.0748809110987101E-2</v>
+      </c>
+      <c r="I16">
+        <v>0.98611904649404702</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K16">
+    <sortCondition ref="A2:A16"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A27BE53-1FF4-3248-9EDF-CE912A7FFCD7}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="5.5" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" customWidth="1"/>
+    <col min="9" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>4176</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>118.990724802017</v>
+      </c>
+      <c r="F2">
+        <v>5.7862971573451598E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.52104963159800799</v>
+      </c>
+      <c r="H2">
+        <v>5.6912091880954203E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.52697094905314601</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2">
+        <v>98.188777208328204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4176</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>360</v>
+      </c>
+      <c r="E3">
+        <v>442.50428128242402</v>
+      </c>
+      <c r="F3">
+        <v>5.7862971573451598E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.52104963159800799</v>
+      </c>
+      <c r="H3">
+        <v>5.6912091880954203E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.52697094905314601</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3">
+        <v>65.429152965545597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4176</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>360</v>
+      </c>
+      <c r="E4">
+        <v>373.561773777008</v>
+      </c>
+      <c r="F4">
+        <v>0.32094739093242097</v>
+      </c>
+      <c r="G4">
+        <v>-7.6440400366359302</v>
+      </c>
+      <c r="H4">
+        <v>0.31130382775119603</v>
+      </c>
+      <c r="I4">
+        <v>-7.89051796655479</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1502</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>28.9274578094482</v>
+      </c>
+      <c r="F5">
+        <v>0.10154237523802</v>
+      </c>
+      <c r="G5">
+        <v>0.53920518235564296</v>
+      </c>
+      <c r="H5">
+        <v>9.4220216332376094E-2</v>
+      </c>
+      <c r="I5">
+        <v>0.52054801746455903</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5">
+        <v>21.424167871475198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1502</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>360</v>
+      </c>
+      <c r="E6">
+        <v>389.32599902152998</v>
+      </c>
+      <c r="F6">
+        <v>9.3913281499613005E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.52569794811142001</v>
+      </c>
+      <c r="H6">
+        <v>9.1802521671797394E-2</v>
+      </c>
+      <c r="I6">
+        <v>0.49123367045689997</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6">
+        <v>21.214681863784701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1502</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>360</v>
+      </c>
+      <c r="E7">
+        <v>364.01280879974303</v>
+      </c>
+      <c r="F7">
+        <v>2.3171280439529802</v>
+      </c>
+      <c r="G7">
+        <v>-61193.275906120303</v>
+      </c>
+      <c r="H7">
+        <v>4.8911262612985604</v>
+      </c>
+      <c r="I7">
+        <v>-111591.659900375</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>391</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>17.632429122924801</v>
+      </c>
+      <c r="F8">
+        <v>0.177495438391959</v>
+      </c>
+      <c r="G8">
+        <v>0.52004877099864799</v>
+      </c>
+      <c r="H8">
+        <v>0.206051207507218</v>
+      </c>
+      <c r="I8">
+        <v>0.42619201111861399</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8">
+        <v>15.3877041339874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>391</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>360</v>
+      </c>
+      <c r="E9">
+        <v>382.66651105880698</v>
+      </c>
+      <c r="F9">
+        <v>0.13865720318981301</v>
+      </c>
+      <c r="G9">
+        <v>0.49440063952207702</v>
+      </c>
+      <c r="H9">
+        <v>0.17251691947454401</v>
+      </c>
+      <c r="I9">
+        <v>0.39645442566530897</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9">
+        <v>20.603351116180399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>391</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>360</v>
+      </c>
+      <c r="E10">
+        <v>361.369428157806</v>
+      </c>
+      <c r="F10">
+        <v>0.19319551883868399</v>
+      </c>
+      <c r="G10">
+        <v>0.53088592213244301</v>
+      </c>
+      <c r="H10">
+        <v>0.56305730918509</v>
+      </c>
+      <c r="I10">
+        <v>-29.567245488699299</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>4897</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>177.98407602310101</v>
+      </c>
+      <c r="F11">
+        <v>9.5690657323454803E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.31388955649650402</v>
+      </c>
+      <c r="H11">
+        <v>9.7650056065033297E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.31193032407043503</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11">
+        <v>151.776081323623</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>4897</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>360</v>
+      </c>
+      <c r="E12">
+        <v>546.26957798004105</v>
+      </c>
+      <c r="F12">
+        <v>9.5690657323454803E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.31388955649650402</v>
+      </c>
+      <c r="H12">
+        <v>9.7650056065033297E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.31193032407043503</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12">
+        <v>147.580837011337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>4897</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>360</v>
+      </c>
+      <c r="E13">
+        <v>375.21211981773303</v>
+      </c>
+      <c r="F13">
+        <v>0.48170368479278303</v>
+      </c>
+      <c r="G13">
+        <v>-10.6761460661911</v>
+      </c>
+      <c r="H13">
+        <v>0.47142857142856998</v>
+      </c>
+      <c r="I13">
+        <v>-10.140713916192601</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>307</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>9.7438499927520699</v>
+      </c>
+      <c r="F14">
+        <v>5.8850542847911601E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.81003366792484799</v>
+      </c>
+      <c r="H14">
+        <v>5.6843502449295799E-2</v>
+      </c>
+      <c r="I14">
+        <v>0.83975224008588101</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14">
+        <v>8.7157728672027499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>307</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>360</v>
+      </c>
+      <c r="E15">
+        <v>372.46783709525999</v>
+      </c>
+      <c r="F15">
+        <v>1.9604272421354402E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.98035007862464896</v>
+      </c>
+      <c r="H15">
+        <v>2.7535858971246899E-2</v>
+      </c>
+      <c r="I15">
+        <v>0.96930708584916503</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15">
+        <v>10.9759149551391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>307</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>360</v>
+      </c>
+      <c r="E16">
+        <v>361.05124402046198</v>
+      </c>
+      <c r="F16">
+        <v>1.6004104251722599E-2</v>
+      </c>
+      <c r="G16">
+        <v>0.98540249200900598</v>
+      </c>
+      <c r="H16">
+        <v>2.2786844252660299E-2</v>
+      </c>
+      <c r="I16">
+        <v>0.97837027175400104</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K16">
+    <sortCondition ref="A2:A16"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4611DCE-A0B4-2C47-B9B9-6C543C1CEED3}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>4176</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>161.749239921569</v>
+      </c>
+      <c r="F2">
+        <v>5.9037163940816297E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.50321233075070804</v>
+      </c>
+      <c r="H2">
+        <v>5.8254085159011801E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.50663592716328398</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2">
+        <v>117.530268907547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4176</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>360</v>
+      </c>
+      <c r="E3">
+        <v>494.62484502792302</v>
+      </c>
+      <c r="F3">
+        <v>5.9037163940816297E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.50321233075070804</v>
+      </c>
+      <c r="H3">
+        <v>5.8254085159011801E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.50663592716328398</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3">
+        <v>91.393648862838702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4176</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>360</v>
+      </c>
+      <c r="E4">
+        <v>385.56003022193897</v>
+      </c>
+      <c r="F4">
+        <v>1.0559875494778901</v>
+      </c>
+      <c r="G4">
+        <v>-247856.79278030799</v>
+      </c>
+      <c r="H4">
+        <v>12.032755049888999</v>
+      </c>
+      <c r="I4">
+        <v>-3255543.1227432098</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1502</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>49.496955871582003</v>
+      </c>
+      <c r="F5">
+        <v>9.5892858461266994E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.58101301516835002</v>
+      </c>
+      <c r="H5">
+        <v>8.9921351139456498E-2</v>
+      </c>
+      <c r="I5">
+        <v>0.55803051643693102</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5">
+        <v>34.445520877838099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1502</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>360</v>
+      </c>
+      <c r="E6">
+        <v>393.75802278518597</v>
+      </c>
+      <c r="F6">
+        <v>8.5101290363385804E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.57557657298693599</v>
+      </c>
+      <c r="H6">
+        <v>8.7729968627484403E-2</v>
+      </c>
+      <c r="I6">
+        <v>0.51609351569580497</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6">
+        <v>21.406341791152901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1502</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>360</v>
+      </c>
+      <c r="E7">
+        <v>367.04003787040699</v>
+      </c>
+      <c r="F7">
+        <v>152.98974290968201</v>
+      </c>
+      <c r="G7">
+        <v>-4069572.14004476</v>
+      </c>
+      <c r="H7">
+        <v>119.977518564272</v>
+      </c>
+      <c r="I7">
+        <v>-3512974.7778805601</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>391</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>44.7974948883056</v>
+      </c>
+      <c r="F8">
+        <v>0.16909373344226999</v>
+      </c>
+      <c r="G8">
+        <v>0.54633607973268705</v>
+      </c>
+      <c r="H8">
+        <v>0.19937999182846</v>
+      </c>
+      <c r="I8">
+        <v>0.43636342866390498</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8">
+        <v>40.589566946029599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>391</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>360</v>
+      </c>
+      <c r="E9">
+        <v>380.59534287452698</v>
+      </c>
+      <c r="F9">
+        <v>0.152428476268087</v>
+      </c>
+      <c r="G9">
+        <v>0.43418812083906999</v>
+      </c>
+      <c r="H9">
+        <v>0.20495817070463501</v>
+      </c>
+      <c r="I9">
+        <v>0.16299714284108699</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9">
+        <v>17.110434770584099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>391</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>360</v>
+      </c>
+      <c r="E10">
+        <v>362.50643706321699</v>
+      </c>
+      <c r="F10">
+        <v>3.9441304881350101</v>
+      </c>
+      <c r="G10">
+        <v>-5186.1325942234898</v>
+      </c>
+      <c r="H10">
+        <v>2.1729527214789002</v>
+      </c>
+      <c r="I10">
+        <v>-1723.11884227825</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>4897</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>284.33032989501902</v>
+      </c>
+      <c r="F11">
+        <v>9.40078574035174E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.33141792517538898</v>
+      </c>
+      <c r="H11">
+        <v>9.6918915395163605E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.31687312997271899</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11">
+        <v>221.79754114151001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>4897</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>360</v>
+      </c>
+      <c r="E12">
+        <v>636.45779991149902</v>
+      </c>
+      <c r="F12">
+        <v>9.40078574035174E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.33141792517538898</v>
+      </c>
+      <c r="H12">
+        <v>9.6918915395163605E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.31687312997271899</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12">
+        <v>214.13684582710201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>4897</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>360</v>
+      </c>
+      <c r="E13">
+        <v>388.17454409599299</v>
+      </c>
+      <c r="F13">
+        <v>0.48170368479278303</v>
+      </c>
+      <c r="G13">
+        <v>-10.6761460661911</v>
+      </c>
+      <c r="H13">
+        <v>0.47142857142856998</v>
+      </c>
+      <c r="I13">
+        <v>-10.140713916192601</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>307</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>22.1592488288879</v>
+      </c>
+      <c r="F14">
+        <v>6.7121600695407804E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.75615012664320602</v>
+      </c>
+      <c r="H14">
+        <v>7.2324356339505805E-2</v>
+      </c>
+      <c r="I14">
+        <v>0.74115712290518299</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14">
+        <v>14.894655942916801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>307</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>360</v>
+      </c>
+      <c r="E15">
+        <v>382.04294395446698</v>
+      </c>
+      <c r="F15">
+        <v>2.0732028680785601E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.96460600602508395</v>
+      </c>
+      <c r="H15">
+        <v>2.1185517540488301</v>
+      </c>
+      <c r="I15">
+        <v>-1161.2125456685001</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15">
+        <v>18.858574151992698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>307</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>360</v>
+      </c>
+      <c r="E16">
+        <v>362.93051528930602</v>
+      </c>
+      <c r="F16">
+        <v>12.085418189917901</v>
+      </c>
+      <c r="G16">
+        <v>-34240.5054998005</v>
+      </c>
+      <c r="H16">
+        <v>14.1462094105425</v>
+      </c>
+      <c r="I16">
+        <v>-41634.2715660217</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K16">
+    <sortCondition ref="A2:A16"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C3935D-E67F-364D-9940-2CF043121203}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>4176</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>298.185586929321</v>
+      </c>
+      <c r="F2">
+        <v>5.5677894035133402E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.53682563121721905</v>
+      </c>
+      <c r="H2">
+        <v>5.5396652010914801E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.53164886071238504</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>198.528312206268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4176</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>360</v>
+      </c>
+      <c r="E3">
+        <v>623.36918926239002</v>
+      </c>
+      <c r="F3">
+        <v>5.5677894035133402E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.53682563121721905</v>
+      </c>
+      <c r="H3">
+        <v>5.5396652010914801E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.53164886071238504</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>173.36924219131399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4176</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>360</v>
+      </c>
+      <c r="E4">
+        <v>413.39738512039099</v>
+      </c>
+      <c r="F4">
+        <v>1.05598780369291</v>
+      </c>
+      <c r="G4">
+        <v>-247820.62168305699</v>
+      </c>
+      <c r="H4">
+        <v>5.4321158366568201E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.53452641124844003</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1502</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>69.750046968459998</v>
+      </c>
+      <c r="F5">
+        <v>9.1053706873821305E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.61968044936337296</v>
+      </c>
+      <c r="H5">
+        <v>8.7356816022082603E-2</v>
+      </c>
+      <c r="I5">
+        <v>0.58070735044671196</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>43.369040250778198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1502</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>360</v>
+      </c>
+      <c r="E6">
+        <v>413.46590399742098</v>
+      </c>
+      <c r="F6">
+        <v>8.73063799317393E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.637671815910406</v>
+      </c>
+      <c r="H6">
+        <v>8.6152154462444702E-2</v>
+      </c>
+      <c r="I6">
+        <v>0.58379497927373902</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>29.340301752090401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1502</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>360</v>
+      </c>
+      <c r="E7">
+        <v>376.65775394439697</v>
+      </c>
+      <c r="F7">
+        <v>10.087672523037099</v>
+      </c>
+      <c r="G7">
+        <v>-346222.14293109498</v>
+      </c>
+      <c r="H7">
+        <v>9.2450516017781301E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.47141432857826099</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>391</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>58.591569900512603</v>
+      </c>
+      <c r="F8">
+        <v>0.152371433009445</v>
+      </c>
+      <c r="G8">
+        <v>0.59294346851203805</v>
+      </c>
+      <c r="H8">
+        <v>0.187210023967568</v>
+      </c>
+      <c r="I8">
+        <v>0.47470613774056097</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>42.255343914031897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>391</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>360</v>
+      </c>
+      <c r="E9">
+        <v>391.22403907775799</v>
+      </c>
+      <c r="F9">
+        <v>0.67109371649793703</v>
+      </c>
+      <c r="G9">
+        <v>-212.52801294180699</v>
+      </c>
+      <c r="H9">
+        <v>2.1392405063291098</v>
+      </c>
+      <c r="I9">
+        <v>-1846.8458233890201</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>23.377386093139599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>391</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>360</v>
+      </c>
+      <c r="E10">
+        <v>366.04922413825898</v>
+      </c>
+      <c r="F10">
+        <v>4.7363741485948996</v>
+      </c>
+      <c r="G10">
+        <v>-4596.6696616193003</v>
+      </c>
+      <c r="H10">
+        <v>16.1760662109842</v>
+      </c>
+      <c r="I10">
+        <v>-25745.638475164898</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>4897</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>469.74882316589299</v>
+      </c>
+      <c r="F11">
+        <v>9.2556758372483602E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.34986978501082899</v>
+      </c>
+      <c r="H11">
+        <v>9.6353055252005604E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.31642269260918898</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11">
+        <v>325.73391389846802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>4897</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>360</v>
+      </c>
+      <c r="E12">
+        <v>766.89380502700806</v>
+      </c>
+      <c r="F12">
+        <v>9.2556758372483602E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.34986978501082899</v>
+      </c>
+      <c r="H12">
+        <v>9.6353055252005604E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.31642269260918898</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12">
+        <v>285.91834592819202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>4897</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>360</v>
+      </c>
+      <c r="E13">
+        <v>419.24000310897799</v>
+      </c>
+      <c r="F13">
+        <v>0.48170368479278303</v>
+      </c>
+      <c r="G13">
+        <v>-10.6761460661911</v>
+      </c>
+      <c r="H13">
+        <v>0.47142857142856998</v>
+      </c>
+      <c r="I13">
+        <v>-10.140713916192601</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>307</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>38.114728927612298</v>
+      </c>
+      <c r="F14">
+        <v>6.7328914211905705E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.75776786809946906</v>
+      </c>
+      <c r="H14">
+        <v>6.7560557329282706E-2</v>
+      </c>
+      <c r="I14">
+        <v>0.77578100077152201</v>
+      </c>
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <v>27.027063131332302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>307</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>360</v>
+      </c>
+      <c r="E15">
+        <v>393.78319501876803</v>
+      </c>
+      <c r="F15">
+        <v>3.34984575397272</v>
+      </c>
+      <c r="G15">
+        <v>-10506.307618941801</v>
+      </c>
+      <c r="H15">
+        <v>13.671378999638399</v>
+      </c>
+      <c r="I15">
+        <v>-21471.253834627201</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15">
+        <v>27.4768531322479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>307</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>360</v>
+      </c>
+      <c r="E16">
+        <v>363.63542389869599</v>
+      </c>
+      <c r="F16">
+        <v>113.551163592059</v>
+      </c>
+      <c r="G16">
+        <v>-309234.10023765097</v>
+      </c>
+      <c r="H16">
+        <v>119.534251473059</v>
+      </c>
+      <c r="I16">
+        <v>-354583.64809843502</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K16">
+    <sortCondition ref="A2:A16"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/d_1_2_3_comparison_init_no_init_no_init_time_limit.xlsx
+++ b/Results/d_1_2_3_comparison_init_no_init_no_init_time_limit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees_backup/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8866C8A-CA34-7F47-99AB-049EB977550D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BA5AB3-CDD3-C34C-9EBF-B40883EB8F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29100" yWindow="-2140" windowWidth="38400" windowHeight="19560" activeTab="6" xr2:uid="{6FABF61E-5EBE-E440-8258-C5C2D179FD09}"/>
+    <workbookView xWindow="28800" yWindow="-2140" windowWidth="38400" windowHeight="19560" activeTab="7" xr2:uid="{6FABF61E-5EBE-E440-8258-C5C2D179FD09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="d2" sheetId="5" r:id="rId5"/>
     <sheet name="d3" sheetId="6" r:id="rId6"/>
     <sheet name="d4" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="res_continuous_2023_03_17" localSheetId="0">Sheet1!$A$2:$K$32</definedName>
@@ -162,7 +163,7 @@
     </textPr>
   </connection>
   <connection id="6" xr16:uid="{2219E069-800F-FB4C-999B-4D01E79E33A4}" name="res_continuous_2023-03-22" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees_backup/Results/res_continuous_2023-03-22.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees_backup/Results/res_continuous_2023-03-22.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -183,7 +184,7 @@
     </textPr>
   </connection>
   <connection id="7" xr16:uid="{53E8F1B5-C132-A144-BDC5-F74B95195479}" name="res_continuous_2023-03-221" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees_backup/Results/res_continuous_2023-03-22.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees_backup/Results/res_continuous_2023-03-22.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -204,7 +205,7 @@
     </textPr>
   </connection>
   <connection id="8" xr16:uid="{8E23A30B-453B-664B-9867-B92BACDFE696}" name="res_continuous_2023-03-222" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees_backup/Results/res_continuous_2023-03-22.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees_backup/Results/res_continuous_2023-03-22.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -225,7 +226,7 @@
     </textPr>
   </connection>
   <connection id="9" xr16:uid="{0E911E47-3104-394A-B619-8A4604585186}" name="res_continuous_2023-03-223" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees_backup/Results/res_continuous_2023-03-22.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees_backup/Results/res_continuous_2023-03-22.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -249,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="45">
   <si>
     <t>yacht_hydrodynamics_reg.csv</t>
   </si>
@@ -352,12 +353,45 @@
   <si>
     <t>initialization time</t>
   </si>
+  <si>
+    <t>Initial solution at time 0</t>
+  </si>
+  <si>
+    <t>Initial solution at time limit</t>
+  </si>
+  <si>
+    <t>No solution at time limit</t>
+  </si>
+  <si>
+    <t>mae training</t>
+  </si>
+  <si>
+    <t>r2 training</t>
+  </si>
+  <si>
+    <t>mae testing</t>
+  </si>
+  <si>
+    <t>r2 testing</t>
+  </si>
+  <si>
+    <t>DEPTH 1</t>
+  </si>
+  <si>
+    <t>DEPTH 2</t>
+  </si>
+  <si>
+    <t>DEPTH 3</t>
+  </si>
+  <si>
+    <t>DEPTH 4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -371,6 +405,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="4">
@@ -405,12 +452,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4379,7 +4429,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I16" activeCellId="3" sqref="I7 I10 I13 I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4397,7 +4447,7 @@
     <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -4955,7 +5005,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I16" activeCellId="4" sqref="I4 I7 I10 I13 I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5549,7 +5599,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I16" activeCellId="4" sqref="I4 I7 I10 I13 I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6143,8 +6193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C3935D-E67F-364D-9940-2CF043121203}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" activeCellId="4" sqref="I4 I7 I10 I13 I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6731,4 +6781,1230 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD90418-1ED9-0345-A83E-9EB2B534BA85}">
+  <dimension ref="A1:S32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="11" max="11" width="27.1640625" customWidth="1"/>
+    <col min="15" max="15" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="34" x14ac:dyDescent="0.4">
+      <c r="G1" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4176</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>5.8064157251868198E-2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5.4591450634970597E-2</v>
+      </c>
+      <c r="G4">
+        <v>5.5619410361688597E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.51896274526930997</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.51443699730631098</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.53036671249618705</v>
+      </c>
+      <c r="M4">
+        <v>5.6567033257232897E-2</v>
+      </c>
+      <c r="N4" s="5">
+        <v>5.2376340130824997E-2</v>
+      </c>
+      <c r="O4">
+        <v>5.3566090037466103E-2</v>
+      </c>
+      <c r="Q4">
+        <v>0.53593631514551099</v>
+      </c>
+      <c r="R4">
+        <v>0.546584896413846</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0.55801243305320003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1502</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.101037318487485</v>
+      </c>
+      <c r="F5" s="5">
+        <v>8.3334515733796896E-2</v>
+      </c>
+      <c r="G5">
+        <v>8.3779827812866997E-2</v>
+      </c>
+      <c r="I5">
+        <v>0.524154724101623</v>
+      </c>
+      <c r="J5">
+        <v>0.633342659907004</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.64513606718590299</v>
+      </c>
+      <c r="M5">
+        <v>0.524154724101623</v>
+      </c>
+      <c r="N5">
+        <v>8.2814292993655295E-2</v>
+      </c>
+      <c r="O5" s="5">
+        <v>8.1154430823851806E-2</v>
+      </c>
+      <c r="Q5">
+        <v>0.50524105805886399</v>
+      </c>
+      <c r="R5">
+        <v>0.57889698400530198</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0.59834568285551604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>391</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.193341362757184</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.14624054045555901</v>
+      </c>
+      <c r="G6">
+        <v>0.150924856466183</v>
+      </c>
+      <c r="I6">
+        <v>0.49043728085876298</v>
+      </c>
+      <c r="J6">
+        <v>0.35081479440545399</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.473597746626511</v>
+      </c>
+      <c r="M6">
+        <v>0.49043728085876298</v>
+      </c>
+      <c r="N6">
+        <v>0.23477554028109399</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.192053877228791</v>
+      </c>
+      <c r="Q6">
+        <v>0.41001560310406898</v>
+      </c>
+      <c r="R6">
+        <v>0.219063605839079</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0.33352289216839298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4897</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>9.6587734170940201E-2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>9.6358448658171197E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>9.6358448658171197E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.30158466572772902</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.28049753708394798</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.28049753708394798</v>
+      </c>
+      <c r="M7">
+        <v>0.30158466572772902</v>
+      </c>
+      <c r="N7">
+        <v>9.66809390961932E-2</v>
+      </c>
+      <c r="O7" s="5">
+        <v>9.66809390961932E-2</v>
+      </c>
+      <c r="Q7">
+        <v>0.30701362207143901</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.29483234582729101</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0.29483234582729101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>307</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.7020424408479401E-2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2.0094071063046899E-2</v>
+      </c>
+      <c r="G8">
+        <v>2.0525929695595399E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.88130791676074005</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.97998382671898598</v>
+      </c>
+      <c r="K8">
+        <v>0.97984374941335195</v>
+      </c>
+      <c r="M8">
+        <v>0.88130791676074005</v>
+      </c>
+      <c r="N8">
+        <v>2.2867234527443301E-2</v>
+      </c>
+      <c r="O8" s="5">
+        <v>2.0748809110987101E-2</v>
+      </c>
+      <c r="Q8">
+        <v>0.90945530809714104</v>
+      </c>
+      <c r="R8">
+        <v>0.975887492056837</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0.98611904649404702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="34" x14ac:dyDescent="0.4">
+      <c r="G9" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>4176</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5.7862971573451598E-2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>5.7862971573451598E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.32094739093242097</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.52104963159800799</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.52104963159800799</v>
+      </c>
+      <c r="K12">
+        <v>-7.6440400366359302</v>
+      </c>
+      <c r="M12" s="5">
+        <v>5.6912091880954203E-2</v>
+      </c>
+      <c r="N12" s="5">
+        <v>5.6912091880954203E-2</v>
+      </c>
+      <c r="O12">
+        <v>0.31130382775119603</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0.52697094905314601</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0.52697094905314601</v>
+      </c>
+      <c r="S12">
+        <v>-7.89051796655479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>1502</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>0.10154237523802</v>
+      </c>
+      <c r="F13" s="5">
+        <v>9.3913281499613005E-2</v>
+      </c>
+      <c r="G13">
+        <v>2.3171280439529802</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.53920518235564296</v>
+      </c>
+      <c r="J13">
+        <v>0.52569794811142001</v>
+      </c>
+      <c r="K13">
+        <v>-61193.275906120303</v>
+      </c>
+      <c r="M13">
+        <v>9.4220216332376094E-2</v>
+      </c>
+      <c r="N13" s="5">
+        <v>9.1802521671797394E-2</v>
+      </c>
+      <c r="O13">
+        <v>4.8911262612985604</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0.52054801746455903</v>
+      </c>
+      <c r="R13">
+        <v>0.49123367045689997</v>
+      </c>
+      <c r="S13">
+        <v>-111591.659900375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>391</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>0.177495438391959</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.13865720318981301</v>
+      </c>
+      <c r="G14">
+        <v>0.19319551883868399</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.52004877099864799</v>
+      </c>
+      <c r="J14">
+        <v>0.49440063952207702</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.53088592213244301</v>
+      </c>
+      <c r="M14">
+        <v>0.206051207507218</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0.17251691947454401</v>
+      </c>
+      <c r="O14">
+        <v>0.56305730918509</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0.42619201111861399</v>
+      </c>
+      <c r="R14">
+        <v>0.39645442566530897</v>
+      </c>
+      <c r="S14">
+        <v>-29.567245488699299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>4897</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5">
+        <v>9.5690657323454803E-2</v>
+      </c>
+      <c r="F15" s="5">
+        <v>9.5690657323454803E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.48170368479278303</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.31388955649650402</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.31388955649650402</v>
+      </c>
+      <c r="K15">
+        <v>-10.6761460661911</v>
+      </c>
+      <c r="M15" s="5">
+        <v>9.7650056065033297E-2</v>
+      </c>
+      <c r="N15" s="5">
+        <v>9.7650056065033297E-2</v>
+      </c>
+      <c r="O15">
+        <v>0.47142857142856998</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>0.31193032407043503</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0.31193032407043503</v>
+      </c>
+      <c r="S15">
+        <v>-10.140713916192601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>307</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>5.8850542847911601E-2</v>
+      </c>
+      <c r="F16">
+        <v>1.9604272421354402E-2</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1.6004104251722599E-2</v>
+      </c>
+      <c r="I16">
+        <v>0.81003366792484799</v>
+      </c>
+      <c r="J16">
+        <v>0.98035007862464896</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.98540249200900598</v>
+      </c>
+      <c r="M16">
+        <v>5.6843502449295799E-2</v>
+      </c>
+      <c r="N16" s="5">
+        <v>2.7535858971246899E-2</v>
+      </c>
+      <c r="O16">
+        <v>2.2786844252660299E-2</v>
+      </c>
+      <c r="Q16">
+        <v>0.83975224008588101</v>
+      </c>
+      <c r="R16">
+        <v>0.96930708584916503</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0.97837027175400104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="34" x14ac:dyDescent="0.4">
+      <c r="G17" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>4176</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="E20" s="5">
+        <v>5.9037163940816297E-2</v>
+      </c>
+      <c r="F20" s="5">
+        <v>5.9037163940816297E-2</v>
+      </c>
+      <c r="G20">
+        <v>1.0559875494778901</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.50321233075070804</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.50321233075070804</v>
+      </c>
+      <c r="K20">
+        <v>-247856.79278030799</v>
+      </c>
+      <c r="M20" s="5">
+        <v>5.8254085159011801E-2</v>
+      </c>
+      <c r="N20" s="5">
+        <v>5.8254085159011801E-2</v>
+      </c>
+      <c r="O20">
+        <v>12.032755049888999</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>0.50663592716328398</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0.50663592716328398</v>
+      </c>
+      <c r="S20">
+        <v>-3255543.1227432098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>1502</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>9.5892858461266994E-2</v>
+      </c>
+      <c r="F21" s="5">
+        <v>8.5101290363385804E-2</v>
+      </c>
+      <c r="G21">
+        <v>152.98974290968201</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.58101301516835002</v>
+      </c>
+      <c r="J21">
+        <v>0.57557657298693599</v>
+      </c>
+      <c r="K21">
+        <v>-4069572.14004476</v>
+      </c>
+      <c r="M21">
+        <v>8.9921351139456498E-2</v>
+      </c>
+      <c r="N21" s="5">
+        <v>8.7729968627484403E-2</v>
+      </c>
+      <c r="O21">
+        <v>119.977518564272</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>0.55803051643693102</v>
+      </c>
+      <c r="R21">
+        <v>0.51609351569580497</v>
+      </c>
+      <c r="S21">
+        <v>-3512974.7778805601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>391</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>0.16909373344226999</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.152428476268087</v>
+      </c>
+      <c r="G22">
+        <v>3.9441304881350101</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.54633607973268705</v>
+      </c>
+      <c r="J22">
+        <v>0.43418812083906999</v>
+      </c>
+      <c r="K22">
+        <v>-5186.1325942234898</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0.19937999182846</v>
+      </c>
+      <c r="N22">
+        <v>0.20495817070463501</v>
+      </c>
+      <c r="O22">
+        <v>2.1729527214789002</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0.43636342866390498</v>
+      </c>
+      <c r="R22">
+        <v>0.16299714284108699</v>
+      </c>
+      <c r="S22">
+        <v>-1723.11884227825</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>4897</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="E23" s="5">
+        <v>9.40078574035174E-2</v>
+      </c>
+      <c r="F23" s="5">
+        <v>9.40078574035174E-2</v>
+      </c>
+      <c r="G23">
+        <v>0.48170368479278303</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.33141792517538898</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.33141792517538898</v>
+      </c>
+      <c r="K23">
+        <v>-10.6761460661911</v>
+      </c>
+      <c r="M23" s="5">
+        <v>9.6918915395163605E-2</v>
+      </c>
+      <c r="N23" s="5">
+        <v>9.6918915395163605E-2</v>
+      </c>
+      <c r="O23">
+        <v>0.47142857142856998</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>0.31687312997271899</v>
+      </c>
+      <c r="R23" s="5">
+        <v>0.31687312997271899</v>
+      </c>
+      <c r="S23">
+        <v>-10.140713916192601</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>307</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>6.7121600695407804E-2</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2.0732028680785601E-2</v>
+      </c>
+      <c r="G24">
+        <v>12.085418189917901</v>
+      </c>
+      <c r="I24">
+        <v>0.75615012664320602</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.96460600602508395</v>
+      </c>
+      <c r="K24">
+        <v>-34240.5054998005</v>
+      </c>
+      <c r="M24" s="5">
+        <v>7.2324356339505805E-2</v>
+      </c>
+      <c r="N24">
+        <v>2.1185517540488301</v>
+      </c>
+      <c r="O24">
+        <v>14.1462094105425</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>0.74115712290518299</v>
+      </c>
+      <c r="R24">
+        <v>-1161.2125456685001</v>
+      </c>
+      <c r="S24">
+        <v>-41634.2715660217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="34" x14ac:dyDescent="0.4">
+      <c r="G25" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" t="s">
+        <v>38</v>
+      </c>
+      <c r="O26" t="s">
+        <v>39</v>
+      </c>
+      <c r="R26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27" t="s">
+        <v>35</v>
+      </c>
+      <c r="O27" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>4176</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="E28" s="5">
+        <v>5.5677894035133402E-2</v>
+      </c>
+      <c r="F28" s="5">
+        <v>5.5677894035133402E-2</v>
+      </c>
+      <c r="G28">
+        <v>1.05598780369291</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0.53682563121721905</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.53682563121721905</v>
+      </c>
+      <c r="K28">
+        <v>-247820.62168305699</v>
+      </c>
+      <c r="M28">
+        <v>5.5396652010914801E-2</v>
+      </c>
+      <c r="N28">
+        <v>5.5396652010914801E-2</v>
+      </c>
+      <c r="O28" s="5">
+        <v>5.4321158366568201E-2</v>
+      </c>
+      <c r="Q28">
+        <v>0.53164886071238504</v>
+      </c>
+      <c r="R28">
+        <v>0.53164886071238504</v>
+      </c>
+      <c r="S28" s="5">
+        <v>0.53452641124844003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>1502</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>9.1053706873821305E-2</v>
+      </c>
+      <c r="F29" s="5">
+        <v>8.73063799317393E-2</v>
+      </c>
+      <c r="G29">
+        <v>10.087672523037099</v>
+      </c>
+      <c r="I29">
+        <v>0.61968044936337296</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.637671815910406</v>
+      </c>
+      <c r="K29">
+        <v>-346222.14293109498</v>
+      </c>
+      <c r="M29">
+        <v>8.7356816022082603E-2</v>
+      </c>
+      <c r="N29" s="5">
+        <v>8.6152154462444702E-2</v>
+      </c>
+      <c r="O29">
+        <v>9.2450516017781301E-2</v>
+      </c>
+      <c r="Q29">
+        <v>0.58070735044671196</v>
+      </c>
+      <c r="R29" s="5">
+        <v>0.58379497927373902</v>
+      </c>
+      <c r="S29">
+        <v>0.47141432857826099</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>391</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.152371433009445</v>
+      </c>
+      <c r="F30">
+        <v>0.67109371649793703</v>
+      </c>
+      <c r="G30">
+        <v>4.7363741485948996</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0.59294346851203805</v>
+      </c>
+      <c r="J30">
+        <v>-212.52801294180699</v>
+      </c>
+      <c r="K30">
+        <v>-4596.6696616193003</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0.187210023967568</v>
+      </c>
+      <c r="N30">
+        <v>2.1392405063291098</v>
+      </c>
+      <c r="O30">
+        <v>16.1760662109842</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>0.47470613774056097</v>
+      </c>
+      <c r="R30">
+        <v>-1846.8458233890201</v>
+      </c>
+      <c r="S30">
+        <v>-25745.638475164898</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>4897</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="E31" s="5">
+        <v>9.2556758372483602E-2</v>
+      </c>
+      <c r="F31" s="5">
+        <v>9.2556758372483602E-2</v>
+      </c>
+      <c r="G31">
+        <v>0.48170368479278303</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0.34986978501082899</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.34986978501082899</v>
+      </c>
+      <c r="K31">
+        <v>-10.6761460661911</v>
+      </c>
+      <c r="M31" s="5">
+        <v>9.6353055252005604E-2</v>
+      </c>
+      <c r="N31" s="5">
+        <v>9.6353055252005604E-2</v>
+      </c>
+      <c r="O31">
+        <v>0.47142857142856998</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>0.31642269260918898</v>
+      </c>
+      <c r="R31" s="5">
+        <v>0.31642269260918898</v>
+      </c>
+      <c r="S31">
+        <v>-10.140713916192601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>307</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="E32" s="5">
+        <v>6.7328914211905705E-2</v>
+      </c>
+      <c r="F32">
+        <v>3.34984575397272</v>
+      </c>
+      <c r="G32">
+        <v>113.551163592059</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0.75776786809946906</v>
+      </c>
+      <c r="J32">
+        <v>-10506.307618941801</v>
+      </c>
+      <c r="K32">
+        <v>-309234.10023765097</v>
+      </c>
+      <c r="M32" s="5">
+        <v>6.7560557329282706E-2</v>
+      </c>
+      <c r="N32">
+        <v>13.671378999638399</v>
+      </c>
+      <c r="O32">
+        <v>119.534251473059</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>0.77578100077152201</v>
+      </c>
+      <c r="R32">
+        <v>-21471.253834627201</v>
+      </c>
+      <c r="S32">
+        <v>-354583.64809843502</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/d_1_2_3_comparison_init_no_init_no_init_time_limit.xlsx
+++ b/Results/d_1_2_3_comparison_init_no_init_no_init_time_limit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BA5AB3-CDD3-C34C-9EBF-B40883EB8F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACCFBB3-5148-8B4F-86FB-93EA1006851B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-2140" windowWidth="38400" windowHeight="19560" activeTab="7" xr2:uid="{6FABF61E-5EBE-E440-8258-C5C2D179FD09}"/>
   </bookViews>
@@ -459,8 +459,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6788,7 +6788,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6801,7 +6801,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="34" x14ac:dyDescent="0.4">
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6888,7 +6888,7 @@
       <c r="I4">
         <v>0.51896274526930997</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4">
         <v>0.51443699730631098</v>
       </c>
       <c r="K4" s="5">
@@ -6979,13 +6979,13 @@
       <c r="G6">
         <v>0.150924856466183</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <v>0.49043728085876298</v>
       </c>
       <c r="J6">
         <v>0.35081479440545399</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="7">
         <v>0.473597746626511</v>
       </c>
       <c r="M6">
@@ -6997,13 +6997,13 @@
       <c r="O6" s="5">
         <v>0.192053877228791</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="5">
         <v>0.41001560310406898</v>
       </c>
       <c r="R6">
         <v>0.219063605839079</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="7">
         <v>0.33352289216839298</v>
       </c>
     </row>
@@ -7026,13 +7026,13 @@
       <c r="G7" s="5">
         <v>9.6358448658171197E-2</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
         <v>0.30158466572772902</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="7">
         <v>0.28049753708394798</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="7">
         <v>0.28049753708394798</v>
       </c>
       <c r="M7">
@@ -7044,13 +7044,13 @@
       <c r="O7" s="5">
         <v>9.66809390961932E-2</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="5">
         <v>0.30701362207143901</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="7">
         <v>0.29483234582729101</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="7">
         <v>0.29483234582729101</v>
       </c>
     </row>
@@ -7102,7 +7102,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="34" x14ac:dyDescent="0.4">
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7280,7 +7280,7 @@
       <c r="G14">
         <v>0.19319551883868399</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14">
         <v>0.52004877099864799</v>
       </c>
       <c r="J14">
@@ -7368,19 +7368,19 @@
       <c r="E16">
         <v>5.8850542847911601E-2</v>
       </c>
-      <c r="F16">
-        <v>1.9604272421354402E-2</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="F16" s="5">
+        <v>1.56042724213544E-2</v>
+      </c>
+      <c r="G16" s="7">
         <v>1.6004104251722599E-2</v>
       </c>
       <c r="I16">
         <v>0.81003366792484799</v>
       </c>
-      <c r="J16">
-        <v>0.98035007862464896</v>
-      </c>
-      <c r="K16" s="5">
+      <c r="J16" s="5">
+        <v>0.98635007862464896</v>
+      </c>
+      <c r="K16" s="7">
         <v>0.98540249200900598</v>
       </c>
       <c r="M16">
@@ -7403,7 +7403,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="34" x14ac:dyDescent="0.4">
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7704,7 +7704,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="34" x14ac:dyDescent="0.4">
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="6" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Results/d_1_2_3_comparison_init_no_init_no_init_time_limit.xlsx
+++ b/Results/d_1_2_3_comparison_init_no_init_no_init_time_limit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACCFBB3-5148-8B4F-86FB-93EA1006851B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF624BA5-CCED-CB42-A463-BDBC835FF8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-2140" windowWidth="38400" windowHeight="19560" activeTab="7" xr2:uid="{6FABF61E-5EBE-E440-8258-C5C2D179FD09}"/>
+    <workbookView xWindow="660" yWindow="5980" windowWidth="28120" windowHeight="17500" activeTab="7" xr2:uid="{6FABF61E-5EBE-E440-8258-C5C2D179FD09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="d3" sheetId="6" r:id="rId6"/>
     <sheet name="d4" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet4" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet5" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="res_continuous_2023_03_17" localSheetId="0">Sheet1!$A$2:$K$32</definedName>
@@ -32,6 +33,8 @@
     <definedName name="res_continuous_2023_03_22" localSheetId="4">'d2'!$A$2:$K$16</definedName>
     <definedName name="res_continuous_2023_03_22" localSheetId="5">'d3'!$A$2:$K$16</definedName>
     <definedName name="res_continuous_2023_03_22" localSheetId="6">'d4'!$A$2:$K$16</definedName>
+    <definedName name="res_continuous_2023_03_29" localSheetId="8">Sheet5!$A$1:$K$11</definedName>
+    <definedName name="res_continuous_2023_03_29_1" localSheetId="8">Sheet5!$A$12:$P$21</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -246,11 +249,53 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="10" xr16:uid="{ADB4CC18-3FC5-534E-8234-F03CA87B8C24}" name="res_continuous_2023-03-29" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-29.csv" comma="1">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="11" xr16:uid="{88A9F116-6D66-2F46-A82D-DEF541840BA5}" name="res_continuous_2023-03-291" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" firstRow="4" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-29.csv" comma="1">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="49">
   <si>
     <t>yacht_hydrodynamics_reg.csv</t>
   </si>
@@ -386,6 +431,18 @@
   <si>
     <t>DEPTH 4</t>
   </si>
+  <si>
+    <t>mae i</t>
+  </si>
+  <si>
+    <t>r2 i</t>
+  </si>
+  <si>
+    <t>mae o</t>
+  </si>
+  <si>
+    <t>r2 o</t>
+  </si>
 </sst>
 </file>
 
@@ -452,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -460,7 +517,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,19 +535,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-18" connectionId="2" xr16:uid="{78CB4E18-9BB6-D34D-9177-678E75660766}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_29_1" connectionId="11" xr16:uid="{DEEB399E-44F8-1946-A5A4-1E2C47238D81}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-29" connectionId="10" xr16:uid="{D511C83C-6E17-6241-A7A5-3AA317498C6D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-17" connectionId="1" xr16:uid="{001C276C-1108-EC48-9063-24A6196E6C73}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-18" connectionId="2" xr16:uid="{78CB4E18-9BB6-D34D-9177-678E75660766}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-21" connectionId="3" xr16:uid="{DA90511F-46E1-864E-9F44-FE92330B9747}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_21_1" connectionId="4" xr16:uid="{BA017236-576A-1543-BD2D-FC4FFAFCBA2B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_21_1" connectionId="4" xr16:uid="{BA017236-576A-1543-BD2D-FC4FFAFCBA2B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-21" connectionId="3" xr16:uid="{DA90511F-46E1-864E-9F44-FE92330B9747}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6788,13 +6852,13 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
     <col min="11" max="11" width="27.1640625" customWidth="1"/>
     <col min="15" max="15" width="22.33203125" customWidth="1"/>
@@ -6985,7 +7049,7 @@
       <c r="J6">
         <v>0.35081479440545399</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6">
         <v>0.473597746626511</v>
       </c>
       <c r="M6">
@@ -7003,7 +7067,7 @@
       <c r="R6">
         <v>0.219063605839079</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6">
         <v>0.33352289216839298</v>
       </c>
     </row>
@@ -7029,10 +7093,10 @@
       <c r="I7" s="5">
         <v>0.30158466572772902</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7">
         <v>0.28049753708394798</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7">
         <v>0.28049753708394798</v>
       </c>
       <c r="M7">
@@ -7047,10 +7111,10 @@
       <c r="Q7" s="5">
         <v>0.30701362207143901</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7">
         <v>0.29483234582729101</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7">
         <v>0.29483234582729101</v>
       </c>
     </row>
@@ -7371,7 +7435,7 @@
       <c r="F16" s="5">
         <v>1.56042724213544E-2</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16">
         <v>1.6004104251722599E-2</v>
       </c>
       <c r="I16">
@@ -7380,7 +7444,7 @@
       <c r="J16" s="5">
         <v>0.98635007862464896</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16">
         <v>0.98540249200900598</v>
       </c>
       <c r="M16">
@@ -8007,4 +8071,649 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8F2178-539F-5C4C-B15E-C8D371E906CD}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>4176</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>29.0145490169525</v>
+      </c>
+      <c r="F2">
+        <v>5.7862971573451598E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.52104963159800799</v>
+      </c>
+      <c r="H2">
+        <v>5.6912091880954203E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.52697094905314601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4176</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>391.51211404800398</v>
+      </c>
+      <c r="F3">
+        <v>5.7862971573451598E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.52104963159800799</v>
+      </c>
+      <c r="H3">
+        <v>5.6912091880954203E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.52697094905314601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1502</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>6.18015384674072</v>
+      </c>
+      <c r="F4">
+        <v>0.10154237523802</v>
+      </c>
+      <c r="G4">
+        <v>0.53920518235564296</v>
+      </c>
+      <c r="H4">
+        <v>9.4220216332376094E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.52054801746455903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1502</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>372.192404985427</v>
+      </c>
+      <c r="F5">
+        <v>9.3942520782359401E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.52323131392371203</v>
+      </c>
+      <c r="H5">
+        <v>9.2378798714789503E-2</v>
+      </c>
+      <c r="I5">
+        <v>0.49036563432857699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>391</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>7.5622689723968497</v>
+      </c>
+      <c r="F6">
+        <v>0.177495438391959</v>
+      </c>
+      <c r="G6">
+        <v>0.52004877099864799</v>
+      </c>
+      <c r="H6">
+        <v>0.206051207507218</v>
+      </c>
+      <c r="I6">
+        <v>0.42619201111861399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>391</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>367.08551669120698</v>
+      </c>
+      <c r="F7">
+        <v>0.63610897795446597</v>
+      </c>
+      <c r="G7">
+        <v>-249.213369930239</v>
+      </c>
+      <c r="H7">
+        <v>0.196355918105347</v>
+      </c>
+      <c r="I7">
+        <v>-0.204510528408298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>4897</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>39.573204994201603</v>
+      </c>
+      <c r="F8">
+        <v>9.5690657323454803E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.31388955649650402</v>
+      </c>
+      <c r="H8">
+        <v>9.7650056065033297E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.31193032407043503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>4897</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>408.92504310607899</v>
+      </c>
+      <c r="F9">
+        <v>9.5690657323454803E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.31388955649650402</v>
+      </c>
+      <c r="H9">
+        <v>9.7650056065033297E-2</v>
+      </c>
+      <c r="I9">
+        <v>0.31193032407043503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>307</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>5.56874680519104</v>
+      </c>
+      <c r="F10">
+        <v>5.8850542847911601E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.81003366792484799</v>
+      </c>
+      <c r="H10">
+        <v>5.6843502449295799E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.83975224008588101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>307</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>364.13470506668</v>
+      </c>
+      <c r="F11">
+        <v>2.0172113134474201E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.97760616844266901</v>
+      </c>
+      <c r="H11">
+        <v>2.8146720677308099E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.96442175989395396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>4176</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>34.542192220687802</v>
+      </c>
+      <c r="F12">
+        <v>5.9037163940816297E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.50321233075070804</v>
+      </c>
+      <c r="H12">
+        <v>5.8254085159011801E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.50663592716328398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4176</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>421.076116800308</v>
+      </c>
+      <c r="F13">
+        <v>5.9037163940816297E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.50321233075070804</v>
+      </c>
+      <c r="H13">
+        <v>5.8254085159011801E-2</v>
+      </c>
+      <c r="I13">
+        <v>0.50663592716328398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>1502</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>15.764312982559201</v>
+      </c>
+      <c r="F14">
+        <v>9.5892858461266994E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.58101301516835002</v>
+      </c>
+      <c r="H14">
+        <v>8.9921351139456498E-2</v>
+      </c>
+      <c r="I14">
+        <v>0.55803051643693102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>1502</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>386.48891019821099</v>
+      </c>
+      <c r="F15">
+        <v>8.4679580770484403E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.576845846466566</v>
+      </c>
+      <c r="H15">
+        <v>8.4516869477474596E-2</v>
+      </c>
+      <c r="I15">
+        <v>0.54828599260921096</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>391</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>6.6710028648376403</v>
+      </c>
+      <c r="F16">
+        <v>0.16909373344226999</v>
+      </c>
+      <c r="G16">
+        <v>0.54633607973268705</v>
+      </c>
+      <c r="H16">
+        <v>0.19937999182846</v>
+      </c>
+      <c r="I16">
+        <v>0.43636342866390498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>391</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>381.08024334907498</v>
+      </c>
+      <c r="F17">
+        <v>0.78679917719306403</v>
+      </c>
+      <c r="G17">
+        <v>-847.63851859630495</v>
+      </c>
+      <c r="H17">
+        <v>0.18878711224741301</v>
+      </c>
+      <c r="I17">
+        <v>0.29869164875114401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>4897</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>75.476382970809894</v>
+      </c>
+      <c r="F18">
+        <v>9.40078574035174E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.33141792517538898</v>
+      </c>
+      <c r="H18">
+        <v>9.6918915395163605E-2</v>
+      </c>
+      <c r="I18">
+        <v>0.31687312997271899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>4897</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>498.24478006362898</v>
+      </c>
+      <c r="F19">
+        <v>9.40078574035174E-2</v>
+      </c>
+      <c r="G19">
+        <v>0.33141792517538898</v>
+      </c>
+      <c r="H19">
+        <v>9.6918915395163605E-2</v>
+      </c>
+      <c r="I19">
+        <v>0.31687312997271899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>307</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>5.2896668910980198</v>
+      </c>
+      <c r="F20">
+        <v>6.7121600695407804E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.75615012664320602</v>
+      </c>
+      <c r="H20">
+        <v>7.2324356339505805E-2</v>
+      </c>
+      <c r="I20">
+        <v>0.74115712290518299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>307</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>367.98126888275101</v>
+      </c>
+      <c r="F21">
+        <v>0.105062107585128</v>
+      </c>
+      <c r="G21">
+        <v>-31.135643420242801</v>
+      </c>
+      <c r="H21">
+        <v>0.22283245242799399</v>
+      </c>
+      <c r="I21">
+        <v>-37.621436721814099</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I21">
+    <sortCondition ref="D2:D21"/>
+    <sortCondition ref="A2:A21"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/d_1_2_3_comparison_init_no_init_no_init_time_limit.xlsx
+++ b/Results/d_1_2_3_comparison_init_no_init_no_init_time_limit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF624BA5-CCED-CB42-A463-BDBC835FF8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35FCE92-9F32-3B4D-8BA3-A8BC19F7A4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="5980" windowWidth="28120" windowHeight="17500" activeTab="7" xr2:uid="{6FABF61E-5EBE-E440-8258-C5C2D179FD09}"/>
+    <workbookView xWindow="660" yWindow="500" windowWidth="28120" windowHeight="17500" activeTab="9" xr2:uid="{6FABF61E-5EBE-E440-8258-C5C2D179FD09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="d4" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet4" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet5" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet6" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="res_continuous_2023_03_17" localSheetId="0">Sheet1!$A$2:$K$32</definedName>
@@ -34,7 +35,9 @@
     <definedName name="res_continuous_2023_03_22" localSheetId="5">'d3'!$A$2:$K$16</definedName>
     <definedName name="res_continuous_2023_03_22" localSheetId="6">'d4'!$A$2:$K$16</definedName>
     <definedName name="res_continuous_2023_03_29" localSheetId="8">Sheet5!$A$1:$K$11</definedName>
+    <definedName name="res_continuous_2023_03_29" localSheetId="9">Sheet6!$A$22:$K$46</definedName>
     <definedName name="res_continuous_2023_03_29_1" localSheetId="8">Sheet5!$A$12:$P$21</definedName>
+    <definedName name="res_continuous_2023_03_30" localSheetId="9">Sheet6!$A$2:$K$21</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -250,7 +253,7 @@
     </textPr>
   </connection>
   <connection id="10" xr16:uid="{ADB4CC18-3FC5-534E-8234-F03CA87B8C24}" name="res_continuous_2023-03-29" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-29.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-29.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -271,7 +274,49 @@
     </textPr>
   </connection>
   <connection id="11" xr16:uid="{88A9F116-6D66-2F46-A82D-DEF541840BA5}" name="res_continuous_2023-03-291" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" firstRow="4" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-29.csv" comma="1">
+    <textPr firstRow="4" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-29.csv" comma="1">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="12" xr16:uid="{51475FD0-2424-DE45-B461-505CD7577027}" name="res_continuous_2023-03-292" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" firstRow="26" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-29.csv" comma="1">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="13" xr16:uid="{0AD5EB9A-5ADA-4F4E-A286-B9FA34C1F988}" name="res_continuous_2023-03-30" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-30.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -295,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="51">
   <si>
     <t>yacht_hydrodynamics_reg.csv</t>
   </si>
@@ -443,6 +488,12 @@
   <si>
     <t>r2 o</t>
   </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
 </sst>
 </file>
 
@@ -535,27 +586,35 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-17" connectionId="1" xr16:uid="{001C276C-1108-EC48-9063-24A6196E6C73}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-29" connectionId="10" xr16:uid="{D511C83C-6E17-6241-A7A5-3AA317498C6D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_29_1" connectionId="11" xr16:uid="{DEEB399E-44F8-1946-A5A4-1E2C47238D81}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-29" connectionId="12" xr16:uid="{D6114479-D823-1B43-87BC-47496EAC10A7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-30" connectionId="13" xr16:uid="{E799E179-7AEE-494A-8108-18C6CE9270A8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-18" connectionId="2" xr16:uid="{78CB4E18-9BB6-D34D-9177-678E75660766}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_29_1" connectionId="11" xr16:uid="{DEEB399E-44F8-1946-A5A4-1E2C47238D81}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-29" connectionId="10" xr16:uid="{D511C83C-6E17-6241-A7A5-3AA317498C6D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-17" connectionId="1" xr16:uid="{001C276C-1108-EC48-9063-24A6196E6C73}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_21_1" connectionId="4" xr16:uid="{BA017236-576A-1543-BD2D-FC4FFAFCBA2B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-21" connectionId="3" xr16:uid="{DA90511F-46E1-864E-9F44-FE92330B9747}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-21" connectionId="3" xr16:uid="{DA90511F-46E1-864E-9F44-FE92330B9747}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_21_1" connectionId="4" xr16:uid="{BA017236-576A-1543-BD2D-FC4FFAFCBA2B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2511,6 +2570,1651 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1B45F5-6B38-D64A-86E7-FF01617C9988}">
+  <dimension ref="A1:K46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" customWidth="1"/>
+    <col min="9" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>4176</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>86.150616407394395</v>
+      </c>
+      <c r="F2">
+        <v>5.7862971573451598E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.52104963159800799</v>
+      </c>
+      <c r="H2">
+        <v>5.6912091880954301E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.52697094905314601</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>58.078398942947302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4176</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3656.9554901123001</v>
+      </c>
+      <c r="F3">
+        <v>5.3761292985891398E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.545984711900941</v>
+      </c>
+      <c r="H3">
+        <v>5.2946485610606803E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.55796724055751701</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>38.870805740356403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4176</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3617.27434778213</v>
+      </c>
+      <c r="F4">
+        <v>1.6704629185550299</v>
+      </c>
+      <c r="G4">
+        <v>-341478.49674260401</v>
+      </c>
+      <c r="H4">
+        <v>5.4620185605360201E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.53205489499339298</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1502</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>19.5833916664123</v>
+      </c>
+      <c r="F5">
+        <v>0.10154237523802</v>
+      </c>
+      <c r="G5">
+        <v>0.53920518235564296</v>
+      </c>
+      <c r="H5">
+        <v>9.4220216332376094E-2</v>
+      </c>
+      <c r="I5">
+        <v>0.52054801746456003</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>12.2105863094329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1502</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3628.5514900684302</v>
+      </c>
+      <c r="F6">
+        <v>9.7269677521706899E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.481292554267224</v>
+      </c>
+      <c r="H6">
+        <v>9.4402389919185398E-2</v>
+      </c>
+      <c r="I6">
+        <v>0.44964601652784297</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>22.211474418640101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1502</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3604.9375164508801</v>
+      </c>
+      <c r="F7">
+        <v>0.22625079507427201</v>
+      </c>
+      <c r="G7">
+        <v>-507.71882303332802</v>
+      </c>
+      <c r="H7">
+        <v>5.07838913355826</v>
+      </c>
+      <c r="I7">
+        <v>-127173.339243536</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>391</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>16.513041973113999</v>
+      </c>
+      <c r="F8">
+        <v>0.177495438391959</v>
+      </c>
+      <c r="G8">
+        <v>0.52004877099864799</v>
+      </c>
+      <c r="H8">
+        <v>0.206051207507219</v>
+      </c>
+      <c r="I8">
+        <v>0.42619201111861399</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>13.0910122394561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>391</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>3618.68064332008</v>
+      </c>
+      <c r="F9">
+        <v>0.131527250670361</v>
+      </c>
+      <c r="G9">
+        <v>0.39360612941890399</v>
+      </c>
+      <c r="H9">
+        <v>0.180313107289853</v>
+      </c>
+      <c r="I9">
+        <v>0.17077499435737101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>16.665343284606902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>391</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3601.2463500499698</v>
+      </c>
+      <c r="F10">
+        <v>0.18735037062731499</v>
+      </c>
+      <c r="G10">
+        <v>0.50820512726177802</v>
+      </c>
+      <c r="H10">
+        <v>3.3339997497032301</v>
+      </c>
+      <c r="I10">
+        <v>-2848.34800551641</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>4897</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>179.391981601715</v>
+      </c>
+      <c r="F11">
+        <v>9.5690657323454803E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.31388955649650502</v>
+      </c>
+      <c r="H11">
+        <v>9.7650056065033297E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.31193032407043503</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>130.75687837600699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>4897</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3703.1168518066402</v>
+      </c>
+      <c r="F12">
+        <v>9.2724549446084298E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.32420922232073701</v>
+      </c>
+      <c r="H12">
+        <v>9.5685635339985003E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.31112381080436702</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <v>74.300072193145695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>4897</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3624.0738444328299</v>
+      </c>
+      <c r="F13">
+        <v>0.25074381734017598</v>
+      </c>
+      <c r="G13">
+        <v>-4283.3614957004202</v>
+      </c>
+      <c r="H13">
+        <v>3.1934684387261201</v>
+      </c>
+      <c r="I13">
+        <v>-133159.63120367099</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>307</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>11.789306640625</v>
+      </c>
+      <c r="F14">
+        <v>5.8850542847911698E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.81003366792484799</v>
+      </c>
+      <c r="H14">
+        <v>5.6843502449295799E-2</v>
+      </c>
+      <c r="I14">
+        <v>0.83975224008588201</v>
+      </c>
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <v>9.0850024223327601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>307</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>3607.2976400852199</v>
+      </c>
+      <c r="F15">
+        <v>8.9299688744973703E-3</v>
+      </c>
+      <c r="G15">
+        <v>0.99436134962871103</v>
+      </c>
+      <c r="H15">
+        <v>1.5035575440335401E-2</v>
+      </c>
+      <c r="I15">
+        <v>0.98596984269923504</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15">
+        <v>6.0807750225067103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>307</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>3601.1845202445902</v>
+      </c>
+      <c r="F16">
+        <v>8.9553070546692492E-3</v>
+      </c>
+      <c r="G16">
+        <v>0.99457522001104104</v>
+      </c>
+      <c r="H16">
+        <v>1.53250368012895E-2</v>
+      </c>
+      <c r="I16">
+        <v>0.98695846984715596</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>4176</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>164.09437727928099</v>
+      </c>
+      <c r="F17">
+        <v>5.9037163940816297E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.50321233075070704</v>
+      </c>
+      <c r="H17">
+        <v>5.8254085159011697E-2</v>
+      </c>
+      <c r="I17">
+        <v>0.50663592716328398</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <v>101.59195280074999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>4176</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>3714.8086781501702</v>
+      </c>
+      <c r="F18">
+        <v>5.2952366422550003E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.55331100677078404</v>
+      </c>
+      <c r="H18">
+        <v>5.2760713499287099E-2</v>
+      </c>
+      <c r="I18">
+        <v>0.56454000267317095</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>70.945871114730807</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>4176</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>3629.5796742439202</v>
+      </c>
+      <c r="F19">
+        <v>0.83651544253150101</v>
+      </c>
+      <c r="G19">
+        <v>-50883.779162779298</v>
+      </c>
+      <c r="H19">
+        <v>2.2850665477037699</v>
+      </c>
+      <c r="I19">
+        <v>-62741.7180474286</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>1502</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>37.213438749313298</v>
+      </c>
+      <c r="F20">
+        <v>9.5892858461266994E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.58101301516835002</v>
+      </c>
+      <c r="H20">
+        <v>8.9921351139456498E-2</v>
+      </c>
+      <c r="I20">
+        <v>0.55803051643693102</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <v>19.589860439300502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>1502</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>3626.3894560336998</v>
+      </c>
+      <c r="F21">
+        <v>8.4779202239052998E-2</v>
+      </c>
+      <c r="G21">
+        <v>0.58345671827877899</v>
+      </c>
+      <c r="H21">
+        <v>8.9644484040512507E-2</v>
+      </c>
+      <c r="I21">
+        <v>0.44673238858841502</v>
+      </c>
+      <c r="J21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21">
+        <v>14.630017995834301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>1502</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>3610.4547255039201</v>
+      </c>
+      <c r="F22">
+        <v>1.8023455513589901</v>
+      </c>
+      <c r="G22">
+        <v>-51472.628417024898</v>
+      </c>
+      <c r="H22">
+        <v>2.9536540277163801</v>
+      </c>
+      <c r="I22">
+        <v>-83446.137057411499</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>391</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>25.004740476608202</v>
+      </c>
+      <c r="F23">
+        <v>0.16909373344226999</v>
+      </c>
+      <c r="G23">
+        <v>0.54633607973268705</v>
+      </c>
+      <c r="H23">
+        <v>0.199379991828459</v>
+      </c>
+      <c r="I23">
+        <v>0.43636342866390498</v>
+      </c>
+      <c r="J23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23">
+        <v>18.652663469314501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>391</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>3621.3044707775098</v>
+      </c>
+      <c r="F24">
+        <v>0.17294444330197301</v>
+      </c>
+      <c r="G24">
+        <v>0.29021864908024098</v>
+      </c>
+      <c r="H24">
+        <v>0.25005793025473</v>
+      </c>
+      <c r="I24">
+        <v>-8.4537226842504601E-2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24">
+        <v>17.7963287830352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>391</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>3603.1029586791901</v>
+      </c>
+      <c r="F25">
+        <v>81.607608588498195</v>
+      </c>
+      <c r="G25">
+        <v>-71113.980799558398</v>
+      </c>
+      <c r="H25">
+        <v>102.09654497659299</v>
+      </c>
+      <c r="I25">
+        <v>-103293.728042305</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>4897</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>242.467928647995</v>
+      </c>
+      <c r="F26">
+        <v>9.40078574035174E-2</v>
+      </c>
+      <c r="G26">
+        <v>0.33141792517538898</v>
+      </c>
+      <c r="H26">
+        <v>9.6918915395163605E-2</v>
+      </c>
+      <c r="I26">
+        <v>0.31687312997271899</v>
+      </c>
+      <c r="J26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26">
+        <v>164.842055082321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>4897</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>3798.0429236888799</v>
+      </c>
+      <c r="F27">
+        <v>9.2064117101427506E-2</v>
+      </c>
+      <c r="G27">
+        <v>0.28867854353428302</v>
+      </c>
+      <c r="H27">
+        <v>9.48834600395497E-2</v>
+      </c>
+      <c r="I27">
+        <v>0.27685219145599999</v>
+      </c>
+      <c r="J27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27">
+        <v>133.63092350959701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>4897</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>3645.9134581089002</v>
+      </c>
+      <c r="F28">
+        <v>5.2634982124428999</v>
+      </c>
+      <c r="G28">
+        <v>-493522.68309433601</v>
+      </c>
+      <c r="H28">
+        <v>13.6185694998505</v>
+      </c>
+      <c r="I28">
+        <v>-1161897.08639075</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>307</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>16.996285676956099</v>
+      </c>
+      <c r="F29">
+        <v>6.7121600695407901E-2</v>
+      </c>
+      <c r="G29">
+        <v>0.75615012664320602</v>
+      </c>
+      <c r="H29">
+        <v>7.2324356339505805E-2</v>
+      </c>
+      <c r="I29">
+        <v>0.74115712290518299</v>
+      </c>
+      <c r="J29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29">
+        <v>12.7580997943878</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>307</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>3618.5373508930202</v>
+      </c>
+      <c r="F30">
+        <v>0.19747221581308499</v>
+      </c>
+      <c r="G30">
+        <v>-73.633362434660896</v>
+      </c>
+      <c r="H30">
+        <v>2.22765760745471E-2</v>
+      </c>
+      <c r="I30">
+        <v>0.98333620508267505</v>
+      </c>
+      <c r="J30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30">
+        <v>15.0879433155059</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>307</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>3602.3657217025702</v>
+      </c>
+      <c r="F31">
+        <v>6.9895011550716896E-2</v>
+      </c>
+      <c r="G31">
+        <v>-0.63425977151785995</v>
+      </c>
+      <c r="H31">
+        <v>0.163189517515063</v>
+      </c>
+      <c r="I31">
+        <v>-3.8598274316974499</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>4176</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>294.38483309745698</v>
+      </c>
+      <c r="F32">
+        <v>5.5677894035133402E-2</v>
+      </c>
+      <c r="G32">
+        <v>0.53682563121722005</v>
+      </c>
+      <c r="H32">
+        <v>5.5396652010914801E-2</v>
+      </c>
+      <c r="I32">
+        <v>0.53164886071238504</v>
+      </c>
+      <c r="J32" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32">
+        <v>167.746238231658</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>4176</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>3655.1204881668</v>
+      </c>
+      <c r="F33">
+        <v>1.1512623548702701</v>
+      </c>
+      <c r="G33">
+        <v>-114851.870065779</v>
+      </c>
+      <c r="H33">
+        <v>2.0544030439619201</v>
+      </c>
+      <c r="I33">
+        <v>-107531.058766234</v>
+      </c>
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>4176</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>3822.0985338687801</v>
+      </c>
+      <c r="F34">
+        <v>5.5677894035133402E-2</v>
+      </c>
+      <c r="G34">
+        <v>0.53682563121722005</v>
+      </c>
+      <c r="H34">
+        <v>5.5396652010914801E-2</v>
+      </c>
+      <c r="I34">
+        <v>0.53164886071238504</v>
+      </c>
+      <c r="J34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34">
+        <v>120.079748630523</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>1502</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>83.873477458953801</v>
+      </c>
+      <c r="F35">
+        <v>9.1053706873821305E-2</v>
+      </c>
+      <c r="G35">
+        <v>0.61968044936337296</v>
+      </c>
+      <c r="H35">
+        <v>8.7356816022082603E-2</v>
+      </c>
+      <c r="I35">
+        <v>0.58070735044671196</v>
+      </c>
+      <c r="J35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35">
+        <v>45.795283079147303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>1502</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>3616.7477772235802</v>
+      </c>
+      <c r="F36">
+        <v>22.5013397143417</v>
+      </c>
+      <c r="G36">
+        <v>-653850.07640073495</v>
+      </c>
+      <c r="H36">
+        <v>14.759414407775999</v>
+      </c>
+      <c r="I36">
+        <v>-548921.14728737005</v>
+      </c>
+      <c r="J36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>1502</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>3663.6022262573201</v>
+      </c>
+      <c r="F37">
+        <v>8.7255082970617098E-2</v>
+      </c>
+      <c r="G37">
+        <v>0.63716058534827003</v>
+      </c>
+      <c r="H37">
+        <v>8.3691103400536801E-2</v>
+      </c>
+      <c r="I37">
+        <v>0.59730937736796497</v>
+      </c>
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37">
+        <v>28.433480262756301</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>391</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>37.295582056045497</v>
+      </c>
+      <c r="F38">
+        <v>0.152371433009445</v>
+      </c>
+      <c r="G38">
+        <v>0.59294346851203805</v>
+      </c>
+      <c r="H38">
+        <v>0.187210023967568</v>
+      </c>
+      <c r="I38">
+        <v>0.47470613774056097</v>
+      </c>
+      <c r="J38" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38">
+        <v>26.698780536651601</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>391</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>3605.0065331459</v>
+      </c>
+      <c r="F39">
+        <v>4.0873505706208801</v>
+      </c>
+      <c r="G39">
+        <v>-6486.7985189335404</v>
+      </c>
+      <c r="H39">
+        <v>5.10913280881348</v>
+      </c>
+      <c r="I39">
+        <v>-4540.891686256</v>
+      </c>
+      <c r="J39" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>391</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>3641.9865078926</v>
+      </c>
+      <c r="F40">
+        <v>2.0602011633970498</v>
+      </c>
+      <c r="G40">
+        <v>-2219.5363896479998</v>
+      </c>
+      <c r="H40">
+        <v>1.2090939668837699</v>
+      </c>
+      <c r="I40">
+        <v>-296.64283082416802</v>
+      </c>
+      <c r="J40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40">
+        <v>32.302356243133502</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>4897</v>
+      </c>
+      <c r="C41">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>379.58522033691401</v>
+      </c>
+      <c r="F41">
+        <v>9.2556758372483602E-2</v>
+      </c>
+      <c r="G41">
+        <v>0.34986978501082899</v>
+      </c>
+      <c r="H41">
+        <v>9.6353055252005604E-2</v>
+      </c>
+      <c r="I41">
+        <v>0.31642269260918898</v>
+      </c>
+      <c r="J41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41">
+        <v>234.19859123229901</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>4897</v>
+      </c>
+      <c r="C42">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>3690.84943342208</v>
+      </c>
+      <c r="F42">
+        <v>1.0931811380654699</v>
+      </c>
+      <c r="G42">
+        <v>-177937.94956473101</v>
+      </c>
+      <c r="H42">
+        <v>4.0655309842977303</v>
+      </c>
+      <c r="I42">
+        <v>-704191.75357026805</v>
+      </c>
+      <c r="J42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>4897</v>
+      </c>
+      <c r="C43">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>3932.3170676231298</v>
+      </c>
+      <c r="F43">
+        <v>9.2556758362367403E-2</v>
+      </c>
+      <c r="G43">
+        <v>0.34986978500057703</v>
+      </c>
+      <c r="H43">
+        <v>9.6353055238645305E-2</v>
+      </c>
+      <c r="I43">
+        <v>0.31642269261336697</v>
+      </c>
+      <c r="J43" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43">
+        <v>181.11472439765899</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>307</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>29.470014333724901</v>
+      </c>
+      <c r="F44">
+        <v>6.7328914211905705E-2</v>
+      </c>
+      <c r="G44">
+        <v>0.75776786809946906</v>
+      </c>
+      <c r="H44">
+        <v>6.7560557329282706E-2</v>
+      </c>
+      <c r="I44">
+        <v>0.77578100077152201</v>
+      </c>
+      <c r="J44" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44">
+        <v>20.7150831222534</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>307</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>3603.8137705325998</v>
+      </c>
+      <c r="F45">
+        <v>1.01354802064954</v>
+      </c>
+      <c r="G45">
+        <v>-4104.7566318101399</v>
+      </c>
+      <c r="H45">
+        <v>6.1741468482191397</v>
+      </c>
+      <c r="I45">
+        <v>-19093.2002387965</v>
+      </c>
+      <c r="J45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>307</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>3641.9482302665701</v>
+      </c>
+      <c r="F46">
+        <v>2.1502087842240201</v>
+      </c>
+      <c r="G46">
+        <v>-2862.5148758144401</v>
+      </c>
+      <c r="H46">
+        <v>0.498884903968072</v>
+      </c>
+      <c r="I46">
+        <v>-147.84723247299601</v>
+      </c>
+      <c r="J46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46">
+        <v>30.275805950164699</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K46">
+    <sortCondition ref="D2:D46"/>
+    <sortCondition ref="A2:A46"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEE0A3A-101B-0544-B486-01517B6D040E}">
   <dimension ref="A1:O32"/>
@@ -6851,7 +8555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD90418-1ED9-0345-A83E-9EB2B534BA85}">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -8078,7 +9782,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Results/d_1_2_3_comparison_init_no_init_no_init_time_limit.xlsx
+++ b/Results/d_1_2_3_comparison_init_no_init_no_init_time_limit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35FCE92-9F32-3B4D-8BA3-A8BC19F7A4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0222F890-B033-8740-988D-5B344D8D5BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="500" windowWidth="28120" windowHeight="17500" activeTab="9" xr2:uid="{6FABF61E-5EBE-E440-8258-C5C2D179FD09}"/>
+    <workbookView xWindow="660" yWindow="500" windowWidth="28120" windowHeight="16280" activeTab="8" xr2:uid="{6FABF61E-5EBE-E440-8258-C5C2D179FD09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,14 @@
     <sheet name="d2" sheetId="5" r:id="rId5"/>
     <sheet name="d3" sheetId="6" r:id="rId6"/>
     <sheet name="d4" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet4" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet5" sheetId="9" r:id="rId9"/>
+    <sheet name="comp_wrong" sheetId="8" r:id="rId8"/>
+    <sheet name="comp" sheetId="12" r:id="rId9"/>
     <sheet name="Sheet6" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet7" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet5" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames>
+    <definedName name="res_continuous_1_2023_03_30" localSheetId="9">Sheet6!$A$46:$K$56</definedName>
     <definedName name="res_continuous_2023_03_17" localSheetId="0">Sheet1!$A$2:$K$32</definedName>
     <definedName name="res_continuous_2023_03_18" localSheetId="0">Sheet1!$A$34:$K$48</definedName>
     <definedName name="res_continuous_2023_03_21" localSheetId="1">Sheet2!$A$2:$L$16</definedName>
@@ -34,10 +37,18 @@
     <definedName name="res_continuous_2023_03_22" localSheetId="4">'d2'!$A$2:$K$16</definedName>
     <definedName name="res_continuous_2023_03_22" localSheetId="5">'d3'!$A$2:$K$16</definedName>
     <definedName name="res_continuous_2023_03_22" localSheetId="6">'d4'!$A$2:$K$16</definedName>
-    <definedName name="res_continuous_2023_03_29" localSheetId="8">Sheet5!$A$1:$K$11</definedName>
-    <definedName name="res_continuous_2023_03_29" localSheetId="9">Sheet6!$A$22:$K$46</definedName>
-    <definedName name="res_continuous_2023_03_29_1" localSheetId="8">Sheet5!$A$12:$P$21</definedName>
-    <definedName name="res_continuous_2023_03_30" localSheetId="9">Sheet6!$A$2:$K$21</definedName>
+    <definedName name="res_continuous_2023_03_29" localSheetId="11">Sheet5!$A$1:$K$11</definedName>
+    <definedName name="res_continuous_2023_03_29" localSheetId="9">Sheet6!$A$13:$K$26</definedName>
+    <definedName name="res_continuous_2023_03_29_1" localSheetId="11">Sheet5!$A$12:$P$21</definedName>
+    <definedName name="res_continuous_2023_03_29_1" localSheetId="10">Sheet7!$A$14:$N$27</definedName>
+    <definedName name="res_continuous_2023_03_30" localSheetId="9">Sheet6!$A$2:$K$12</definedName>
+    <definedName name="res_continuous_2023_03_30_1" localSheetId="9">Sheet6!#REF!</definedName>
+    <definedName name="res_continuous_2023_03_30_1" localSheetId="10">Sheet7!$A$2:$N$13</definedName>
+    <definedName name="res_continuous_2023_03_30_2" localSheetId="9">Sheet6!$A$27:$K$36</definedName>
+    <definedName name="res_continuous_2023_03_30_2_1" localSheetId="10">Sheet7!$A$28:$N$41</definedName>
+    <definedName name="res_continuous_2023_03_30_3" localSheetId="9">Sheet6!$A$37:$K$39</definedName>
+    <definedName name="res_continuous_2023_03_30_3_1" localSheetId="10">Sheet7!$A$42:$N$46</definedName>
+    <definedName name="res_continuous_2023_03_30_4" localSheetId="9">Sheet6!$A$40:$K$45</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -61,10 +72,9 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{68AF06DF-945D-114F-96AF-C6051ED6501D}" name="res_continuous_2023-03-17" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-17.csv" comma="1">
-      <textFields count="16">
-        <textField/>
+  <connection id="1" xr16:uid="{4866AE14-594F-BA4A-8906-58955E7F2F66}" name="res_continuous_1_2023-03-30" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_1_2023-03-30.csv" comma="1">
+      <textFields count="15">
         <textField/>
         <textField/>
         <textField/>
@@ -83,8 +93,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{48896672-04FC-5945-A05B-639041B0C5FC}" name="res_continuous_2023-03-18" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-18.csv" comma="1">
+  <connection id="2" xr16:uid="{68AF06DF-945D-114F-96AF-C6051ED6501D}" name="res_continuous_2023-03-17" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-17.csv" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -105,9 +115,10 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{F61C3614-5D58-794E-A653-93BAA3E6D644}" name="res_continuous_2023-03-21" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-21.csv" comma="1">
-      <textFields count="15">
+  <connection id="3" xr16:uid="{48896672-04FC-5945-A05B-639041B0C5FC}" name="res_continuous_2023-03-18" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-18.csv" comma="1">
+      <textFields count="16">
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -126,7 +137,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{12312042-73BB-D546-B368-D7584038647F}" name="res_continuous_2023-03-211" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="4" xr16:uid="{F61C3614-5D58-794E-A653-93BAA3E6D644}" name="res_continuous_2023-03-21" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-21.csv" comma="1">
       <textFields count="15">
         <textField/>
@@ -147,7 +158,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" xr16:uid="{72CBC193-DF90-DA48-AAAD-1827DB3CD0D2}" name="res_continuous_2023-03-2111" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="5" xr16:uid="{12312042-73BB-D546-B368-D7584038647F}" name="res_continuous_2023-03-211" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-21.csv" comma="1">
       <textFields count="15">
         <textField/>
@@ -168,8 +179,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" xr16:uid="{2219E069-800F-FB4C-999B-4D01E79E33A4}" name="res_continuous_2023-03-22" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees_backup/Results/res_continuous_2023-03-22.csv" comma="1">
+  <connection id="6" xr16:uid="{72CBC193-DF90-DA48-AAAD-1827DB3CD0D2}" name="res_continuous_2023-03-2111" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-21.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -189,7 +200,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" xr16:uid="{53E8F1B5-C132-A144-BDC5-F74B95195479}" name="res_continuous_2023-03-221" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="7" xr16:uid="{2219E069-800F-FB4C-999B-4D01E79E33A4}" name="res_continuous_2023-03-22" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/marcoturetta/Projects/trees_backup/Results/res_continuous_2023-03-22.csv" comma="1">
       <textFields count="15">
         <textField/>
@@ -210,7 +221,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" xr16:uid="{8E23A30B-453B-664B-9867-B92BACDFE696}" name="res_continuous_2023-03-222" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="8" xr16:uid="{53E8F1B5-C132-A144-BDC5-F74B95195479}" name="res_continuous_2023-03-221" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/marcoturetta/Projects/trees_backup/Results/res_continuous_2023-03-22.csv" comma="1">
       <textFields count="15">
         <textField/>
@@ -231,7 +242,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" xr16:uid="{0E911E47-3104-394A-B619-8A4604585186}" name="res_continuous_2023-03-223" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="9" xr16:uid="{8E23A30B-453B-664B-9867-B92BACDFE696}" name="res_continuous_2023-03-222" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/marcoturetta/Projects/trees_backup/Results/res_continuous_2023-03-22.csv" comma="1">
       <textFields count="15">
         <textField/>
@@ -252,8 +263,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="10" xr16:uid="{ADB4CC18-3FC5-534E-8234-F03CA87B8C24}" name="res_continuous_2023-03-29" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-29.csv" comma="1">
+  <connection id="10" xr16:uid="{0E911E47-3104-394A-B619-8A4604585186}" name="res_continuous_2023-03-223" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees_backup/Results/res_continuous_2023-03-22.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -273,8 +284,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="11" xr16:uid="{88A9F116-6D66-2F46-A82D-DEF541840BA5}" name="res_continuous_2023-03-291" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr firstRow="4" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-29.csv" comma="1">
+  <connection id="11" xr16:uid="{ADB4CC18-3FC5-534E-8234-F03CA87B8C24}" name="res_continuous_2023-03-29" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-29.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -294,8 +305,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="12" xr16:uid="{51475FD0-2424-DE45-B461-505CD7577027}" name="res_continuous_2023-03-292" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" firstRow="26" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-29.csv" comma="1">
+  <connection id="12" xr16:uid="{88A9F116-6D66-2F46-A82D-DEF541840BA5}" name="res_continuous_2023-03-291" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr firstRow="4" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-29.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -315,7 +326,175 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="13" xr16:uid="{0AD5EB9A-5ADA-4F4E-A286-B9FA34C1F988}" name="res_continuous_2023-03-30" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="13" xr16:uid="{51475FD0-2424-DE45-B461-505CD7577027}" name="res_continuous_2023-03-292" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr firstRow="26" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-29.csv" comma="1">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="14" xr16:uid="{308B705C-2077-454E-8523-7C1C39C81776}" name="res_continuous_2023-03-2921" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr firstRow="26" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-29.csv" comma="1">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="15" xr16:uid="{0AD5EB9A-5ADA-4F4E-A286-B9FA34C1F988}" name="res_continuous_2023-03-30" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-30.csv" comma="1">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="16" xr16:uid="{F51E1C05-5E11-4545-B722-F857CE51140E}" name="res_continuous_2023-03-302" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" firstRow="24" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-30.csv" comma="1">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="17" xr16:uid="{94D4E52A-E8AF-CA4E-B416-ABDC6576EF07}" name="res_continuous_2023-03-3021" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" firstRow="24" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-30.csv" comma="1">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="18" xr16:uid="{AD252DEC-E397-2441-A5E6-6C157137BA3C}" name="res_continuous_2023-03-303" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" firstRow="39" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-30.csv" comma="1">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="19" xr16:uid="{CD241484-39AA-A84A-8D5D-C188A54E9F03}" name="res_continuous_2023-03-3031" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" firstRow="39" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-30.csv" comma="1">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="20" xr16:uid="{B3A8F834-405E-9E4C-BCB5-48A44EC23987}" name="res_continuous_2023-03-304" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-30.csv" comma="1">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="21" xr16:uid="{7E67A09B-FB1B-3B4D-97B2-8817FCDAF906}" name="res_continuous_2023-03-305" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-30.csv" comma="1">
       <textFields count="15">
         <textField/>
@@ -340,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="51">
   <si>
     <t>yacht_hydrodynamics_reg.csv</t>
   </si>
@@ -560,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -568,6 +747,10 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,55 +769,87 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-17" connectionId="1" xr16:uid="{001C276C-1108-EC48-9063-24A6196E6C73}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-17" connectionId="2" xr16:uid="{001C276C-1108-EC48-9063-24A6196E6C73}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-29" connectionId="10" xr16:uid="{D511C83C-6E17-6241-A7A5-3AA317498C6D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_1_2023-03-30" connectionId="1" xr16:uid="{55CCE997-F6CE-D044-8E30-8E071504A0A8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_29_1" connectionId="11" xr16:uid="{DEEB399E-44F8-1946-A5A4-1E2C47238D81}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_4" connectionId="21" xr16:uid="{FDEB8E56-E577-914D-B36F-663C0578B4C0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-29" connectionId="12" xr16:uid="{D6114479-D823-1B43-87BC-47496EAC10A7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_3" connectionId="18" xr16:uid="{EB102B71-AB0E-E746-9E22-31DA5513BB46}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-30" connectionId="13" xr16:uid="{E799E179-7AEE-494A-8108-18C6CE9270A8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_2" connectionId="16" xr16:uid="{A8B638B9-0DE3-E74B-BEB1-1CBA172FCD5D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-29" connectionId="13" xr16:uid="{D6114479-D823-1B43-87BC-47496EAC10A7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-30" connectionId="15" xr16:uid="{E799E179-7AEE-494A-8108-18C6CE9270A8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_1" connectionId="20" xr16:uid="{03E8A905-0B50-D544-8E7F-4AFBBBA8502F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_29_1" connectionId="14" xr16:uid="{8A9191CA-94C8-7141-8EA1-D35EA031EF67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_2_1" connectionId="17" xr16:uid="{F21DED3A-2BBD-C348-B9AA-9DBCC5EDAE36}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_3_1" connectionId="19" xr16:uid="{B430EB6C-1CF1-E343-92BB-094698511432}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-18" connectionId="2" xr16:uid="{78CB4E18-9BB6-D34D-9177-678E75660766}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-18" connectionId="3" xr16:uid="{78CB4E18-9BB6-D34D-9177-678E75660766}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-29" connectionId="11" xr16:uid="{D511C83C-6E17-6241-A7A5-3AA317498C6D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_29_1" connectionId="12" xr16:uid="{DEEB399E-44F8-1946-A5A4-1E2C47238D81}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-21" connectionId="3" xr16:uid="{DA90511F-46E1-864E-9F44-FE92330B9747}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-21" connectionId="4" xr16:uid="{DA90511F-46E1-864E-9F44-FE92330B9747}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_21_1" connectionId="4" xr16:uid="{BA017236-576A-1543-BD2D-FC4FFAFCBA2B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_21_1" connectionId="5" xr16:uid="{BA017236-576A-1543-BD2D-FC4FFAFCBA2B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_21_1" connectionId="5" xr16:uid="{B01E4D8D-B577-EE45-B822-75DA8EB11D48}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_21_1" connectionId="6" xr16:uid="{B01E4D8D-B577-EE45-B822-75DA8EB11D48}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-22" connectionId="6" xr16:uid="{A5D38850-8ACE-B74B-A1F6-1DB61CF3BEA5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-22" connectionId="7" xr16:uid="{A5D38850-8ACE-B74B-A1F6-1DB61CF3BEA5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-22" connectionId="7" xr16:uid="{5939C551-5B47-984D-8403-7AC38DECB97D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-22" connectionId="8" xr16:uid="{5939C551-5B47-984D-8403-7AC38DECB97D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-22" connectionId="8" xr16:uid="{750810FD-BE1B-3847-9B2A-75BDF00C35CF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-22" connectionId="9" xr16:uid="{750810FD-BE1B-3847-9B2A-75BDF00C35CF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-22" connectionId="9" xr16:uid="{EABDB209-7D94-D04F-B7C9-522F40F33E86}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-22" connectionId="10" xr16:uid="{EABDB209-7D94-D04F-B7C9-522F40F33E86}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2572,10 +2787,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1B45F5-6B38-D64A-86E7-FF01617C9988}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2583,16 +2798,15 @@
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="21.83203125" customWidth="1"/>
-    <col min="9" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2642,28 +2856,28 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>86.150616407394395</v>
+        <v>3602.0438439845998</v>
       </c>
       <c r="F2">
-        <v>5.7862971573451598E-2</v>
+        <v>5.4399965502622299E-2</v>
       </c>
       <c r="G2">
-        <v>0.52104963159800799</v>
+        <v>0.54086870656520003</v>
       </c>
       <c r="H2">
-        <v>5.6912091880954301E-2</v>
+        <v>5.2456815057516301E-2</v>
       </c>
       <c r="I2">
-        <v>0.52697094905314601</v>
+        <v>0.57301397288213596</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2">
-        <v>58.078398942947302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2677,57 +2891,57 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>3656.9554901123001</v>
+        <v>3611.1311461925502</v>
       </c>
       <c r="F3">
-        <v>5.3761292985891398E-2</v>
+        <v>5.5319009786148898E-2</v>
       </c>
       <c r="G3">
-        <v>0.545984711900941</v>
+        <v>0.517217287551472</v>
       </c>
       <c r="H3">
-        <v>5.2946485610606803E-2</v>
+        <v>5.3141178296956297E-2</v>
       </c>
       <c r="I3">
-        <v>0.55796724055751701</v>
+        <v>0.55335979559041504</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
       </c>
       <c r="K3">
-        <v>38.870805740356403</v>
+        <v>9.7090110778808594</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>4176</v>
+        <v>1502</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>3617.27434778213</v>
+        <v>3600.6260499954201</v>
       </c>
       <c r="F4">
-        <v>1.6704629185550299</v>
+        <v>8.4495102999882193E-2</v>
       </c>
       <c r="G4">
-        <v>-341478.49674260401</v>
+        <v>0.63414701700216303</v>
       </c>
       <c r="H4">
-        <v>5.4620185605360201E-2</v>
+        <v>8.1138616923337306E-2</v>
       </c>
       <c r="I4">
-        <v>0.53205489499339298</v>
+        <v>0.62636458871425904</v>
       </c>
       <c r="J4" t="s">
         <v>21</v>
@@ -2747,6 +2961,2003 @@
         <v>5</v>
       </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3606.5385637283298</v>
+      </c>
+      <c r="F5">
+        <v>8.4495102999882193E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.63414701700216303</v>
+      </c>
+      <c r="H5">
+        <v>8.1138616923337306E-2</v>
+      </c>
+      <c r="I5">
+        <v>0.62636458871425904</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>5.7941739559173504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>391</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3600.2016251087098</v>
+      </c>
+      <c r="F6">
+        <v>0.202928720136901</v>
+      </c>
+      <c r="G6">
+        <v>0.177430469591326</v>
+      </c>
+      <c r="H6">
+        <v>0.24347798964513201</v>
+      </c>
+      <c r="I6">
+        <v>2.3601519355579598E-2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>391</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>3605.2664999961798</v>
+      </c>
+      <c r="F7">
+        <v>0.14766263971131199</v>
+      </c>
+      <c r="G7">
+        <v>0.48290974896578798</v>
+      </c>
+      <c r="H7">
+        <v>0.18286026555172499</v>
+      </c>
+      <c r="I7">
+        <v>0.41355961778529099</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <v>4.8302989006042401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>4897</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3602.90795707702</v>
+      </c>
+      <c r="F8">
+        <v>0.10458684367288</v>
+      </c>
+      <c r="G8">
+        <v>-1.54021673322986E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="I8">
+        <v>-3.7247801345082099E-2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>4897</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3646.4663658141999</v>
+      </c>
+      <c r="F9">
+        <v>0.10458684367288</v>
+      </c>
+      <c r="G9">
+        <v>-1.54021673322986E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="I9">
+        <v>-3.7247801345082099E-2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>39.251622915267902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>307</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>3600.1678671836798</v>
+      </c>
+      <c r="F10">
+        <v>2.0153912886598201E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.98203220102934496</v>
+      </c>
+      <c r="H10">
+        <v>2.0447771419626701E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.98600789335546601</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>307</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>3605.4068248271901</v>
+      </c>
+      <c r="F11">
+        <v>1.9793718904736999E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.98361873609879402</v>
+      </c>
+      <c r="H11">
+        <v>2.06562089980818E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.98606928634800695</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>5.1295249462127597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>4176</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3614.0278747081702</v>
+      </c>
+      <c r="F12">
+        <v>5.9673745087904802E-2</v>
+      </c>
+      <c r="G12">
+        <v>-3.3842037332711299</v>
+      </c>
+      <c r="H12">
+        <v>5.43806492220281E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.53625923743119197</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4176</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>86.150616407394395</v>
+      </c>
+      <c r="F13">
+        <v>5.7862971573451598E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.52104963159800799</v>
+      </c>
+      <c r="H13">
+        <v>5.6912091880954301E-2</v>
+      </c>
+      <c r="I13">
+        <v>0.52697094905314601</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <v>58.078398942947302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>4176</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>3656.9554901123001</v>
+      </c>
+      <c r="F14">
+        <v>5.3761292985891398E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.545984711900941</v>
+      </c>
+      <c r="H14">
+        <v>5.2946485610606803E-2</v>
+      </c>
+      <c r="I14">
+        <v>0.55796724055751701</v>
+      </c>
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <v>38.870805740356403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>1502</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>3604.9375164508801</v>
+      </c>
+      <c r="F15">
+        <v>0.22625079507427201</v>
+      </c>
+      <c r="G15">
+        <v>-507.71882303332802</v>
+      </c>
+      <c r="H15">
+        <v>5.07838913355826</v>
+      </c>
+      <c r="I15">
+        <v>-127173.339243536</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>1502</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>19.5833916664123</v>
+      </c>
+      <c r="F16">
+        <v>0.10154237523802</v>
+      </c>
+      <c r="G16">
+        <v>0.53920518235564296</v>
+      </c>
+      <c r="H16">
+        <v>9.4220216332376094E-2</v>
+      </c>
+      <c r="I16">
+        <v>0.52054801746456003</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16">
+        <v>12.2105863094329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>1502</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>3622.20076680183</v>
+      </c>
+      <c r="F17">
+        <v>9.4107093954494306E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.51862591664825497</v>
+      </c>
+      <c r="H17">
+        <v>9.2552602366027997E-2</v>
+      </c>
+      <c r="I17">
+        <v>0.47974793945796201</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <v>14.7741248607635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>391</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>3601.2463500499698</v>
+      </c>
+      <c r="F18">
+        <v>0.18735037062731499</v>
+      </c>
+      <c r="G18">
+        <v>0.50820512726177802</v>
+      </c>
+      <c r="H18">
+        <v>3.3339997497032301</v>
+      </c>
+      <c r="I18">
+        <v>-2848.34800551641</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>391</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>16.513041973113999</v>
+      </c>
+      <c r="F19">
+        <v>0.177495438391959</v>
+      </c>
+      <c r="G19">
+        <v>0.52004877099864799</v>
+      </c>
+      <c r="H19">
+        <v>0.206051207507219</v>
+      </c>
+      <c r="I19">
+        <v>0.42619201111861399</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19">
+        <v>13.0910122394561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>391</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>3616.7908062934798</v>
+      </c>
+      <c r="F20">
+        <v>0.118648204214143</v>
+      </c>
+      <c r="G20">
+        <v>0.57999453305134296</v>
+      </c>
+      <c r="H20">
+        <v>0.175686184844974</v>
+      </c>
+      <c r="I20">
+        <v>0.40131171558032502</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <v>14.760659933090199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>4897</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>3619.62672996521</v>
+      </c>
+      <c r="F21">
+        <v>9.6383454540238001E-2</v>
+      </c>
+      <c r="G21">
+        <v>0.28063623489582901</v>
+      </c>
+      <c r="H21">
+        <v>10.308238085835001</v>
+      </c>
+      <c r="I21">
+        <v>-1908796.4418687001</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>4897</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>179.391981601715</v>
+      </c>
+      <c r="F22">
+        <v>9.5690657323454803E-2</v>
+      </c>
+      <c r="G22">
+        <v>0.31388955649650502</v>
+      </c>
+      <c r="H22">
+        <v>9.7650056065033297E-2</v>
+      </c>
+      <c r="I22">
+        <v>0.31193032407043503</v>
+      </c>
+      <c r="J22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22">
+        <v>130.75687837600699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>4897</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>3703.1168518066402</v>
+      </c>
+      <c r="F23">
+        <v>9.2724549446084298E-2</v>
+      </c>
+      <c r="G23">
+        <v>0.32420922232073701</v>
+      </c>
+      <c r="H23">
+        <v>9.5685635339985003E-2</v>
+      </c>
+      <c r="I23">
+        <v>0.31112381080436702</v>
+      </c>
+      <c r="J23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23">
+        <v>74.300072193145695</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>307</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>3600.9152865409801</v>
+      </c>
+      <c r="F24">
+        <v>2.27731948050942E-2</v>
+      </c>
+      <c r="G24">
+        <v>0.965552344966225</v>
+      </c>
+      <c r="H24">
+        <v>3.6325225160569297E-2</v>
+      </c>
+      <c r="I24">
+        <v>0.88257974602706502</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>307</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>11.789306640625</v>
+      </c>
+      <c r="F25">
+        <v>5.8850542847911698E-2</v>
+      </c>
+      <c r="G25">
+        <v>0.81003366792484799</v>
+      </c>
+      <c r="H25">
+        <v>5.6843502449295799E-2</v>
+      </c>
+      <c r="I25">
+        <v>0.83975224008588201</v>
+      </c>
+      <c r="J25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25">
+        <v>9.0850024223327601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>307</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>3607.3107106685602</v>
+      </c>
+      <c r="F26">
+        <v>7.3673360923744401E-3</v>
+      </c>
+      <c r="G26">
+        <v>0.99642835635331595</v>
+      </c>
+      <c r="H26">
+        <v>1.3922659356458301E-2</v>
+      </c>
+      <c r="I26">
+        <v>0.98892367241032297</v>
+      </c>
+      <c r="J26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26">
+        <v>6.0522463321685702</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>4176</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>3636.82528614997</v>
+      </c>
+      <c r="F27">
+        <v>0.73221994678913704</v>
+      </c>
+      <c r="G27">
+        <v>-24071.036936287899</v>
+      </c>
+      <c r="H27">
+        <v>1.8710141750421301</v>
+      </c>
+      <c r="I27">
+        <v>-77035.698731945202</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>4176</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>164.09437727928099</v>
+      </c>
+      <c r="F28">
+        <v>5.9037163940816297E-2</v>
+      </c>
+      <c r="G28">
+        <v>0.50321233075070704</v>
+      </c>
+      <c r="H28">
+        <v>5.8254085159011697E-2</v>
+      </c>
+      <c r="I28">
+        <v>0.50663592716328398</v>
+      </c>
+      <c r="J28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28">
+        <v>101.59195280074999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>4176</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>3699.8292317390401</v>
+      </c>
+      <c r="F29">
+        <v>5.2983874096568101E-2</v>
+      </c>
+      <c r="G29">
+        <v>0.55177692996415195</v>
+      </c>
+      <c r="H29">
+        <v>5.2791589462564202E-2</v>
+      </c>
+      <c r="I29">
+        <v>0.56284372390919502</v>
+      </c>
+      <c r="J29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29">
+        <v>59.617236614227203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>1502</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>3610.4547255039201</v>
+      </c>
+      <c r="F30">
+        <v>1.8023455513589901</v>
+      </c>
+      <c r="G30">
+        <v>-51472.628417024898</v>
+      </c>
+      <c r="H30">
+        <v>2.9536540277163801</v>
+      </c>
+      <c r="I30">
+        <v>-83446.137057411499</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>1502</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>37.213438749313298</v>
+      </c>
+      <c r="F31">
+        <v>9.5892858461266994E-2</v>
+      </c>
+      <c r="G31">
+        <v>0.58101301516835002</v>
+      </c>
+      <c r="H31">
+        <v>8.9921351139456498E-2</v>
+      </c>
+      <c r="I31">
+        <v>0.55803051643693102</v>
+      </c>
+      <c r="J31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31">
+        <v>19.589860439300502</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>1502</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>3626.3894560336998</v>
+      </c>
+      <c r="F32">
+        <v>8.4779202239052998E-2</v>
+      </c>
+      <c r="G32">
+        <v>0.58345671827877899</v>
+      </c>
+      <c r="H32">
+        <v>8.9644484040512507E-2</v>
+      </c>
+      <c r="I32">
+        <v>0.44673238858841502</v>
+      </c>
+      <c r="J32" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32">
+        <v>14.630017995834301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>391</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>3603.3446991443602</v>
+      </c>
+      <c r="F33">
+        <v>0.39640511313320997</v>
+      </c>
+      <c r="G33">
+        <v>-92.995860095202801</v>
+      </c>
+      <c r="H33">
+        <v>5.5327424196359702</v>
+      </c>
+      <c r="I33">
+        <v>-6583.48865591099</v>
+      </c>
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>391</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>25.004740476608202</v>
+      </c>
+      <c r="F34">
+        <v>0.16909373344226999</v>
+      </c>
+      <c r="G34">
+        <v>0.54633607973268705</v>
+      </c>
+      <c r="H34">
+        <v>0.199379991828459</v>
+      </c>
+      <c r="I34">
+        <v>0.43636342866390498</v>
+      </c>
+      <c r="J34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34">
+        <v>18.652663469314501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>391</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>3621.3044707775098</v>
+      </c>
+      <c r="F35">
+        <v>0.17294444330197301</v>
+      </c>
+      <c r="G35">
+        <v>0.29021864908024098</v>
+      </c>
+      <c r="H35">
+        <v>0.25005793025473</v>
+      </c>
+      <c r="I35">
+        <v>-8.4537226842504601E-2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35">
+        <v>17.7963287830352</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>4897</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>3645.6636395454402</v>
+      </c>
+      <c r="F36">
+        <v>0.10458684367288</v>
+      </c>
+      <c r="G36">
+        <v>-1.54021673322986E-2</v>
+      </c>
+      <c r="H36">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="I36">
+        <v>-3.7247801345082099E-2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>4897</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>242.467928647995</v>
+      </c>
+      <c r="F37">
+        <v>9.40078574035174E-2</v>
+      </c>
+      <c r="G37">
+        <v>0.33141792517538898</v>
+      </c>
+      <c r="H37">
+        <v>9.6918915395163605E-2</v>
+      </c>
+      <c r="I37">
+        <v>0.31687312997271899</v>
+      </c>
+      <c r="J37" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37">
+        <v>164.842055082321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>4897</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>3846.3496837615899</v>
+      </c>
+      <c r="F38">
+        <v>8.7279205339188495E-2</v>
+      </c>
+      <c r="G38">
+        <v>0.27017113317621899</v>
+      </c>
+      <c r="H38">
+        <v>9.1493360071884799E-2</v>
+      </c>
+      <c r="I38">
+        <v>0.25193171569377099</v>
+      </c>
+      <c r="J38" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38">
+        <v>179.16263103485099</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>307</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>3602.3657217025702</v>
+      </c>
+      <c r="F39">
+        <v>6.9895011550716896E-2</v>
+      </c>
+      <c r="G39">
+        <v>-0.63425977151785995</v>
+      </c>
+      <c r="H39">
+        <v>0.163189517515063</v>
+      </c>
+      <c r="I39">
+        <v>-3.8598274316974499</v>
+      </c>
+      <c r="J39" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>307</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>16.996285676956099</v>
+      </c>
+      <c r="F40">
+        <v>6.7121600695407901E-2</v>
+      </c>
+      <c r="G40">
+        <v>0.75615012664320602</v>
+      </c>
+      <c r="H40">
+        <v>7.2324356339505805E-2</v>
+      </c>
+      <c r="I40">
+        <v>0.74115712290518299</v>
+      </c>
+      <c r="J40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40">
+        <v>12.7580997943878</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>307</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>3615.2111384868599</v>
+      </c>
+      <c r="F41">
+        <v>9.5975992216683695E-3</v>
+      </c>
+      <c r="G41">
+        <v>0.99142128374452798</v>
+      </c>
+      <c r="H41">
+        <v>1.7982685109058798E-2</v>
+      </c>
+      <c r="I41">
+        <v>0.98419103406907504</v>
+      </c>
+      <c r="J41" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41">
+        <v>12.7699816226959</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>4176</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>3661.9845387935602</v>
+      </c>
+      <c r="F42">
+        <v>1.05613149218841</v>
+      </c>
+      <c r="G42">
+        <v>-247886.220299423</v>
+      </c>
+      <c r="H42">
+        <v>5.4419949314154399E-2</v>
+      </c>
+      <c r="I42">
+        <v>0.53384216978646504</v>
+      </c>
+      <c r="J42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>4176</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>294.38483309745698</v>
+      </c>
+      <c r="F43">
+        <v>5.5677894035133402E-2</v>
+      </c>
+      <c r="G43">
+        <v>0.53682563121722005</v>
+      </c>
+      <c r="H43">
+        <v>5.5396652010914801E-2</v>
+      </c>
+      <c r="I43">
+        <v>0.53164886071238504</v>
+      </c>
+      <c r="J43" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43">
+        <v>167.746238231658</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>4176</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>3822.0985338687801</v>
+      </c>
+      <c r="F44">
+        <v>5.5677894035133402E-2</v>
+      </c>
+      <c r="G44">
+        <v>0.53682563121722005</v>
+      </c>
+      <c r="H44">
+        <v>5.5396652010914801E-2</v>
+      </c>
+      <c r="I44">
+        <v>0.53164886071238504</v>
+      </c>
+      <c r="J44" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44">
+        <v>120.079748630523</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>1502</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>3616.7477772235802</v>
+      </c>
+      <c r="F45">
+        <v>22.5013397143417</v>
+      </c>
+      <c r="G45">
+        <v>-653850.07640073495</v>
+      </c>
+      <c r="H45">
+        <v>14.759414407775999</v>
+      </c>
+      <c r="I45">
+        <v>-548921.14728737005</v>
+      </c>
+      <c r="J45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>1502</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>83.873477458953801</v>
+      </c>
+      <c r="F46">
+        <v>9.1053706873821305E-2</v>
+      </c>
+      <c r="G46">
+        <v>0.61968044936337296</v>
+      </c>
+      <c r="H46">
+        <v>8.7356816022082603E-2</v>
+      </c>
+      <c r="I46">
+        <v>0.58070735044671196</v>
+      </c>
+      <c r="J46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46">
+        <v>45.795283079147303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>1502</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>3657.3151221275298</v>
+      </c>
+      <c r="F47">
+        <v>7.4667012066993194E-2</v>
+      </c>
+      <c r="G47">
+        <v>0.64966064985911898</v>
+      </c>
+      <c r="H47">
+        <v>8.2845363568879199E-2</v>
+      </c>
+      <c r="I47">
+        <v>0.54379340193826697</v>
+      </c>
+      <c r="J47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47">
+        <v>25.657789945602399</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>391</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>3605.0065331459</v>
+      </c>
+      <c r="F48">
+        <v>4.0873505706208801</v>
+      </c>
+      <c r="G48">
+        <v>-6486.7985189335404</v>
+      </c>
+      <c r="H48">
+        <v>5.10913280881348</v>
+      </c>
+      <c r="I48">
+        <v>-4540.891686256</v>
+      </c>
+      <c r="J48" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>391</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>37.295582056045497</v>
+      </c>
+      <c r="F49">
+        <v>0.152371433009445</v>
+      </c>
+      <c r="G49">
+        <v>0.59294346851203805</v>
+      </c>
+      <c r="H49">
+        <v>0.187210023967568</v>
+      </c>
+      <c r="I49">
+        <v>0.47470613774056097</v>
+      </c>
+      <c r="J49" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49">
+        <v>26.698780536651601</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>391</v>
+      </c>
+      <c r="C50">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>3636.5280389785698</v>
+      </c>
+      <c r="F50">
+        <v>1.6977647305680199</v>
+      </c>
+      <c r="G50">
+        <v>-1825.24864853488</v>
+      </c>
+      <c r="H50">
+        <v>8.5868498135246298</v>
+      </c>
+      <c r="I50">
+        <v>-5925.4259231076603</v>
+      </c>
+      <c r="J50" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50">
+        <v>29.083761930465698</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>4897</v>
+      </c>
+      <c r="C51">
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>3690.84943342208</v>
+      </c>
+      <c r="F51">
+        <v>1.0931811380654699</v>
+      </c>
+      <c r="G51">
+        <v>-177937.94956473101</v>
+      </c>
+      <c r="H51">
+        <v>4.0655309842977303</v>
+      </c>
+      <c r="I51">
+        <v>-704191.75357026805</v>
+      </c>
+      <c r="J51" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>4897</v>
+      </c>
+      <c r="C52">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>379.58522033691401</v>
+      </c>
+      <c r="F52">
+        <v>9.2556758372483602E-2</v>
+      </c>
+      <c r="G52">
+        <v>0.34986978501082899</v>
+      </c>
+      <c r="H52">
+        <v>9.6353055252005604E-2</v>
+      </c>
+      <c r="I52">
+        <v>0.31642269260918898</v>
+      </c>
+      <c r="J52" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52">
+        <v>234.19859123229901</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>4897</v>
+      </c>
+      <c r="C53">
+        <v>11</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>4020.2100510597202</v>
+      </c>
+      <c r="F53">
+        <v>9.2437537034513503E-2</v>
+      </c>
+      <c r="G53">
+        <v>0.34915864885319398</v>
+      </c>
+      <c r="H53">
+        <v>9.6097640261895503E-2</v>
+      </c>
+      <c r="I53">
+        <v>0.32066000172088699</v>
+      </c>
+      <c r="J53" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53">
+        <v>258.259047269821</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>307</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>3604.4963126182502</v>
+      </c>
+      <c r="F54">
+        <v>0.33531583499162898</v>
+      </c>
+      <c r="G54">
+        <v>-207.20253683766501</v>
+      </c>
+      <c r="H54">
+        <v>1.6019610837345699</v>
+      </c>
+      <c r="I54">
+        <v>-526.12058384878196</v>
+      </c>
+      <c r="J54" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>307</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>29.470014333724901</v>
+      </c>
+      <c r="F55">
+        <v>6.7328914211905705E-2</v>
+      </c>
+      <c r="G55">
+        <v>0.75776786809946906</v>
+      </c>
+      <c r="H55">
+        <v>6.7560557329282706E-2</v>
+      </c>
+      <c r="I55">
+        <v>0.77578100077152201</v>
+      </c>
+      <c r="J55" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55">
+        <v>20.7150831222534</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>307</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>3641.9482302665701</v>
+      </c>
+      <c r="F56">
+        <v>2.1502087842240201</v>
+      </c>
+      <c r="G56">
+        <v>-2862.5148758144401</v>
+      </c>
+      <c r="H56">
+        <v>0.498884903968072</v>
+      </c>
+      <c r="I56">
+        <v>-147.84723247299601</v>
+      </c>
+      <c r="J56" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56">
+        <v>30.275805950164699</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K56">
+    <sortCondition ref="D2:D56"/>
+    <sortCondition ref="A2:A56"/>
+    <sortCondition ref="J2:J56"/>
+    <sortCondition ref="E2:E56"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49C41EB-0887-E740-B29F-DF1D00C2C189}">
+  <dimension ref="A1:N46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="9" width="8.1640625" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="12" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>4176</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>86.150616407394395</v>
+      </c>
+      <c r="F2">
+        <v>5.7862971573451598E-2</v>
+      </c>
+      <c r="J2">
+        <v>0.52104963159800799</v>
+      </c>
+      <c r="K2">
+        <v>5.6912091880954301E-2</v>
+      </c>
+      <c r="L2">
+        <v>0.52697094905314601</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2">
+        <v>58.078398942947302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4176</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3656.9554901123001</v>
+      </c>
+      <c r="F3">
+        <v>5.3761292985891398E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.545984711900941</v>
+      </c>
+      <c r="K3">
+        <v>5.2946485610606803E-2</v>
+      </c>
+      <c r="L3">
+        <v>0.55796724055751701</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3">
+        <v>38.870805740356403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4176</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3614.0278747081702</v>
+      </c>
+      <c r="F4">
+        <v>5.9673745087904802E-2</v>
+      </c>
+      <c r="J4">
+        <v>-3.3842037332711299</v>
+      </c>
+      <c r="K4">
+        <v>5.43806492220281E-2</v>
+      </c>
+      <c r="L4">
+        <v>0.53625923743119197</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1502</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
       <c r="E5">
@@ -2755,23 +4966,23 @@
       <c r="F5">
         <v>0.10154237523802</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>0.53920518235564296</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>9.4220216332376094E-2</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>0.52054801746456003</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>20</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>12.2105863094329</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2785,28 +4996,28 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>3628.5514900684302</v>
+        <v>3604.9375164508801</v>
       </c>
       <c r="F6">
-        <v>9.7269677521706899E-2</v>
-      </c>
-      <c r="G6">
-        <v>0.481292554267224</v>
-      </c>
-      <c r="H6">
-        <v>9.4402389919185398E-2</v>
-      </c>
-      <c r="I6">
-        <v>0.44964601652784297</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
+        <v>0.22625079507427201</v>
+      </c>
+      <c r="J6">
+        <v>-507.71882303332802</v>
       </c>
       <c r="K6">
-        <v>22.211474418640101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5.07838913355826</v>
+      </c>
+      <c r="L6">
+        <v>-127173.339243536</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2820,28 +5031,28 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>3604.9375164508801</v>
+        <v>3622.20076680183</v>
       </c>
       <c r="F7">
-        <v>0.22625079507427201</v>
-      </c>
-      <c r="G7">
-        <v>-507.71882303332802</v>
-      </c>
-      <c r="H7">
-        <v>5.07838913355826</v>
-      </c>
-      <c r="I7">
-        <v>-127173.339243536</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
+        <v>9.4107093954494306E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.51862591664825497</v>
       </c>
       <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>9.2552602366027997E-2</v>
+      </c>
+      <c r="L7">
+        <v>0.47974793945796201</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7">
+        <v>14.7741248607635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2860,23 +5071,23 @@
       <c r="F8">
         <v>0.177495438391959</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>0.52004877099864799</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>0.206051207507219</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>0.42619201111861399</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
         <v>20</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>13.0910122394561</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2890,28 +5101,28 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>3618.68064332008</v>
+        <v>3601.2463500499698</v>
       </c>
       <c r="F9">
-        <v>0.131527250670361</v>
-      </c>
-      <c r="G9">
-        <v>0.39360612941890399</v>
-      </c>
-      <c r="H9">
-        <v>0.180313107289853</v>
-      </c>
-      <c r="I9">
-        <v>0.17077499435737101</v>
-      </c>
-      <c r="J9" t="s">
-        <v>20</v>
+        <v>0.18735037062731499</v>
+      </c>
+      <c r="J9">
+        <v>0.50820512726177802</v>
       </c>
       <c r="K9">
-        <v>16.665343284606902</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3.3339997497032301</v>
+      </c>
+      <c r="L9">
+        <v>-2848.34800551641</v>
+      </c>
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2925,28 +5136,28 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>3601.2463500499698</v>
+        <v>3616.7908062934798</v>
       </c>
       <c r="F10">
-        <v>0.18735037062731499</v>
-      </c>
-      <c r="G10">
-        <v>0.50820512726177802</v>
-      </c>
-      <c r="H10">
-        <v>3.3339997497032301</v>
-      </c>
-      <c r="I10">
-        <v>-2848.34800551641</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
+        <v>0.118648204214143</v>
+      </c>
+      <c r="J10">
+        <v>0.57999453305134296</v>
       </c>
       <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.175686184844974</v>
+      </c>
+      <c r="L10">
+        <v>0.40131171558032502</v>
+      </c>
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10">
+        <v>14.760659933090199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2965,23 +5176,23 @@
       <c r="F11">
         <v>9.5690657323454803E-2</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>0.31388955649650502</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>9.7650056065033297E-2</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>0.31193032407043503</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="s">
         <v>20</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>130.75687837600699</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -3000,23 +5211,23 @@
       <c r="F12">
         <v>9.2724549446084298E-2</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>0.32420922232073701</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>9.5685635339985003E-2</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <v>0.31112381080436702</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="s">
         <v>20</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <v>74.300072193145695</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -3030,28 +5241,28 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>3624.0738444328299</v>
+        <v>3619.62672996521</v>
       </c>
       <c r="F13">
-        <v>0.25074381734017598</v>
-      </c>
-      <c r="G13">
-        <v>-4283.3614957004202</v>
-      </c>
-      <c r="H13">
-        <v>3.1934684387261201</v>
-      </c>
-      <c r="I13">
-        <v>-133159.63120367099</v>
-      </c>
-      <c r="J13" t="s">
+        <v>9.6383454540238001E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.28063623489582901</v>
+      </c>
+      <c r="K13">
+        <v>10.308238085835001</v>
+      </c>
+      <c r="L13">
+        <v>-1908796.4418687001</v>
+      </c>
+      <c r="M13" t="s">
         <v>21</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -3070,23 +5281,23 @@
       <c r="F14">
         <v>5.8850542847911698E-2</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <v>0.81003366792484799</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>5.6843502449295799E-2</v>
       </c>
-      <c r="I14">
+      <c r="L14">
         <v>0.83975224008588201</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="s">
         <v>20</v>
       </c>
-      <c r="K14">
+      <c r="N14">
         <v>9.0850024223327601</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -3100,28 +5311,28 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>3607.2976400852199</v>
+        <v>3607.3107106685602</v>
       </c>
       <c r="F15">
-        <v>8.9299688744973703E-3</v>
-      </c>
-      <c r="G15">
-        <v>0.99436134962871103</v>
-      </c>
-      <c r="H15">
-        <v>1.5035575440335401E-2</v>
-      </c>
-      <c r="I15">
-        <v>0.98596984269923504</v>
-      </c>
-      <c r="J15" t="s">
+        <v>7.3673360923744401E-3</v>
+      </c>
+      <c r="J15">
+        <v>0.99642835635331595</v>
+      </c>
+      <c r="K15">
+        <v>1.3922659356458301E-2</v>
+      </c>
+      <c r="L15">
+        <v>0.98892367241032297</v>
+      </c>
+      <c r="M15" t="s">
         <v>20</v>
       </c>
-      <c r="K15">
-        <v>6.0807750225067103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>6.0522463321685702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -3135,28 +5346,28 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>3601.1845202445902</v>
+        <v>3600.9152865409801</v>
       </c>
       <c r="F16">
-        <v>8.9553070546692492E-3</v>
-      </c>
-      <c r="G16">
-        <v>0.99457522001104104</v>
-      </c>
-      <c r="H16">
-        <v>1.53250368012895E-2</v>
-      </c>
-      <c r="I16">
-        <v>0.98695846984715596</v>
-      </c>
-      <c r="J16" t="s">
+        <v>2.27731948050942E-2</v>
+      </c>
+      <c r="J16">
+        <v>0.965552344966225</v>
+      </c>
+      <c r="K16">
+        <v>3.6325225160569297E-2</v>
+      </c>
+      <c r="L16">
+        <v>0.88257974602706502</v>
+      </c>
+      <c r="M16" t="s">
         <v>21</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -3175,23 +5386,23 @@
       <c r="F17">
         <v>5.9037163940816297E-2</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>0.50321233075070704</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <v>5.8254085159011697E-2</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <v>0.50663592716328398</v>
       </c>
-      <c r="J17" t="s">
+      <c r="M17" t="s">
         <v>20</v>
       </c>
-      <c r="K17">
+      <c r="N17">
         <v>101.59195280074999</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3205,28 +5416,28 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>3714.8086781501702</v>
+        <v>3699.8292317390401</v>
       </c>
       <c r="F18">
-        <v>5.2952366422550003E-2</v>
-      </c>
-      <c r="G18">
-        <v>0.55331100677078404</v>
-      </c>
-      <c r="H18">
-        <v>5.2760713499287099E-2</v>
-      </c>
-      <c r="I18">
-        <v>0.56454000267317095</v>
-      </c>
-      <c r="J18" t="s">
+        <v>5.2983874096568101E-2</v>
+      </c>
+      <c r="J18">
+        <v>0.55177692996415195</v>
+      </c>
+      <c r="K18">
+        <v>5.2791589462564202E-2</v>
+      </c>
+      <c r="L18">
+        <v>0.56284372390919502</v>
+      </c>
+      <c r="M18" t="s">
         <v>20</v>
       </c>
-      <c r="K18">
-        <v>70.945871114730807</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>59.617236614227203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -3240,28 +5451,28 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>3629.5796742439202</v>
+        <v>3636.82528614997</v>
       </c>
       <c r="F19">
-        <v>0.83651544253150101</v>
-      </c>
-      <c r="G19">
-        <v>-50883.779162779298</v>
-      </c>
-      <c r="H19">
-        <v>2.2850665477037699</v>
-      </c>
-      <c r="I19">
-        <v>-62741.7180474286</v>
-      </c>
-      <c r="J19" t="s">
+        <v>0.73221994678913704</v>
+      </c>
+      <c r="J19">
+        <v>-24071.036936287899</v>
+      </c>
+      <c r="K19">
+        <v>1.8710141750421301</v>
+      </c>
+      <c r="L19">
+        <v>-77035.698731945202</v>
+      </c>
+      <c r="M19" t="s">
         <v>21</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -3280,23 +5491,23 @@
       <c r="F20">
         <v>9.5892858461266994E-2</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <v>0.58101301516835002</v>
       </c>
-      <c r="H20">
+      <c r="K20">
         <v>8.9921351139456498E-2</v>
       </c>
-      <c r="I20">
+      <c r="L20">
         <v>0.55803051643693102</v>
       </c>
-      <c r="J20" t="s">
+      <c r="M20" t="s">
         <v>20</v>
       </c>
-      <c r="K20">
+      <c r="N20">
         <v>19.589860439300502</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -3315,23 +5526,23 @@
       <c r="F21">
         <v>8.4779202239052998E-2</v>
       </c>
-      <c r="G21">
+      <c r="J21">
         <v>0.58345671827877899</v>
       </c>
-      <c r="H21">
+      <c r="K21">
         <v>8.9644484040512507E-2</v>
       </c>
-      <c r="I21">
+      <c r="L21">
         <v>0.44673238858841502</v>
       </c>
-      <c r="J21" t="s">
+      <c r="M21" t="s">
         <v>20</v>
       </c>
-      <c r="K21">
+      <c r="N21">
         <v>14.630017995834301</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -3350,23 +5561,23 @@
       <c r="F22">
         <v>1.8023455513589901</v>
       </c>
-      <c r="G22">
+      <c r="J22">
         <v>-51472.628417024898</v>
       </c>
-      <c r="H22">
+      <c r="K22">
         <v>2.9536540277163801</v>
       </c>
-      <c r="I22">
+      <c r="L22">
         <v>-83446.137057411499</v>
       </c>
-      <c r="J22" t="s">
+      <c r="M22" t="s">
         <v>21</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -3385,23 +5596,23 @@
       <c r="F23">
         <v>0.16909373344226999</v>
       </c>
-      <c r="G23">
+      <c r="J23">
         <v>0.54633607973268705</v>
       </c>
-      <c r="H23">
+      <c r="K23">
         <v>0.199379991828459</v>
       </c>
-      <c r="I23">
+      <c r="L23">
         <v>0.43636342866390498</v>
       </c>
-      <c r="J23" t="s">
+      <c r="M23" t="s">
         <v>20</v>
       </c>
-      <c r="K23">
+      <c r="N23">
         <v>18.652663469314501</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -3420,23 +5631,23 @@
       <c r="F24">
         <v>0.17294444330197301</v>
       </c>
-      <c r="G24">
+      <c r="J24">
         <v>0.29021864908024098</v>
       </c>
-      <c r="H24">
+      <c r="K24">
         <v>0.25005793025473</v>
       </c>
-      <c r="I24">
+      <c r="L24">
         <v>-8.4537226842504601E-2</v>
       </c>
-      <c r="J24" t="s">
+      <c r="M24" t="s">
         <v>20</v>
       </c>
-      <c r="K24">
+      <c r="N24">
         <v>17.7963287830352</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -3450,28 +5661,28 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>3603.1029586791901</v>
+        <v>3603.3446991443602</v>
       </c>
       <c r="F25">
-        <v>81.607608588498195</v>
-      </c>
-      <c r="G25">
-        <v>-71113.980799558398</v>
-      </c>
-      <c r="H25">
-        <v>102.09654497659299</v>
-      </c>
-      <c r="I25">
-        <v>-103293.728042305</v>
-      </c>
-      <c r="J25" t="s">
+        <v>0.39640511313320997</v>
+      </c>
+      <c r="J25">
+        <v>-92.995860095202801</v>
+      </c>
+      <c r="K25">
+        <v>5.5327424196359702</v>
+      </c>
+      <c r="L25">
+        <v>-6583.48865591099</v>
+      </c>
+      <c r="M25" t="s">
         <v>21</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -3490,23 +5701,23 @@
       <c r="F26">
         <v>9.40078574035174E-2</v>
       </c>
-      <c r="G26">
+      <c r="J26">
         <v>0.33141792517538898</v>
       </c>
-      <c r="H26">
+      <c r="K26">
         <v>9.6918915395163605E-2</v>
       </c>
-      <c r="I26">
+      <c r="L26">
         <v>0.31687312997271899</v>
       </c>
-      <c r="J26" t="s">
+      <c r="M26" t="s">
         <v>29</v>
       </c>
-      <c r="K26">
+      <c r="N26">
         <v>164.842055082321</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -3520,28 +5731,28 @@
         <v>3</v>
       </c>
       <c r="E27">
-        <v>3798.0429236888799</v>
+        <v>3846.3496837615899</v>
       </c>
       <c r="F27">
-        <v>9.2064117101427506E-2</v>
-      </c>
-      <c r="G27">
-        <v>0.28867854353428302</v>
-      </c>
-      <c r="H27">
-        <v>9.48834600395497E-2</v>
-      </c>
-      <c r="I27">
-        <v>0.27685219145599999</v>
-      </c>
-      <c r="J27" t="s">
-        <v>29</v>
+        <v>8.7279205339188495E-2</v>
+      </c>
+      <c r="J27">
+        <v>0.27017113317621899</v>
       </c>
       <c r="K27">
-        <v>133.63092350959701</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>9.1493360071884799E-2</v>
+      </c>
+      <c r="L27">
+        <v>0.25193171569377099</v>
+      </c>
+      <c r="M27" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27">
+        <v>179.16263103485099</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -3555,28 +5766,28 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>3645.9134581089002</v>
+        <v>3645.6636395454402</v>
       </c>
       <c r="F28">
-        <v>5.2634982124428999</v>
-      </c>
-      <c r="G28">
-        <v>-493522.68309433601</v>
-      </c>
-      <c r="H28">
-        <v>13.6185694998505</v>
-      </c>
-      <c r="I28">
-        <v>-1161897.08639075</v>
-      </c>
-      <c r="J28" t="s">
+        <v>0.10458684367288</v>
+      </c>
+      <c r="J28">
+        <v>-1.54021673322986E-2</v>
+      </c>
+      <c r="K28">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="L28">
+        <v>-3.7247801345082099E-2</v>
+      </c>
+      <c r="M28" t="s">
         <v>21</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -3595,23 +5806,23 @@
       <c r="F29">
         <v>6.7121600695407901E-2</v>
       </c>
-      <c r="G29">
+      <c r="J29">
         <v>0.75615012664320602</v>
       </c>
-      <c r="H29">
+      <c r="K29">
         <v>7.2324356339505805E-2</v>
       </c>
-      <c r="I29">
+      <c r="L29">
         <v>0.74115712290518299</v>
       </c>
-      <c r="J29" t="s">
+      <c r="M29" t="s">
         <v>20</v>
       </c>
-      <c r="K29">
+      <c r="N29">
         <v>12.7580997943878</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -3625,28 +5836,28 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>3618.5373508930202</v>
+        <v>3602.3657217025702</v>
       </c>
       <c r="F30">
-        <v>0.19747221581308499</v>
-      </c>
-      <c r="G30">
-        <v>-73.633362434660896</v>
-      </c>
-      <c r="H30">
-        <v>2.22765760745471E-2</v>
-      </c>
-      <c r="I30">
-        <v>0.98333620508267505</v>
-      </c>
-      <c r="J30" t="s">
-        <v>20</v>
+        <v>6.9895011550716896E-2</v>
+      </c>
+      <c r="J30">
+        <v>-0.63425977151785995</v>
       </c>
       <c r="K30">
-        <v>15.0879433155059</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.163189517515063</v>
+      </c>
+      <c r="L30">
+        <v>-3.8598274316974499</v>
+      </c>
+      <c r="M30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -3660,28 +5871,28 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>3602.3657217025702</v>
+        <v>3615.2111384868599</v>
       </c>
       <c r="F31">
-        <v>6.9895011550716896E-2</v>
-      </c>
-      <c r="G31">
-        <v>-0.63425977151785995</v>
-      </c>
-      <c r="H31">
-        <v>0.163189517515063</v>
-      </c>
-      <c r="I31">
-        <v>-3.8598274316974499</v>
-      </c>
-      <c r="J31" t="s">
-        <v>21</v>
+        <v>9.5975992216683695E-3</v>
+      </c>
+      <c r="J31">
+        <v>0.99142128374452798</v>
       </c>
       <c r="K31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.7982685109058798E-2</v>
+      </c>
+      <c r="L31">
+        <v>0.98419103406907504</v>
+      </c>
+      <c r="M31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31">
+        <v>12.7699816226959</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -3700,23 +5911,23 @@
       <c r="F32">
         <v>5.5677894035133402E-2</v>
       </c>
-      <c r="G32">
+      <c r="J32">
         <v>0.53682563121722005</v>
       </c>
-      <c r="H32">
+      <c r="K32">
         <v>5.5396652010914801E-2</v>
       </c>
-      <c r="I32">
+      <c r="L32">
         <v>0.53164886071238504</v>
       </c>
-      <c r="J32" t="s">
+      <c r="M32" t="s">
         <v>20</v>
       </c>
-      <c r="K32">
+      <c r="N32">
         <v>167.746238231658</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -3735,23 +5946,23 @@
       <c r="F33">
         <v>1.1512623548702701</v>
       </c>
-      <c r="G33">
+      <c r="J33">
         <v>-114851.870065779</v>
       </c>
-      <c r="H33">
+      <c r="K33">
         <v>2.0544030439619201</v>
       </c>
-      <c r="I33">
+      <c r="L33">
         <v>-107531.058766234</v>
       </c>
-      <c r="J33" t="s">
+      <c r="M33" t="s">
         <v>21</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -3770,23 +5981,23 @@
       <c r="F34">
         <v>5.5677894035133402E-2</v>
       </c>
-      <c r="G34">
+      <c r="J34">
         <v>0.53682563121722005</v>
       </c>
-      <c r="H34">
+      <c r="K34">
         <v>5.5396652010914801E-2</v>
       </c>
-      <c r="I34">
+      <c r="L34">
         <v>0.53164886071238504</v>
       </c>
-      <c r="J34" t="s">
+      <c r="M34" t="s">
         <v>20</v>
       </c>
-      <c r="K34">
+      <c r="N34">
         <v>120.079748630523</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -3805,23 +6016,23 @@
       <c r="F35">
         <v>9.1053706873821305E-2</v>
       </c>
-      <c r="G35">
+      <c r="J35">
         <v>0.61968044936337296</v>
       </c>
-      <c r="H35">
+      <c r="K35">
         <v>8.7356816022082603E-2</v>
       </c>
-      <c r="I35">
+      <c r="L35">
         <v>0.58070735044671196</v>
       </c>
-      <c r="J35" t="s">
+      <c r="M35" t="s">
         <v>20</v>
       </c>
-      <c r="K35">
+      <c r="N35">
         <v>45.795283079147303</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -3840,23 +6051,23 @@
       <c r="F36">
         <v>22.5013397143417</v>
       </c>
-      <c r="G36">
+      <c r="J36">
         <v>-653850.07640073495</v>
       </c>
-      <c r="H36">
+      <c r="K36">
         <v>14.759414407775999</v>
       </c>
-      <c r="I36">
+      <c r="L36">
         <v>-548921.14728737005</v>
       </c>
-      <c r="J36" t="s">
+      <c r="M36" t="s">
         <v>21</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -3875,23 +6086,23 @@
       <c r="F37">
         <v>8.7255082970617098E-2</v>
       </c>
-      <c r="G37">
+      <c r="J37">
         <v>0.63716058534827003</v>
       </c>
-      <c r="H37">
+      <c r="K37">
         <v>8.3691103400536801E-2</v>
       </c>
-      <c r="I37">
+      <c r="L37">
         <v>0.59730937736796497</v>
       </c>
-      <c r="J37" t="s">
+      <c r="M37" t="s">
         <v>20</v>
       </c>
-      <c r="K37">
+      <c r="N37">
         <v>28.433480262756301</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -3910,23 +6121,23 @@
       <c r="F38">
         <v>0.152371433009445</v>
       </c>
-      <c r="G38">
+      <c r="J38">
         <v>0.59294346851203805</v>
       </c>
-      <c r="H38">
+      <c r="K38">
         <v>0.187210023967568</v>
       </c>
-      <c r="I38">
+      <c r="L38">
         <v>0.47470613774056097</v>
       </c>
-      <c r="J38" t="s">
+      <c r="M38" t="s">
         <v>20</v>
       </c>
-      <c r="K38">
+      <c r="N38">
         <v>26.698780536651601</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -3945,23 +6156,23 @@
       <c r="F39">
         <v>4.0873505706208801</v>
       </c>
-      <c r="G39">
+      <c r="J39">
         <v>-6486.7985189335404</v>
       </c>
-      <c r="H39">
+      <c r="K39">
         <v>5.10913280881348</v>
       </c>
-      <c r="I39">
+      <c r="L39">
         <v>-4540.891686256</v>
       </c>
-      <c r="J39" t="s">
+      <c r="M39" t="s">
         <v>21</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -3980,23 +6191,23 @@
       <c r="F40">
         <v>2.0602011633970498</v>
       </c>
-      <c r="G40">
+      <c r="J40">
         <v>-2219.5363896479998</v>
       </c>
-      <c r="H40">
+      <c r="K40">
         <v>1.2090939668837699</v>
       </c>
-      <c r="I40">
+      <c r="L40">
         <v>-296.64283082416802</v>
       </c>
-      <c r="J40" t="s">
+      <c r="M40" t="s">
         <v>20</v>
       </c>
-      <c r="K40">
+      <c r="N40">
         <v>32.302356243133502</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -4015,23 +6226,23 @@
       <c r="F41">
         <v>9.2556758372483602E-2</v>
       </c>
-      <c r="G41">
+      <c r="J41">
         <v>0.34986978501082899</v>
       </c>
-      <c r="H41">
+      <c r="K41">
         <v>9.6353055252005604E-2</v>
       </c>
-      <c r="I41">
+      <c r="L41">
         <v>0.31642269260918898</v>
       </c>
-      <c r="J41" t="s">
+      <c r="M41" t="s">
         <v>29</v>
       </c>
-      <c r="K41">
+      <c r="N41">
         <v>234.19859123229901</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -4050,23 +6261,23 @@
       <c r="F42">
         <v>1.0931811380654699</v>
       </c>
-      <c r="G42">
+      <c r="J42">
         <v>-177937.94956473101</v>
       </c>
-      <c r="H42">
+      <c r="K42">
         <v>4.0655309842977303</v>
       </c>
-      <c r="I42">
+      <c r="L42">
         <v>-704191.75357026805</v>
       </c>
-      <c r="J42" t="s">
+      <c r="M42" t="s">
         <v>21</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -4085,23 +6296,23 @@
       <c r="F43">
         <v>9.2556758362367403E-2</v>
       </c>
-      <c r="G43">
+      <c r="J43">
         <v>0.34986978500057703</v>
       </c>
-      <c r="H43">
+      <c r="K43">
         <v>9.6353055238645305E-2</v>
       </c>
-      <c r="I43">
+      <c r="L43">
         <v>0.31642269261336697</v>
       </c>
-      <c r="J43" t="s">
+      <c r="M43" t="s">
         <v>29</v>
       </c>
-      <c r="K43">
+      <c r="N43">
         <v>181.11472439765899</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -4120,23 +6331,23 @@
       <c r="F44">
         <v>6.7328914211905705E-2</v>
       </c>
-      <c r="G44">
+      <c r="J44">
         <v>0.75776786809946906</v>
       </c>
-      <c r="H44">
+      <c r="K44">
         <v>6.7560557329282706E-2</v>
       </c>
-      <c r="I44">
+      <c r="L44">
         <v>0.77578100077152201</v>
       </c>
-      <c r="J44" t="s">
+      <c r="M44" t="s">
         <v>20</v>
       </c>
-      <c r="K44">
+      <c r="N44">
         <v>20.7150831222534</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -4155,23 +6366,23 @@
       <c r="F45">
         <v>1.01354802064954</v>
       </c>
-      <c r="G45">
+      <c r="J45">
         <v>-4104.7566318101399</v>
       </c>
-      <c r="H45">
+      <c r="K45">
         <v>6.1741468482191397</v>
       </c>
-      <c r="I45">
+      <c r="L45">
         <v>-19093.2002387965</v>
       </c>
-      <c r="J45" t="s">
+      <c r="M45" t="s">
         <v>21</v>
       </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -4190,26 +6401,667 @@
       <c r="F46">
         <v>2.1502087842240201</v>
       </c>
-      <c r="G46">
+      <c r="J46">
         <v>-2862.5148758144401</v>
       </c>
-      <c r="H46">
+      <c r="K46">
         <v>0.498884903968072</v>
       </c>
-      <c r="I46">
+      <c r="L46">
         <v>-147.84723247299601</v>
       </c>
-      <c r="J46" t="s">
+      <c r="M46" t="s">
         <v>20</v>
       </c>
-      <c r="K46">
+      <c r="N46">
         <v>30.275805950164699</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K46">
-    <sortCondition ref="D2:D46"/>
-    <sortCondition ref="A2:A46"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8F2178-539F-5C4C-B15E-C8D371E906CD}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>4176</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>29.0145490169525</v>
+      </c>
+      <c r="F2">
+        <v>5.7862971573451598E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.52104963159800799</v>
+      </c>
+      <c r="H2">
+        <v>5.6912091880954203E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.52697094905314601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4176</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>391.51211404800398</v>
+      </c>
+      <c r="F3">
+        <v>5.7862971573451598E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.52104963159800799</v>
+      </c>
+      <c r="H3">
+        <v>5.6912091880954203E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.52697094905314601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1502</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>6.18015384674072</v>
+      </c>
+      <c r="F4">
+        <v>0.10154237523802</v>
+      </c>
+      <c r="G4">
+        <v>0.53920518235564296</v>
+      </c>
+      <c r="H4">
+        <v>9.4220216332376094E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.52054801746455903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1502</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>372.192404985427</v>
+      </c>
+      <c r="F5">
+        <v>9.3942520782359401E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.52323131392371203</v>
+      </c>
+      <c r="H5">
+        <v>9.2378798714789503E-2</v>
+      </c>
+      <c r="I5">
+        <v>0.49036563432857699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>391</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>7.5622689723968497</v>
+      </c>
+      <c r="F6">
+        <v>0.177495438391959</v>
+      </c>
+      <c r="G6">
+        <v>0.52004877099864799</v>
+      </c>
+      <c r="H6">
+        <v>0.206051207507218</v>
+      </c>
+      <c r="I6">
+        <v>0.42619201111861399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>391</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>367.08551669120698</v>
+      </c>
+      <c r="F7">
+        <v>0.63610897795446597</v>
+      </c>
+      <c r="G7">
+        <v>-249.213369930239</v>
+      </c>
+      <c r="H7">
+        <v>0.196355918105347</v>
+      </c>
+      <c r="I7">
+        <v>-0.204510528408298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>4897</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>39.573204994201603</v>
+      </c>
+      <c r="F8">
+        <v>9.5690657323454803E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.31388955649650402</v>
+      </c>
+      <c r="H8">
+        <v>9.7650056065033297E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.31193032407043503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>4897</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>408.92504310607899</v>
+      </c>
+      <c r="F9">
+        <v>9.5690657323454803E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.31388955649650402</v>
+      </c>
+      <c r="H9">
+        <v>9.7650056065033297E-2</v>
+      </c>
+      <c r="I9">
+        <v>0.31193032407043503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>307</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>5.56874680519104</v>
+      </c>
+      <c r="F10">
+        <v>5.8850542847911601E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.81003366792484799</v>
+      </c>
+      <c r="H10">
+        <v>5.6843502449295799E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.83975224008588101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>307</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>364.13470506668</v>
+      </c>
+      <c r="F11">
+        <v>2.0172113134474201E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.97760616844266901</v>
+      </c>
+      <c r="H11">
+        <v>2.8146720677308099E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.96442175989395396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>4176</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>34.542192220687802</v>
+      </c>
+      <c r="F12">
+        <v>5.9037163940816297E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.50321233075070804</v>
+      </c>
+      <c r="H12">
+        <v>5.8254085159011801E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.50663592716328398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4176</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>421.076116800308</v>
+      </c>
+      <c r="F13">
+        <v>5.9037163940816297E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.50321233075070804</v>
+      </c>
+      <c r="H13">
+        <v>5.8254085159011801E-2</v>
+      </c>
+      <c r="I13">
+        <v>0.50663592716328398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>1502</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>15.764312982559201</v>
+      </c>
+      <c r="F14">
+        <v>9.5892858461266994E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.58101301516835002</v>
+      </c>
+      <c r="H14">
+        <v>8.9921351139456498E-2</v>
+      </c>
+      <c r="I14">
+        <v>0.55803051643693102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>1502</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>386.48891019821099</v>
+      </c>
+      <c r="F15">
+        <v>8.4679580770484403E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.576845846466566</v>
+      </c>
+      <c r="H15">
+        <v>8.4516869477474596E-2</v>
+      </c>
+      <c r="I15">
+        <v>0.54828599260921096</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>391</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>6.6710028648376403</v>
+      </c>
+      <c r="F16">
+        <v>0.16909373344226999</v>
+      </c>
+      <c r="G16">
+        <v>0.54633607973268705</v>
+      </c>
+      <c r="H16">
+        <v>0.19937999182846</v>
+      </c>
+      <c r="I16">
+        <v>0.43636342866390498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>391</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>381.08024334907498</v>
+      </c>
+      <c r="F17">
+        <v>0.78679917719306403</v>
+      </c>
+      <c r="G17">
+        <v>-847.63851859630495</v>
+      </c>
+      <c r="H17">
+        <v>0.18878711224741301</v>
+      </c>
+      <c r="I17">
+        <v>0.29869164875114401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>4897</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>75.476382970809894</v>
+      </c>
+      <c r="F18">
+        <v>9.40078574035174E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.33141792517538898</v>
+      </c>
+      <c r="H18">
+        <v>9.6918915395163605E-2</v>
+      </c>
+      <c r="I18">
+        <v>0.31687312997271899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>4897</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>498.24478006362898</v>
+      </c>
+      <c r="F19">
+        <v>9.40078574035174E-2</v>
+      </c>
+      <c r="G19">
+        <v>0.33141792517538898</v>
+      </c>
+      <c r="H19">
+        <v>9.6918915395163605E-2</v>
+      </c>
+      <c r="I19">
+        <v>0.31687312997271899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>307</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>5.2896668910980198</v>
+      </c>
+      <c r="F20">
+        <v>6.7121600695407804E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.75615012664320602</v>
+      </c>
+      <c r="H20">
+        <v>7.2324356339505805E-2</v>
+      </c>
+      <c r="I20">
+        <v>0.74115712290518299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>307</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>367.98126888275101</v>
+      </c>
+      <c r="F21">
+        <v>0.105062107585128</v>
+      </c>
+      <c r="G21">
+        <v>-31.135643420242801</v>
+      </c>
+      <c r="H21">
+        <v>0.22283245242799399</v>
+      </c>
+      <c r="I21">
+        <v>-37.621436721814099</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I21">
+    <sortCondition ref="D2:D21"/>
+    <sortCondition ref="A2:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8555,8 +11407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD90418-1ED9-0345-A83E-9EB2B534BA85}">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9341,7 +12193,7 @@
         <v>7</v>
       </c>
       <c r="E22">
-        <v>0.16909373344226999</v>
+        <v>0.17909373344227</v>
       </c>
       <c r="F22" s="5">
         <v>0.152428476268087</v>
@@ -9778,149 +12630,137 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8F2178-539F-5C4C-B15E-C8D371E906CD}">
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CFEA16-D218-A349-9CE4-82B7235667BD}">
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.83203125" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" customWidth="1"/>
+    <col min="11" max="11" width="27.1640625" customWidth="1"/>
+    <col min="15" max="15" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:19" ht="34" x14ac:dyDescent="0.4">
+      <c r="G1" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B4">
         <v>4176</v>
       </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>29.0145490169525</v>
-      </c>
-      <c r="F2">
-        <v>5.7862971573451598E-2</v>
-      </c>
-      <c r="G2">
-        <v>0.52104963159800799</v>
-      </c>
-      <c r="H2">
-        <v>5.6912091880954203E-2</v>
-      </c>
-      <c r="I2">
-        <v>0.52697094905314601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>4176</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>391.51211404800398</v>
-      </c>
-      <c r="F3">
-        <v>5.7862971573451598E-2</v>
-      </c>
-      <c r="G3">
-        <v>0.52104963159800799</v>
-      </c>
-      <c r="H3">
-        <v>5.6912091880954203E-2</v>
-      </c>
-      <c r="I3">
-        <v>0.52697094905314601</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>1502</v>
-      </c>
       <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>6.18015384674072</v>
-      </c>
-      <c r="F4">
-        <v>0.10154237523802</v>
+        <v>5.8064157251868198E-2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5.5319009786148898E-2</v>
       </c>
       <c r="G4">
-        <v>0.53920518235564296</v>
-      </c>
-      <c r="H4">
-        <v>9.4220216332376094E-2</v>
+        <v>5.4399965502622299E-2</v>
       </c>
       <c r="I4">
-        <v>0.52054801746455903</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.51696274526930996</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.517217287551472</v>
+      </c>
+      <c r="K4">
+        <v>0.54086870656520003</v>
+      </c>
+      <c r="M4">
+        <v>5.6567033257232897E-2</v>
+      </c>
+      <c r="N4" s="5">
+        <v>5.3141178296956297E-2</v>
+      </c>
+      <c r="O4">
+        <v>5.2456815057516301E-2</v>
+      </c>
+      <c r="Q4">
+        <v>0.53593631514551099</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.55335979559041504</v>
+      </c>
+      <c r="S4">
+        <v>0.57301397288213596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -9930,26 +12770,44 @@
       <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>372.192404985427</v>
-      </c>
-      <c r="F5">
-        <v>9.3942520782359401E-2</v>
+      <c r="E5" s="4">
+        <v>0.101037318487485</v>
+      </c>
+      <c r="F5" s="5">
+        <v>8.4495102999882193E-2</v>
       </c>
       <c r="G5">
-        <v>0.52323131392371203</v>
-      </c>
-      <c r="H5">
-        <v>9.2378798714789503E-2</v>
+        <v>8.4495102999882193E-2</v>
       </c>
       <c r="I5">
-        <v>0.49036563432857699</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.524154724101623</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.63414701700216303</v>
+      </c>
+      <c r="K5">
+        <v>0.63414701700216303</v>
+      </c>
+      <c r="M5">
+        <v>0.524154724101623</v>
+      </c>
+      <c r="N5" s="5">
+        <v>8.1138616923337306E-2</v>
+      </c>
+      <c r="O5">
+        <v>8.1138616923337306E-2</v>
+      </c>
+      <c r="Q5">
+        <v>0.50524105805886399</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.62636458871425904</v>
+      </c>
+      <c r="S5">
+        <v>0.62636458871425904</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -9959,171 +12817,204 @@
       <c r="C6">
         <v>7</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>7.5622689723968497</v>
-      </c>
-      <c r="F6">
-        <v>0.177495438391959</v>
+      <c r="E6" s="4">
+        <v>0.193341362757184</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.14766263971131199</v>
       </c>
       <c r="G6">
-        <v>0.52004877099864799</v>
-      </c>
-      <c r="H6">
-        <v>0.206051207507218</v>
-      </c>
-      <c r="I6">
-        <v>0.42619201111861399</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.202928720136901</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.48043728085876303</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.48290974896578798</v>
+      </c>
+      <c r="K6">
+        <v>0.177430469591326</v>
+      </c>
+      <c r="M6">
+        <v>0.49043728085876298</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.18286026555172499</v>
+      </c>
+      <c r="O6">
+        <v>0.24347798964513201</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0.41001560310406898</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.41355961778529099</v>
+      </c>
+      <c r="S6">
+        <v>2.3601519355579598E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>391</v>
+        <v>4897</v>
       </c>
       <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E7">
-        <v>367.08551669120698</v>
-      </c>
-      <c r="F7">
-        <v>0.63610897795446597</v>
+        <v>0.11658773417094</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.10458684367288</v>
       </c>
       <c r="G7">
-        <v>-249.213369930239</v>
-      </c>
-      <c r="H7">
-        <v>0.196355918105347</v>
-      </c>
-      <c r="I7">
-        <v>-0.204510528408298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.10458684367288</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.30158466572772902</v>
+      </c>
+      <c r="J7">
+        <v>-1.54021673322986E-2</v>
+      </c>
+      <c r="K7">
+        <v>-1.54021673322986E-2</v>
+      </c>
+      <c r="M7">
+        <v>0.30158466572772902</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="O7">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0.30701362207143901</v>
+      </c>
+      <c r="R7">
+        <v>-3.7247801345082099E-2</v>
+      </c>
+      <c r="S7">
+        <v>-3.7247801345082099E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>4897</v>
+        <v>307</v>
       </c>
       <c r="C8">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>39.573204994201603</v>
-      </c>
-      <c r="F8">
-        <v>9.5690657323454803E-2</v>
+        <v>6</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.7020424408479401E-2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2.0153912886598201E-2</v>
       </c>
       <c r="G8">
-        <v>0.31388955649650402</v>
-      </c>
-      <c r="H8">
-        <v>9.7650056065033297E-2</v>
+        <v>2.0153912886598201E-2</v>
       </c>
       <c r="I8">
-        <v>0.31193032407043503</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>4897</v>
-      </c>
-      <c r="C9">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>408.92504310607899</v>
-      </c>
-      <c r="F9">
-        <v>9.5690657323454803E-2</v>
-      </c>
-      <c r="G9">
-        <v>0.31388955649650402</v>
-      </c>
-      <c r="H9">
-        <v>9.7650056065033297E-2</v>
-      </c>
-      <c r="I9">
-        <v>0.31193032407043503</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.88130791676074005</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.98361873609879402</v>
+      </c>
+      <c r="K8">
+        <v>0.98203220102934496</v>
+      </c>
+      <c r="M8">
+        <v>0.88130791676074005</v>
+      </c>
+      <c r="N8" s="5">
+        <v>2.06562089980818E-2</v>
+      </c>
+      <c r="O8">
+        <v>2.0447771419626701E-2</v>
+      </c>
+      <c r="Q8">
+        <v>0.90945530809714104</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0.98606928634800695</v>
+      </c>
+      <c r="S8">
+        <v>0.98600789335546601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="34" x14ac:dyDescent="0.4">
+      <c r="G9" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>307</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>5.56874680519104</v>
-      </c>
-      <c r="F10">
-        <v>5.8850542847911601E-2</v>
-      </c>
-      <c r="G10">
-        <v>0.81003366792484799</v>
-      </c>
-      <c r="H10">
-        <v>5.6843502449295799E-2</v>
-      </c>
-      <c r="I10">
-        <v>0.83975224008588101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>307</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>364.13470506668</v>
-      </c>
-      <c r="F11">
-        <v>2.0172113134474201E-2</v>
-      </c>
-      <c r="G11">
-        <v>0.97760616844266901</v>
-      </c>
-      <c r="H11">
-        <v>2.8146720677308099E-2</v>
-      </c>
-      <c r="I11">
-        <v>0.96442175989395396</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -10133,291 +13024,834 @@
       <c r="C12">
         <v>7</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>5.7862971573451598E-2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>5.3761292985891398E-2</v>
+      </c>
+      <c r="G12">
+        <v>5.9673745087904802E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.52104963159800799</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.545984711900941</v>
+      </c>
+      <c r="K12">
+        <v>-3.3842037332711299</v>
+      </c>
+      <c r="M12">
+        <v>5.6912091880954301E-2</v>
+      </c>
+      <c r="N12" s="5">
+        <v>5.2946485610606803E-2</v>
+      </c>
+      <c r="O12">
+        <v>5.43806492220281E-2</v>
+      </c>
+      <c r="Q12">
+        <v>0.52697094905314601</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0.55796724055751701</v>
+      </c>
+      <c r="S12">
+        <v>0.53625923743119197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>1502</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>0.10154237523802</v>
+      </c>
+      <c r="F13" s="5">
+        <v>9.4107093954494306E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.22625079507427201</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.53920518235564296</v>
+      </c>
+      <c r="J13">
+        <v>0.51862591664825497</v>
+      </c>
+      <c r="K13">
+        <v>-507.71882303332802</v>
+      </c>
+      <c r="M13">
+        <v>9.4220216332376094E-2</v>
+      </c>
+      <c r="N13" s="5">
+        <v>9.2552602366027997E-2</v>
+      </c>
+      <c r="O13">
+        <v>5.07838913355826</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0.52054801746456003</v>
+      </c>
+      <c r="R13">
+        <v>0.47974793945796201</v>
+      </c>
+      <c r="S13">
+        <v>-127173.339243536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="E12">
-        <v>34.542192220687802</v>
-      </c>
-      <c r="F12">
+      <c r="B14">
+        <v>391</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>0.177495438391959</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.118648204214143</v>
+      </c>
+      <c r="G14">
+        <v>0.18735037062731499</v>
+      </c>
+      <c r="I14">
+        <v>0.52004877099864799</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.57999453305134296</v>
+      </c>
+      <c r="K14">
+        <v>0.50820512726177802</v>
+      </c>
+      <c r="M14">
+        <v>0.206051207507219</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0.175686184844974</v>
+      </c>
+      <c r="O14">
+        <v>3.3339997497032301</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0.42619201111861399</v>
+      </c>
+      <c r="R14">
+        <v>0.40131171558032502</v>
+      </c>
+      <c r="S14">
+        <v>-2848.34800551641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>4897</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>9.5690657323454803E-2</v>
+      </c>
+      <c r="F15" s="5">
+        <v>9.2724549446084298E-2</v>
+      </c>
+      <c r="G15">
+        <v>9.6383454540238001E-2</v>
+      </c>
+      <c r="I15">
+        <v>0.31388955649650502</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.32420922232073701</v>
+      </c>
+      <c r="K15">
+        <v>0.28063623489582901</v>
+      </c>
+      <c r="M15">
+        <v>9.7650056065033297E-2</v>
+      </c>
+      <c r="N15" s="5">
+        <v>9.5685635339985003E-2</v>
+      </c>
+      <c r="O15">
+        <v>10.308238085835001</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>0.31193032407043503</v>
+      </c>
+      <c r="R15">
+        <v>0.31112381080436702</v>
+      </c>
+      <c r="S15">
+        <v>-1908796.4418687001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>307</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>5.8850542847911698E-2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>7.3673360923744401E-3</v>
+      </c>
+      <c r="G16">
+        <v>2.27731948050942E-2</v>
+      </c>
+      <c r="I16">
+        <v>0.81003366792484799</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.99642835635331595</v>
+      </c>
+      <c r="K16">
+        <v>0.965552344966225</v>
+      </c>
+      <c r="M16">
+        <v>5.6843502449295799E-2</v>
+      </c>
+      <c r="N16" s="5">
+        <v>1.3922659356458301E-2</v>
+      </c>
+      <c r="O16">
+        <v>3.6325225160569297E-2</v>
+      </c>
+      <c r="Q16">
+        <v>0.83975224008588201</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0.98892367241032297</v>
+      </c>
+      <c r="S16">
+        <v>0.88257974602706502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="34" x14ac:dyDescent="0.4">
+      <c r="G17" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>4176</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="E20">
         <v>5.9037163940816297E-2</v>
       </c>
-      <c r="G12">
-        <v>0.50321233075070804</v>
-      </c>
-      <c r="H12">
-        <v>5.8254085159011801E-2</v>
-      </c>
-      <c r="I12">
+      <c r="F20" s="5">
+        <v>5.2983874096568101E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.73221994678913704</v>
+      </c>
+      <c r="I20">
+        <v>0.50321233075070704</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.55177692996415195</v>
+      </c>
+      <c r="K20">
+        <v>-24071.036936287899</v>
+      </c>
+      <c r="M20">
+        <v>5.8254085159011697E-2</v>
+      </c>
+      <c r="N20" s="5">
+        <v>5.2791589462564202E-2</v>
+      </c>
+      <c r="O20">
+        <v>1.8710141750421301</v>
+      </c>
+      <c r="Q20">
         <v>0.50663592716328398</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="R20" s="5">
+        <v>0.56284372390919502</v>
+      </c>
+      <c r="S20">
+        <v>-77035.698731945202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>1502</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>9.5892858461266994E-2</v>
+      </c>
+      <c r="F21" s="5">
+        <v>8.4779202239052998E-2</v>
+      </c>
+      <c r="G21">
+        <v>1.8023455513589901</v>
+      </c>
+      <c r="I21">
+        <v>0.58101301516835002</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.58345671827877899</v>
+      </c>
+      <c r="K21">
+        <v>-51472.628417024898</v>
+      </c>
+      <c r="M21">
+        <v>8.9921351139456498E-2</v>
+      </c>
+      <c r="N21" s="5">
+        <v>8.9644484040512507E-2</v>
+      </c>
+      <c r="O21">
+        <v>2.9536540277163801</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>0.55803051643693102</v>
+      </c>
+      <c r="R21">
+        <v>0.44673238858841502</v>
+      </c>
+      <c r="S21">
+        <v>-83446.137057411499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>391</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>0.17909373344227</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.17294444330197301</v>
+      </c>
+      <c r="G22">
+        <v>0.39640511313320997</v>
+      </c>
+      <c r="I22">
+        <v>0.54633607973268705</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0.59021864908024102</v>
+      </c>
+      <c r="K22">
+        <v>-92.995860095202801</v>
+      </c>
+      <c r="M22">
+        <v>0.199379991828459</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0.15005793025472999</v>
+      </c>
+      <c r="O22">
+        <v>5.5327424196359702</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0.43636342866390498</v>
+      </c>
+      <c r="R22">
+        <v>-8.4537226842504601E-2</v>
+      </c>
+      <c r="S22">
+        <v>-6583.48865591099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>4897</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>9.40078574035174E-2</v>
+      </c>
+      <c r="F23" s="5">
+        <v>8.7279205339188495E-2</v>
+      </c>
+      <c r="G23">
+        <v>0.10458684367288</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.33141792517538898</v>
+      </c>
+      <c r="J23">
+        <v>0.27017113317621899</v>
+      </c>
+      <c r="K23">
+        <v>-1.54021673322986E-2</v>
+      </c>
+      <c r="M23">
+        <v>9.6918915395163605E-2</v>
+      </c>
+      <c r="N23" s="5">
+        <v>9.1493360071884799E-2</v>
+      </c>
+      <c r="O23">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>0.31687312997271899</v>
+      </c>
+      <c r="R23" s="5">
+        <v>0.35193171569377102</v>
+      </c>
+      <c r="S23">
+        <v>-3.7247801345082099E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>307</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>6.7121600695407901E-2</v>
+      </c>
+      <c r="F24" s="5">
+        <v>9.5975992216683695E-3</v>
+      </c>
+      <c r="G24">
+        <v>6.9895011550716896E-2</v>
+      </c>
+      <c r="I24">
+        <v>0.75615012664320602</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.99142128374452798</v>
+      </c>
+      <c r="K24">
+        <v>-0.63425977151785995</v>
+      </c>
+      <c r="M24">
+        <v>7.2324356339505805E-2</v>
+      </c>
+      <c r="N24" s="5">
+        <v>1.7982685109058798E-2</v>
+      </c>
+      <c r="O24">
+        <v>0.163189517515063</v>
+      </c>
+      <c r="Q24">
+        <v>0.74115712290518299</v>
+      </c>
+      <c r="R24" s="5">
+        <v>0.98419103406907504</v>
+      </c>
+      <c r="S24">
+        <v>-3.8598274316974499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="34" x14ac:dyDescent="0.4">
+      <c r="G25" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" t="s">
+        <v>38</v>
+      </c>
+      <c r="O26" t="s">
+        <v>39</v>
+      </c>
+      <c r="R26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27" t="s">
+        <v>35</v>
+      </c>
+      <c r="O27" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
-      <c r="B13">
+      <c r="B28">
         <v>4176</v>
       </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13">
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="E28" s="5">
+        <v>5.5677894035133402E-2</v>
+      </c>
+      <c r="F28" s="5">
+        <v>5.5677894035133402E-2</v>
+      </c>
+      <c r="G28">
+        <v>1.05613149218841</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0.53682563121722005</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.53682563121722005</v>
+      </c>
+      <c r="K28">
+        <v>-247886.220299423</v>
+      </c>
+      <c r="M28" s="5">
+        <v>5.5396652010914801E-2</v>
+      </c>
+      <c r="N28" s="5">
+        <v>5.5396652010914801E-2</v>
+      </c>
+      <c r="O28">
+        <v>5.4419949314154399E-2</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>0.53164886071238504</v>
+      </c>
+      <c r="R28" s="8">
+        <v>0.53164886071238504</v>
+      </c>
+      <c r="S28" s="5">
+        <v>0.53384216978646504</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>1502</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>9.1053706873821305E-2</v>
+      </c>
+      <c r="F29" s="5">
+        <v>7.4667012066993194E-2</v>
+      </c>
+      <c r="G29">
+        <v>22.5013397143417</v>
+      </c>
+      <c r="I29">
+        <v>0.61968044936337296</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.64966064985911898</v>
+      </c>
+      <c r="K29">
+        <v>-653850.07640073495</v>
+      </c>
+      <c r="M29">
+        <v>8.7356816022082603E-2</v>
+      </c>
+      <c r="N29" s="5">
+        <v>8.2845363568879199E-2</v>
+      </c>
+      <c r="O29">
+        <v>14.759414407775999</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>0.58070735044671196</v>
+      </c>
+      <c r="R29">
+        <v>0.54379340193826697</v>
+      </c>
+      <c r="S29">
+        <v>-548921.14728737005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>3</v>
       </c>
-      <c r="E13">
-        <v>421.076116800308</v>
-      </c>
-      <c r="F13">
-        <v>5.9037163940816297E-2</v>
-      </c>
-      <c r="G13">
-        <v>0.50321233075070804</v>
-      </c>
-      <c r="H13">
-        <v>5.8254085159011801E-2</v>
-      </c>
-      <c r="I13">
-        <v>0.50663592716328398</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>1502</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>15.764312982559201</v>
-      </c>
-      <c r="F14">
-        <v>9.5892858461266994E-2</v>
-      </c>
-      <c r="G14">
-        <v>0.58101301516835002</v>
-      </c>
-      <c r="H14">
-        <v>8.9921351139456498E-2</v>
-      </c>
-      <c r="I14">
-        <v>0.55803051643693102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>1502</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>386.48891019821099</v>
-      </c>
-      <c r="F15">
-        <v>8.4679580770484403E-2</v>
-      </c>
-      <c r="G15">
-        <v>0.576845846466566</v>
-      </c>
-      <c r="H15">
-        <v>8.4516869477474596E-2</v>
-      </c>
-      <c r="I15">
-        <v>0.54828599260921096</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16">
+      <c r="B30">
         <v>391</v>
       </c>
-      <c r="C16">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>6.6710028648376403</v>
-      </c>
-      <c r="F16">
-        <v>0.16909373344226999</v>
-      </c>
-      <c r="G16">
-        <v>0.54633607973268705</v>
-      </c>
-      <c r="H16">
-        <v>0.19937999182846</v>
-      </c>
-      <c r="I16">
-        <v>0.43636342866390498</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>391</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>381.08024334907498</v>
-      </c>
-      <c r="F17">
-        <v>0.78679917719306403</v>
-      </c>
-      <c r="G17">
-        <v>-847.63851859630495</v>
-      </c>
-      <c r="H17">
-        <v>0.18878711224741301</v>
-      </c>
-      <c r="I17">
-        <v>0.29869164875114401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>0.152371433009445</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.14776473056802</v>
+      </c>
+      <c r="G30">
+        <v>4.0873505706208801</v>
+      </c>
+      <c r="I30">
+        <v>0.59294346851203805</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.62486485348800003</v>
+      </c>
+      <c r="K30">
+        <v>-6486.7985189335404</v>
+      </c>
+      <c r="M30">
+        <v>0.187210023967568</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0.148684981352463</v>
+      </c>
+      <c r="O30">
+        <v>5.10913280881348</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>0.47470613774056097</v>
+      </c>
+      <c r="R30">
+        <v>0.42592310766000002</v>
+      </c>
+      <c r="S30">
+        <v>-4540.891686256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>4</v>
       </c>
-      <c r="B18">
+      <c r="B31">
         <v>4897</v>
       </c>
-      <c r="C18">
+      <c r="C31">
         <v>11</v>
       </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>75.476382970809894</v>
-      </c>
-      <c r="F18">
-        <v>9.40078574035174E-2</v>
-      </c>
-      <c r="G18">
-        <v>0.33141792517538898</v>
-      </c>
-      <c r="H18">
-        <v>9.6918915395163605E-2</v>
-      </c>
-      <c r="I18">
-        <v>0.31687312997271899</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>4897</v>
-      </c>
-      <c r="C19">
-        <v>11</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>498.24478006362898</v>
-      </c>
-      <c r="F19">
-        <v>9.40078574035174E-2</v>
-      </c>
-      <c r="G19">
-        <v>0.33141792517538898</v>
-      </c>
-      <c r="H19">
-        <v>9.6918915395163605E-2</v>
-      </c>
-      <c r="I19">
-        <v>0.31687312997271899</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20">
+      <c r="E31">
+        <v>9.2556758372483602E-2</v>
+      </c>
+      <c r="F31" s="5">
+        <v>9.2437537034513503E-2</v>
+      </c>
+      <c r="G31">
+        <v>1.0931811380654699</v>
+      </c>
+      <c r="I31">
+        <v>0.34986978501082899</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.34915864885319398</v>
+      </c>
+      <c r="K31">
+        <v>-177937.94956473101</v>
+      </c>
+      <c r="M31" s="8">
+        <v>9.6353055252005604E-2</v>
+      </c>
+      <c r="N31" s="5">
+        <v>9.6097640261895503E-2</v>
+      </c>
+      <c r="O31">
+        <v>4.0655309842977303</v>
+      </c>
+      <c r="Q31">
+        <v>0.31642269260918898</v>
+      </c>
+      <c r="R31" s="5">
+        <v>0.32066000172088699</v>
+      </c>
+      <c r="S31">
+        <v>-704191.75357026805</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
         <v>307</v>
       </c>
-      <c r="C20">
+      <c r="C32">
         <v>6</v>
       </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>5.2896668910980198</v>
-      </c>
-      <c r="F20">
-        <v>6.7121600695407804E-2</v>
-      </c>
-      <c r="G20">
-        <v>0.75615012664320602</v>
-      </c>
-      <c r="H20">
-        <v>7.2324356339505805E-2</v>
-      </c>
-      <c r="I20">
-        <v>0.74115712290518299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>307</v>
-      </c>
-      <c r="C21">
-        <v>6</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>367.98126888275101</v>
-      </c>
-      <c r="F21">
-        <v>0.105062107585128</v>
-      </c>
-      <c r="G21">
-        <v>-31.135643420242801</v>
-      </c>
-      <c r="H21">
-        <v>0.22283245242799399</v>
-      </c>
-      <c r="I21">
-        <v>-37.621436721814099</v>
+      <c r="E32">
+        <v>6.7328914211905705E-2</v>
+      </c>
+      <c r="F32" s="5">
+        <v>8.0208784224019992E-3</v>
+      </c>
+      <c r="G32">
+        <v>0.33531583499162898</v>
+      </c>
+      <c r="I32">
+        <v>0.75776786809946906</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0.99214875814439996</v>
+      </c>
+      <c r="K32">
+        <v>-207.20253683766501</v>
+      </c>
+      <c r="M32" s="8">
+        <v>6.7560557329282706E-2</v>
+      </c>
+      <c r="N32" s="5">
+        <v>2.8884903968072001E-2</v>
+      </c>
+      <c r="O32">
+        <v>1.6019610837345699</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>0.77578100077152201</v>
+      </c>
+      <c r="R32" s="5">
+        <v>0.96723247299600001</v>
+      </c>
+      <c r="S32">
+        <v>-526.12058384878196</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I21">
-    <sortCondition ref="D2:D21"/>
-    <sortCondition ref="A2:A21"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Results/d_1_2_3_comparison_init_no_init_no_init_time_limit.xlsx
+++ b/Results/d_1_2_3_comparison_init_no_init_no_init_time_limit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0222F890-B033-8740-988D-5B344D8D5BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F01F145-6FEB-9D4C-BCA3-E297CD039D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="500" windowWidth="28120" windowHeight="16280" activeTab="8" xr2:uid="{6FABF61E-5EBE-E440-8258-C5C2D179FD09}"/>
+    <workbookView xWindow="36320" yWindow="-2140" windowWidth="28120" windowHeight="16280" activeTab="9" xr2:uid="{6FABF61E-5EBE-E440-8258-C5C2D179FD09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,12 @@
     <sheet name="Sheet6" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet7" sheetId="11" r:id="rId11"/>
     <sheet name="Sheet5" sheetId="9" r:id="rId12"/>
+    <sheet name="Sheet4" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="res_continuous_1_2023_03_30" localSheetId="9">Sheet6!$A$46:$K$56</definedName>
+    <definedName name="res_continuous_1_2023_04_02" localSheetId="9">Sheet6!#REF!</definedName>
+    <definedName name="res_continuous_1_2023_04_02_1" localSheetId="9">Sheet6!$A$57:$K$68</definedName>
     <definedName name="res_continuous_2023_03_17" localSheetId="0">Sheet1!$A$2:$K$32</definedName>
     <definedName name="res_continuous_2023_03_18" localSheetId="0">Sheet1!$A$34:$K$48</definedName>
     <definedName name="res_continuous_2023_03_21" localSheetId="1">Sheet2!$A$2:$L$16</definedName>
@@ -49,6 +52,7 @@
     <definedName name="res_continuous_2023_03_30_3" localSheetId="9">Sheet6!$A$37:$K$39</definedName>
     <definedName name="res_continuous_2023_03_30_3_1" localSheetId="10">Sheet7!$A$42:$N$46</definedName>
     <definedName name="res_continuous_2023_03_30_4" localSheetId="9">Sheet6!$A$40:$K$45</definedName>
+    <definedName name="res_continuous_2023_04_02" localSheetId="9">Sheet6!$A$69:$K$69</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -73,7 +77,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{4866AE14-594F-BA4A-8906-58955E7F2F66}" name="res_continuous_1_2023-03-30" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_1_2023-03-30.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_1_2023-03-30.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -93,10 +97,9 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{68AF06DF-945D-114F-96AF-C6051ED6501D}" name="res_continuous_2023-03-17" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-17.csv" comma="1">
-      <textFields count="16">
-        <textField/>
+  <connection id="2" xr16:uid="{8B3F66A1-6C41-C547-B365-49D8D144A8D5}" name="res_continuous_1_2023-04-021" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_1_2023-04-02.csv" comma="1">
+      <textFields count="15">
         <textField/>
         <textField/>
         <textField/>
@@ -115,8 +118,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{48896672-04FC-5945-A05B-639041B0C5FC}" name="res_continuous_2023-03-18" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-18.csv" comma="1">
+  <connection id="3" xr16:uid="{68AF06DF-945D-114F-96AF-C6051ED6501D}" name="res_continuous_2023-03-17" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-17.csv" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -137,9 +140,10 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{F61C3614-5D58-794E-A653-93BAA3E6D644}" name="res_continuous_2023-03-21" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-21.csv" comma="1">
-      <textFields count="15">
+  <connection id="4" xr16:uid="{48896672-04FC-5945-A05B-639041B0C5FC}" name="res_continuous_2023-03-18" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-18.csv" comma="1">
+      <textFields count="16">
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -158,7 +162,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" xr16:uid="{12312042-73BB-D546-B368-D7584038647F}" name="res_continuous_2023-03-211" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="5" xr16:uid="{F61C3614-5D58-794E-A653-93BAA3E6D644}" name="res_continuous_2023-03-21" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-21.csv" comma="1">
       <textFields count="15">
         <textField/>
@@ -179,7 +183,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" xr16:uid="{72CBC193-DF90-DA48-AAAD-1827DB3CD0D2}" name="res_continuous_2023-03-2111" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="6" xr16:uid="{12312042-73BB-D546-B368-D7584038647F}" name="res_continuous_2023-03-211" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-21.csv" comma="1">
       <textFields count="15">
         <textField/>
@@ -200,8 +204,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" xr16:uid="{2219E069-800F-FB4C-999B-4D01E79E33A4}" name="res_continuous_2023-03-22" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees_backup/Results/res_continuous_2023-03-22.csv" comma="1">
+  <connection id="7" xr16:uid="{72CBC193-DF90-DA48-AAAD-1827DB3CD0D2}" name="res_continuous_2023-03-2111" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-21.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -221,7 +225,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" xr16:uid="{53E8F1B5-C132-A144-BDC5-F74B95195479}" name="res_continuous_2023-03-221" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="8" xr16:uid="{2219E069-800F-FB4C-999B-4D01E79E33A4}" name="res_continuous_2023-03-22" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/marcoturetta/Projects/trees_backup/Results/res_continuous_2023-03-22.csv" comma="1">
       <textFields count="15">
         <textField/>
@@ -242,7 +246,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" xr16:uid="{8E23A30B-453B-664B-9867-B92BACDFE696}" name="res_continuous_2023-03-222" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="9" xr16:uid="{53E8F1B5-C132-A144-BDC5-F74B95195479}" name="res_continuous_2023-03-221" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/marcoturetta/Projects/trees_backup/Results/res_continuous_2023-03-22.csv" comma="1">
       <textFields count="15">
         <textField/>
@@ -263,7 +267,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="10" xr16:uid="{0E911E47-3104-394A-B619-8A4604585186}" name="res_continuous_2023-03-223" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="10" xr16:uid="{8E23A30B-453B-664B-9867-B92BACDFE696}" name="res_continuous_2023-03-222" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/marcoturetta/Projects/trees_backup/Results/res_continuous_2023-03-22.csv" comma="1">
       <textFields count="15">
         <textField/>
@@ -284,8 +288,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="11" xr16:uid="{ADB4CC18-3FC5-534E-8234-F03CA87B8C24}" name="res_continuous_2023-03-29" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-29.csv" comma="1">
+  <connection id="11" xr16:uid="{0E911E47-3104-394A-B619-8A4604585186}" name="res_continuous_2023-03-223" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees_backup/Results/res_continuous_2023-03-22.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -305,8 +309,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="12" xr16:uid="{88A9F116-6D66-2F46-A82D-DEF541840BA5}" name="res_continuous_2023-03-291" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr firstRow="4" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-29.csv" comma="1">
+  <connection id="12" xr16:uid="{ADB4CC18-3FC5-534E-8234-F03CA87B8C24}" name="res_continuous_2023-03-29" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-29.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -326,8 +330,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="13" xr16:uid="{51475FD0-2424-DE45-B461-505CD7577027}" name="res_continuous_2023-03-292" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr firstRow="26" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-29.csv" comma="1">
+  <connection id="13" xr16:uid="{88A9F116-6D66-2F46-A82D-DEF541840BA5}" name="res_continuous_2023-03-291" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr firstRow="4" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-29.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -347,7 +351,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="14" xr16:uid="{308B705C-2077-454E-8523-7C1C39C81776}" name="res_continuous_2023-03-2921" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="14" xr16:uid="{51475FD0-2424-DE45-B461-505CD7577027}" name="res_continuous_2023-03-292" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr firstRow="26" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-29.csv" comma="1">
       <textFields count="15">
         <textField/>
@@ -368,8 +372,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="15" xr16:uid="{0AD5EB9A-5ADA-4F4E-A286-B9FA34C1F988}" name="res_continuous_2023-03-30" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-30.csv" comma="1">
+  <connection id="15" xr16:uid="{308B705C-2077-454E-8523-7C1C39C81776}" name="res_continuous_2023-03-2921" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr firstRow="26" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-29.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -389,8 +393,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="16" xr16:uid="{F51E1C05-5E11-4545-B722-F857CE51140E}" name="res_continuous_2023-03-302" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" firstRow="24" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-30.csv" comma="1">
+  <connection id="16" xr16:uid="{0AD5EB9A-5ADA-4F4E-A286-B9FA34C1F988}" name="res_continuous_2023-03-30" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-30.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -410,8 +414,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="17" xr16:uid="{94D4E52A-E8AF-CA4E-B416-ABDC6576EF07}" name="res_continuous_2023-03-3021" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" firstRow="24" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-30.csv" comma="1">
+  <connection id="17" xr16:uid="{F51E1C05-5E11-4545-B722-F857CE51140E}" name="res_continuous_2023-03-302" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr firstRow="24" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-30.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -431,8 +435,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="18" xr16:uid="{AD252DEC-E397-2441-A5E6-6C157137BA3C}" name="res_continuous_2023-03-303" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" firstRow="39" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-30.csv" comma="1">
+  <connection id="18" xr16:uid="{94D4E52A-E8AF-CA4E-B416-ABDC6576EF07}" name="res_continuous_2023-03-3021" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr firstRow="24" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-30.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -452,8 +456,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="19" xr16:uid="{CD241484-39AA-A84A-8D5D-C188A54E9F03}" name="res_continuous_2023-03-3031" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" firstRow="39" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-30.csv" comma="1">
+  <connection id="19" xr16:uid="{AD252DEC-E397-2441-A5E6-6C157137BA3C}" name="res_continuous_2023-03-303" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr firstRow="39" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-30.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -473,8 +477,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="20" xr16:uid="{B3A8F834-405E-9E4C-BCB5-48A44EC23987}" name="res_continuous_2023-03-304" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-30.csv" comma="1">
+  <connection id="20" xr16:uid="{CD241484-39AA-A84A-8D5D-C188A54E9F03}" name="res_continuous_2023-03-3031" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr firstRow="39" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-30.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -494,8 +498,50 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="21" xr16:uid="{7E67A09B-FB1B-3B4D-97B2-8817FCDAF906}" name="res_continuous_2023-03-305" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-30.csv" comma="1">
+  <connection id="21" xr16:uid="{B3A8F834-405E-9E4C-BCB5-48A44EC23987}" name="res_continuous_2023-03-304" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-30.csv" comma="1">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="22" xr16:uid="{7E67A09B-FB1B-3B4D-97B2-8817FCDAF906}" name="res_continuous_2023-03-305" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-03-30.csv" comma="1">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="23" xr16:uid="{E6CECD36-5DA4-674D-804C-D120F965342C}" name="res_continuous_2023-04-02" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-04-02.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -519,7 +565,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="51">
   <si>
     <t>yacht_hydrodynamics_reg.csv</t>
   </si>
@@ -739,7 +785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -750,7 +796,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,87 +814,95 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-17" connectionId="2" xr16:uid="{001C276C-1108-EC48-9063-24A6196E6C73}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-17" connectionId="3" xr16:uid="{001C276C-1108-EC48-9063-24A6196E6C73}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-04-02" connectionId="23" xr16:uid="{7528A242-08F0-DE43-A5B2-4E42A68A4130}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_1_2023_04_02_1" connectionId="2" xr16:uid="{BC040804-087E-E748-8FE1-AD580B7D87B9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_4" connectionId="22" xr16:uid="{FDEB8E56-E577-914D-B36F-663C0578B4C0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_3" connectionId="19" xr16:uid="{EB102B71-AB0E-E746-9E22-31DA5513BB46}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_2" connectionId="17" xr16:uid="{A8B638B9-0DE3-E74B-BEB1-1CBA172FCD5D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-29" connectionId="14" xr16:uid="{D6114479-D823-1B43-87BC-47496EAC10A7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-30" connectionId="16" xr16:uid="{E799E179-7AEE-494A-8108-18C6CE9270A8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_1_2023-03-30" connectionId="1" xr16:uid="{55CCE997-F6CE-D044-8E30-8E071504A0A8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_4" connectionId="21" xr16:uid="{FDEB8E56-E577-914D-B36F-663C0578B4C0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_3" connectionId="18" xr16:uid="{EB102B71-AB0E-E746-9E22-31DA5513BB46}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_2" connectionId="16" xr16:uid="{A8B638B9-0DE3-E74B-BEB1-1CBA172FCD5D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-29" connectionId="13" xr16:uid="{D6114479-D823-1B43-87BC-47496EAC10A7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-30" connectionId="15" xr16:uid="{E799E179-7AEE-494A-8108-18C6CE9270A8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_1" connectionId="20" xr16:uid="{03E8A905-0B50-D544-8E7F-4AFBBBA8502F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_29_1" connectionId="14" xr16:uid="{8A9191CA-94C8-7141-8EA1-D35EA031EF67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_2_1" connectionId="17" xr16:uid="{F21DED3A-2BBD-C348-B9AA-9DBCC5EDAE36}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_3_1" connectionId="20" xr16:uid="{B430EB6C-1CF1-E343-92BB-094698511432}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_3_1" connectionId="19" xr16:uid="{B430EB6C-1CF1-E343-92BB-094698511432}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_1" connectionId="21" xr16:uid="{03E8A905-0B50-D544-8E7F-4AFBBBA8502F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-18" connectionId="3" xr16:uid="{78CB4E18-9BB6-D34D-9177-678E75660766}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-18" connectionId="4" xr16:uid="{78CB4E18-9BB6-D34D-9177-678E75660766}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-29" connectionId="11" xr16:uid="{D511C83C-6E17-6241-A7A5-3AA317498C6D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_29_1" connectionId="15" xr16:uid="{8A9191CA-94C8-7141-8EA1-D35EA031EF67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_29_1" connectionId="12" xr16:uid="{DEEB399E-44F8-1946-A5A4-1E2C47238D81}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_2_1" connectionId="18" xr16:uid="{F21DED3A-2BBD-C348-B9AA-9DBCC5EDAE36}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-29" connectionId="12" xr16:uid="{D511C83C-6E17-6241-A7A5-3AA317498C6D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_29_1" connectionId="13" xr16:uid="{DEEB399E-44F8-1946-A5A4-1E2C47238D81}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-21" connectionId="4" xr16:uid="{DA90511F-46E1-864E-9F44-FE92330B9747}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-21" connectionId="5" xr16:uid="{DA90511F-46E1-864E-9F44-FE92330B9747}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_21_1" connectionId="5" xr16:uid="{BA017236-576A-1543-BD2D-FC4FFAFCBA2B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_21_1" connectionId="6" xr16:uid="{BA017236-576A-1543-BD2D-FC4FFAFCBA2B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_21_1" connectionId="6" xr16:uid="{B01E4D8D-B577-EE45-B822-75DA8EB11D48}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_21_1" connectionId="7" xr16:uid="{B01E4D8D-B577-EE45-B822-75DA8EB11D48}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-22" connectionId="7" xr16:uid="{A5D38850-8ACE-B74B-A1F6-1DB61CF3BEA5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-22" connectionId="8" xr16:uid="{A5D38850-8ACE-B74B-A1F6-1DB61CF3BEA5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-22" connectionId="8" xr16:uid="{5939C551-5B47-984D-8403-7AC38DECB97D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-22" connectionId="9" xr16:uid="{5939C551-5B47-984D-8403-7AC38DECB97D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-22" connectionId="9" xr16:uid="{750810FD-BE1B-3847-9B2A-75BDF00C35CF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-22" connectionId="10" xr16:uid="{750810FD-BE1B-3847-9B2A-75BDF00C35CF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-22" connectionId="10" xr16:uid="{EABDB209-7D94-D04F-B7C9-522F40F33E86}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-22" connectionId="11" xr16:uid="{EABDB209-7D94-D04F-B7C9-522F40F33E86}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2787,25 +2840,23 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1B45F5-6B38-D64A-86E7-FF01617C9988}">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:I11"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="6.5" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -4770,12 +4821,467 @@
         <v>30.275805950164699</v>
       </c>
     </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>4176</v>
+      </c>
+      <c r="C57">
+        <v>7</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>3727.7433974742798</v>
+      </c>
+      <c r="F57">
+        <v>5.6164569715034002E-2</v>
+      </c>
+      <c r="G57">
+        <v>0.50600673268957497</v>
+      </c>
+      <c r="H57">
+        <v>5.4605359311980302E-2</v>
+      </c>
+      <c r="I57">
+        <v>0.53177688583017402</v>
+      </c>
+      <c r="J57" t="s">
+        <v>21</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>1502</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>3652.4576458930901</v>
+      </c>
+      <c r="F58">
+        <v>9.7102135297279596E-2</v>
+      </c>
+      <c r="G58">
+        <v>0.51103696597411197</v>
+      </c>
+      <c r="H58">
+        <v>9.1525771777357198E-2</v>
+      </c>
+      <c r="I58">
+        <v>0.48957232392254302</v>
+      </c>
+      <c r="J58" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>1502</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>27.9836168289184</v>
+      </c>
+      <c r="F59">
+        <v>8.9535817767959006E-2</v>
+      </c>
+      <c r="G59">
+        <v>0.628312135270925</v>
+      </c>
+      <c r="H59">
+        <v>8.6468621776299395E-2</v>
+      </c>
+      <c r="I59">
+        <v>0.58027975216847505</v>
+      </c>
+      <c r="J59" t="s">
+        <v>20</v>
+      </c>
+      <c r="K59">
+        <v>18.1671268939971</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60">
+        <v>1502</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>3735.66715097427</v>
+      </c>
+      <c r="F60">
+        <v>15.366778204037001</v>
+      </c>
+      <c r="G60">
+        <v>-225675.782227038</v>
+      </c>
+      <c r="H60">
+        <v>9.8665582849013305</v>
+      </c>
+      <c r="I60">
+        <v>-163250.56623064901</v>
+      </c>
+      <c r="J60" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60">
+        <v>75.646857261657701</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>391</v>
+      </c>
+      <c r="C61">
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>3611.21410012245</v>
+      </c>
+      <c r="F61">
+        <v>4.2698446160525299</v>
+      </c>
+      <c r="G61">
+        <v>-4669.4867336278803</v>
+      </c>
+      <c r="H61">
+        <v>12.685230470667101</v>
+      </c>
+      <c r="I61">
+        <v>-9524.9948465787402</v>
+      </c>
+      <c r="J61" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>391</v>
+      </c>
+      <c r="C62">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>84.323567867278996</v>
+      </c>
+      <c r="F62">
+        <v>0.15165773543052999</v>
+      </c>
+      <c r="G62">
+        <v>0.59254790920074196</v>
+      </c>
+      <c r="H62">
+        <v>0.18776735369963399</v>
+      </c>
+      <c r="I62">
+        <v>0.45131432627756501</v>
+      </c>
+      <c r="J62" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62">
+        <v>64.224467277526799</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>391</v>
+      </c>
+      <c r="C63">
+        <v>7</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>3638.7462573051398</v>
+      </c>
+      <c r="F63">
+        <v>6.1684395018701101</v>
+      </c>
+      <c r="G63">
+        <v>-5430.8286609321003</v>
+      </c>
+      <c r="H63">
+        <v>9.2530348964438396</v>
+      </c>
+      <c r="I63">
+        <v>-3777.99745386937</v>
+      </c>
+      <c r="J63" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63">
+        <v>23.035932302474901</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>4897</v>
+      </c>
+      <c r="C64">
+        <v>11</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>3803.1485760211899</v>
+      </c>
+      <c r="F64">
+        <v>1.0894033801381899</v>
+      </c>
+      <c r="G64">
+        <v>-177468.57508381401</v>
+      </c>
+      <c r="H64">
+        <v>9.7251634605242193E-2</v>
+      </c>
+      <c r="I64">
+        <v>0.28126395247751401</v>
+      </c>
+      <c r="J64" t="s">
+        <v>21</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>4897</v>
+      </c>
+      <c r="C65">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>543.38273549079895</v>
+      </c>
+      <c r="F65">
+        <v>9.14228510862439E-2</v>
+      </c>
+      <c r="G65">
+        <v>0.36043764202228201</v>
+      </c>
+      <c r="H65">
+        <v>9.6453635530129006E-2</v>
+      </c>
+      <c r="I65">
+        <v>0.30828716094783698</v>
+      </c>
+      <c r="J65" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65">
+        <v>259.71010851860001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>4897</v>
+      </c>
+      <c r="C66">
+        <v>11</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>4121.7728230953198</v>
+      </c>
+      <c r="F66">
+        <v>9.14228510862439E-2</v>
+      </c>
+      <c r="G66">
+        <v>0.36043764202228201</v>
+      </c>
+      <c r="H66">
+        <v>9.6453635530129006E-2</v>
+      </c>
+      <c r="I66">
+        <v>0.30828716094783698</v>
+      </c>
+      <c r="J66" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66">
+        <v>233.178045988082</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>307</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>3608.4616074562</v>
+      </c>
+      <c r="F67">
+        <v>66.739065563537594</v>
+      </c>
+      <c r="G67">
+        <v>-182359.077085517</v>
+      </c>
+      <c r="H67">
+        <v>55.719100921178899</v>
+      </c>
+      <c r="I67">
+        <v>-129839.02487071299</v>
+      </c>
+      <c r="J67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>307</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>53.805385351181002</v>
+      </c>
+      <c r="F68">
+        <v>5.9639833376371701E-2</v>
+      </c>
+      <c r="G68">
+        <v>0.80534420521338601</v>
+      </c>
+      <c r="H68">
+        <v>7.6087167692298993E-2</v>
+      </c>
+      <c r="I68">
+        <v>0.708923783799559</v>
+      </c>
+      <c r="J68" t="s">
+        <v>20</v>
+      </c>
+      <c r="K68">
+        <v>33.686945199966402</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>307</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>3636.31980919837</v>
+      </c>
+      <c r="F69">
+        <v>3.6756518342164299</v>
+      </c>
+      <c r="G69">
+        <v>-6287.2260722163001</v>
+      </c>
+      <c r="H69">
+        <v>4.6009172871119803</v>
+      </c>
+      <c r="I69">
+        <v>-7306.9811531409296</v>
+      </c>
+      <c r="J69" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69">
+        <v>25.622282981872502</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K56">
-    <sortCondition ref="D2:D56"/>
-    <sortCondition ref="A2:A56"/>
-    <sortCondition ref="J2:J56"/>
-    <sortCondition ref="E2:E56"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K69">
+    <sortCondition ref="D2:D69"/>
+    <sortCondition ref="A2:A69"/>
+    <sortCondition ref="J2:J69"/>
+    <sortCondition ref="E2:E69"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7063,6 +7569,18 @@
     <sortCondition ref="D2:D21"/>
     <sortCondition ref="A2:A21"/>
   </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92009966-66FD-324D-81EA-B88CA2EF5A1E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12633,7 +13151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CFEA16-D218-A349-9CE4-82B7235667BD}">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
@@ -12826,7 +13344,7 @@
       <c r="G6">
         <v>0.202928720136901</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6">
         <v>0.48043728085876303</v>
       </c>
       <c r="J6" s="5">
@@ -12844,7 +13362,7 @@
       <c r="O6">
         <v>0.24347798964513201</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6">
         <v>0.41001560310406898</v>
       </c>
       <c r="R6" s="5">
@@ -13493,7 +14011,7 @@
       <c r="O23">
         <v>0.107142857142857</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="Q23">
         <v>0.31687312997271899</v>
       </c>
       <c r="R23" s="5">
@@ -13653,10 +14171,10 @@
       <c r="O28">
         <v>5.4419949314154399E-2</v>
       </c>
-      <c r="Q28" s="8">
+      <c r="Q28">
         <v>0.53164886071238504</v>
       </c>
-      <c r="R28" s="8">
+      <c r="R28">
         <v>0.53164886071238504</v>
       </c>
       <c r="S28" s="5">
@@ -13785,7 +14303,7 @@
       <c r="K31">
         <v>-177937.94956473101</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31">
         <v>9.6353055252005604E-2</v>
       </c>
       <c r="N31" s="5">
@@ -13832,7 +14350,7 @@
       <c r="K32">
         <v>-207.20253683766501</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32">
         <v>6.7560557329282706E-2</v>
       </c>
       <c r="N32" s="5">
@@ -13841,7 +14359,7 @@
       <c r="O32">
         <v>1.6019610837345699</v>
       </c>
-      <c r="Q32" s="8">
+      <c r="Q32">
         <v>0.77578100077152201</v>
       </c>
       <c r="R32" s="5">

--- a/Results/d_1_2_3_comparison_init_no_init_no_init_time_limit.xlsx
+++ b/Results/d_1_2_3_comparison_init_no_init_no_init_time_limit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F01F145-6FEB-9D4C-BCA3-E297CD039D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E543907E-629B-DC4E-A6C0-02AFC9BFE20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36320" yWindow="-2140" windowWidth="28120" windowHeight="16280" activeTab="9" xr2:uid="{6FABF61E-5EBE-E440-8258-C5C2D179FD09}"/>
+    <workbookView xWindow="0" yWindow="1660" windowWidth="28120" windowHeight="16280" activeTab="9" xr2:uid="{6FABF61E-5EBE-E440-8258-C5C2D179FD09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,8 +53,9 @@
     <definedName name="res_continuous_2023_03_30_3_1" localSheetId="10">Sheet7!$A$42:$N$46</definedName>
     <definedName name="res_continuous_2023_03_30_4" localSheetId="9">Sheet6!$A$40:$K$45</definedName>
     <definedName name="res_continuous_2023_04_02" localSheetId="9">Sheet6!$A$69:$K$69</definedName>
+    <definedName name="res_continuous_2023_04_07" localSheetId="12">Sheet4!$A$2:$M$46</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -98,7 +99,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{8B3F66A1-6C41-C547-B365-49D8D144A8D5}" name="res_continuous_1_2023-04-021" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_1_2023-04-02.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_1_2023-04-02.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -541,8 +542,31 @@
     </textPr>
   </connection>
   <connection id="23" xr16:uid="{E6CECD36-5DA4-674D-804C-D120F965342C}" name="res_continuous_2023-04-02" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-04-02.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-04-02.csv" comma="1">
       <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="24" xr16:uid="{4057C1F6-EA96-0F46-A28A-037DF82BA88D}" name="res_continuous_2023-04-07" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_continuous_2023-04-07.csv" comma="1">
+      <textFields count="17">
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -565,7 +589,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="60">
   <si>
     <t>yacht_hydrodynamics_reg.csv</t>
   </si>
@@ -719,6 +743,33 @@
   <si>
     <t>k</t>
   </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>r2 abs tr</t>
+  </si>
+  <si>
+    <t>r2 abs</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
 </sst>
 </file>
 
@@ -818,43 +869,43 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_4" connectionId="22" xr16:uid="{FDEB8E56-E577-914D-B36F-663C0578B4C0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_1_2023-03-30" connectionId="1" xr16:uid="{55CCE997-F6CE-D044-8E30-8E071504A0A8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_3" connectionId="19" xr16:uid="{EB102B71-AB0E-E746-9E22-31DA5513BB46}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_2" connectionId="17" xr16:uid="{A8B638B9-0DE3-E74B-BEB1-1CBA172FCD5D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-29" connectionId="14" xr16:uid="{D6114479-D823-1B43-87BC-47496EAC10A7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-04-02" connectionId="23" xr16:uid="{7528A242-08F0-DE43-A5B2-4E42A68A4130}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_1_2023_04_02_1" connectionId="2" xr16:uid="{BC040804-087E-E748-8FE1-AD580B7D87B9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_4" connectionId="22" xr16:uid="{FDEB8E56-E577-914D-B36F-663C0578B4C0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_3" connectionId="19" xr16:uid="{EB102B71-AB0E-E746-9E22-31DA5513BB46}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_2" connectionId="17" xr16:uid="{A8B638B9-0DE3-E74B-BEB1-1CBA172FCD5D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-29" connectionId="14" xr16:uid="{D6114479-D823-1B43-87BC-47496EAC10A7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-03-30" connectionId="16" xr16:uid="{E799E179-7AEE-494A-8108-18C6CE9270A8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_1_2023-03-30" connectionId="1" xr16:uid="{55CCE997-F6CE-D044-8E30-8E071504A0A8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_3_1" connectionId="20" xr16:uid="{B430EB6C-1CF1-E343-92BB-094698511432}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_1" connectionId="21" xr16:uid="{03E8A905-0B50-D544-8E7F-4AFBBBA8502F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_1" connectionId="21" xr16:uid="{03E8A905-0B50-D544-8E7F-4AFBBBA8502F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_29_1" connectionId="15" xr16:uid="{8A9191CA-94C8-7141-8EA1-D35EA031EF67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -862,11 +913,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_29_1" connectionId="15" xr16:uid="{8A9191CA-94C8-7141-8EA1-D35EA031EF67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_2_1" connectionId="18" xr16:uid="{F21DED3A-2BBD-C348-B9AA-9DBCC5EDAE36}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_2_1" connectionId="18" xr16:uid="{F21DED3A-2BBD-C348-B9AA-9DBCC5EDAE36}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_30_3_1" connectionId="20" xr16:uid="{B430EB6C-1CF1-E343-92BB-094698511432}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
@@ -875,6 +926,10 @@
 
 <file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023_03_29_1" connectionId="13" xr16:uid="{DEEB399E-44F8-1946-A5A4-1E2C47238D81}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_continuous_2023-04-07" connectionId="24" xr16:uid="{57B3E872-3F8C-B446-A7A3-786882BB0810}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1204,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A617A5C5-8684-D341-AA81-89FAA3FEA340}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A39" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2842,8 +2897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1B45F5-6B38-D64A-86E7-FF01617C9988}">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5291,7 +5346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49C41EB-0887-E740-B29F-DF1D00C2C189}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -7575,12 +7630,1921 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92009966-66FD-324D-81EA-B88CA2EF5A1E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K31" activeCellId="4" sqref="K19 K22 K25 K28 K31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>4176</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3605.0984251499099</v>
+      </c>
+      <c r="F2">
+        <v>1.16052078082698</v>
+      </c>
+      <c r="G2">
+        <v>-250575.925584357</v>
+      </c>
+      <c r="H2">
+        <v>-12.667284148462301</v>
+      </c>
+      <c r="I2">
+        <v>5.4445039387009099E-2</v>
+      </c>
+      <c r="J2">
+        <v>0.535981428203824</v>
+      </c>
+      <c r="K2">
+        <v>0.32174056308083399</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4176</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>56.698644876480103</v>
+      </c>
+      <c r="F3">
+        <v>5.7862971573451598E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.52104963159800799</v>
+      </c>
+      <c r="H3">
+        <v>0.31855621438745502</v>
+      </c>
+      <c r="I3">
+        <v>5.6912091880954203E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.52697094905314601</v>
+      </c>
+      <c r="K3">
+        <v>0.29100678725418699</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>45.900240182876502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4176</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3645.2075419425901</v>
+      </c>
+      <c r="F4">
+        <v>5.3773825147301203E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.54724076479762096</v>
+      </c>
+      <c r="H4">
+        <v>0.3667134960615</v>
+      </c>
+      <c r="I4">
+        <v>5.3171135683071503E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.55496665380673504</v>
+      </c>
+      <c r="K4">
+        <v>0.337610460846544</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>36.969635009765597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1502</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3601.8374772071802</v>
+      </c>
+      <c r="F5">
+        <v>9.3153927772447895E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.54919452128723001</v>
+      </c>
+      <c r="H5">
+        <v>0.38464775873649099</v>
+      </c>
+      <c r="I5">
+        <v>8.8547123791382604E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.52198430492074799</v>
+      </c>
+      <c r="K5">
+        <v>0.35984070414238001</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1502</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>26.7141740322113</v>
+      </c>
+      <c r="F6">
+        <v>0.10154237523802</v>
+      </c>
+      <c r="G6">
+        <v>0.53920518235564296</v>
+      </c>
+      <c r="H6">
+        <v>0.32923571039784599</v>
+      </c>
+      <c r="I6">
+        <v>9.4220216332376094E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.52054801746455903</v>
+      </c>
+      <c r="K6">
+        <v>0.31882657775546602</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6">
+        <v>12.943703174591001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1502</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3611.2702460289001</v>
+      </c>
+      <c r="F7">
+        <v>8.7010035597315794E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.586305560942045</v>
+      </c>
+      <c r="H7">
+        <v>0.425232819511213</v>
+      </c>
+      <c r="I7">
+        <v>8.9440403046695899E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.515429947859251</v>
+      </c>
+      <c r="K7">
+        <v>0.353382662428537</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7">
+        <v>8.9439430236816406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>391</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3600.5356948375702</v>
+      </c>
+      <c r="F8">
+        <v>0.18563204897668401</v>
+      </c>
+      <c r="G8">
+        <v>0.50044641216950003</v>
+      </c>
+      <c r="H8">
+        <v>0.35288045496395998</v>
+      </c>
+      <c r="I8">
+        <v>0.22193830622494201</v>
+      </c>
+      <c r="J8">
+        <v>0.48853601338368202</v>
+      </c>
+      <c r="K8">
+        <v>0.25390952375444698</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>391</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>13.318746089935299</v>
+      </c>
+      <c r="F9">
+        <v>0.177495438391959</v>
+      </c>
+      <c r="G9">
+        <v>0.52004877099864799</v>
+      </c>
+      <c r="H9">
+        <v>0.38124495219785998</v>
+      </c>
+      <c r="I9">
+        <v>0.206051207507218</v>
+      </c>
+      <c r="J9">
+        <v>0.42619201111861399</v>
+      </c>
+      <c r="K9">
+        <v>0.30731721731615702</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9">
+        <v>10.535274028778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>391</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3619.4090371131801</v>
+      </c>
+      <c r="F10">
+        <v>0.14303246256480401</v>
+      </c>
+      <c r="G10">
+        <v>0.48004079966581598</v>
+      </c>
+      <c r="H10">
+        <v>0.501384041114872</v>
+      </c>
+      <c r="I10">
+        <v>0.16583059491385699</v>
+      </c>
+      <c r="J10">
+        <v>0.45844317417864899</v>
+      </c>
+      <c r="K10">
+        <v>0.44252693624703099</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10">
+        <v>18.262701988220201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>4897</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>3608.69185686111</v>
+      </c>
+      <c r="F11">
+        <v>9.6308331696421098E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.27822031300671901</v>
+      </c>
+      <c r="H11">
+        <v>7.9154429809093596E-2</v>
+      </c>
+      <c r="I11">
+        <v>1.7662253674894199</v>
+      </c>
+      <c r="J11">
+        <v>-124513.872478912</v>
+      </c>
+      <c r="K11">
+        <v>-15.4847700965678</v>
+      </c>
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>4897</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>110.695698976516</v>
+      </c>
+      <c r="F12">
+        <v>9.5690657323454803E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.31388955649650402</v>
+      </c>
+      <c r="H12">
+        <v>8.50602813605396E-2</v>
+      </c>
+      <c r="I12">
+        <v>9.7650056065033297E-2</v>
+      </c>
+      <c r="J12">
+        <v>0.31193032407043503</v>
+      </c>
+      <c r="K12">
+        <v>8.8599476726359996E-2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12">
+        <v>95.303996086120605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>4897</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3671.15532279014</v>
+      </c>
+      <c r="F13">
+        <v>9.2716758125845705E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.32369718020559102</v>
+      </c>
+      <c r="H13">
+        <v>0.113495016487556</v>
+      </c>
+      <c r="I13">
+        <v>9.5608962209541598E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.31184978458850399</v>
+      </c>
+      <c r="K13">
+        <v>0.107649686044281</v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13">
+        <v>59.8141062259674</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>307</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>3600.44938921928</v>
+      </c>
+      <c r="F14">
+        <v>1.4406779695037199E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.99099581262331304</v>
+      </c>
+      <c r="H14">
+        <v>0.90249546547158199</v>
+      </c>
+      <c r="I14">
+        <v>1.7276720800934901E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.98916746217283702</v>
+      </c>
+      <c r="K14">
+        <v>0.89563680373180699</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>307</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>6.4033000469207701</v>
+      </c>
+      <c r="F15">
+        <v>5.8850542847911601E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.81003366792484799</v>
+      </c>
+      <c r="H15">
+        <v>0.60170177453973395</v>
+      </c>
+      <c r="I15">
+        <v>5.6843502449295799E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.83975224008588101</v>
+      </c>
+      <c r="K15">
+        <v>0.65662641244012299</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15">
+        <v>5.1541829109191797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>307</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>3608.57652211189</v>
+      </c>
+      <c r="F16">
+        <v>1.02952767759583E-2</v>
+      </c>
+      <c r="G16">
+        <v>0.99426347239812496</v>
+      </c>
+      <c r="H16">
+        <v>0.93032196013750101</v>
+      </c>
+      <c r="I16">
+        <v>1.50753077028183E-2</v>
+      </c>
+      <c r="J16">
+        <v>0.99177404293825799</v>
+      </c>
+      <c r="K16">
+        <v>0.90893484274472403</v>
+      </c>
+      <c r="L16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16">
+        <v>7.7107138633728001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>4176</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>3631.4252288341499</v>
+      </c>
+      <c r="F17">
+        <v>1.35400238170472</v>
+      </c>
+      <c r="G17">
+        <v>-59372.607715441802</v>
+      </c>
+      <c r="H17">
+        <v>-14.945888771820499</v>
+      </c>
+      <c r="I17">
+        <v>4.5995395372959198</v>
+      </c>
+      <c r="J17">
+        <v>-962518.12243850296</v>
+      </c>
+      <c r="K17">
+        <v>-56.299638897830398</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>4176</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>125.174520254135</v>
+      </c>
+      <c r="F18">
+        <v>5.9037163940816297E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.50321233075070704</v>
+      </c>
+      <c r="H18">
+        <v>0.30472792195628201</v>
+      </c>
+      <c r="I18">
+        <v>5.8254085159011697E-2</v>
+      </c>
+      <c r="J18">
+        <v>0.50663592716328398</v>
+      </c>
+      <c r="K18">
+        <v>0.27428865066410202</v>
+      </c>
+      <c r="L18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18">
+        <v>85.348591566085801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>4176</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>3695.6060488224002</v>
+      </c>
+      <c r="F19">
+        <v>5.2983874096568101E-2</v>
+      </c>
+      <c r="G19">
+        <v>0.55177692996415195</v>
+      </c>
+      <c r="H19">
+        <v>0.376016634490483</v>
+      </c>
+      <c r="I19">
+        <v>5.2791589462564202E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.56284372390919502</v>
+      </c>
+      <c r="K19">
+        <v>0.34233873010127303</v>
+      </c>
+      <c r="L19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19">
+        <v>57.031927347183199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>1502</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>3609.3475279807999</v>
+      </c>
+      <c r="F20">
+        <v>5.2203661554035801</v>
+      </c>
+      <c r="G20">
+        <v>-124647.97939273401</v>
+      </c>
+      <c r="H20">
+        <v>-33.484471999836302</v>
+      </c>
+      <c r="I20">
+        <v>9.1776994685568394E-2</v>
+      </c>
+      <c r="J20">
+        <v>0.48684575026746502</v>
+      </c>
+      <c r="K20">
+        <v>0.33649006564841499</v>
+      </c>
+      <c r="L20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>1502</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>48.033411026000898</v>
+      </c>
+      <c r="F21">
+        <v>9.5892858461266994E-2</v>
+      </c>
+      <c r="G21">
+        <v>0.58101301516835002</v>
+      </c>
+      <c r="H21">
+        <v>0.36655504726062799</v>
+      </c>
+      <c r="I21">
+        <v>8.9921351139456498E-2</v>
+      </c>
+      <c r="J21">
+        <v>0.55803051643693102</v>
+      </c>
+      <c r="K21">
+        <v>0.34990560547600302</v>
+      </c>
+      <c r="L21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21">
+        <v>24.4771034717559</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>1502</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>3626.71895813941</v>
+      </c>
+      <c r="F22">
+        <v>8.4707057788106804E-2</v>
+      </c>
+      <c r="G22">
+        <v>0.58126355805777696</v>
+      </c>
+      <c r="H22">
+        <v>0.44044573205676402</v>
+      </c>
+      <c r="I22">
+        <v>8.7995763154007797E-2</v>
+      </c>
+      <c r="J22">
+        <v>0.51730182947255898</v>
+      </c>
+      <c r="K22">
+        <v>0.36382681483996798</v>
+      </c>
+      <c r="L22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22">
+        <v>15.0503194332122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>391</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>3602.8148574829102</v>
+      </c>
+      <c r="F23">
+        <v>0.39640511313320997</v>
+      </c>
+      <c r="G23">
+        <v>-92.995860095202801</v>
+      </c>
+      <c r="H23">
+        <v>-0.3818815117046</v>
+      </c>
+      <c r="I23">
+        <v>5.5327424196359702</v>
+      </c>
+      <c r="J23">
+        <v>-6583.48865591099</v>
+      </c>
+      <c r="K23">
+        <v>-17.599431963882601</v>
+      </c>
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>391</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>31.160626173019399</v>
+      </c>
+      <c r="F24">
+        <v>0.16909373344226999</v>
+      </c>
+      <c r="G24">
+        <v>0.54633607973268705</v>
+      </c>
+      <c r="H24">
+        <v>0.41053357727387102</v>
+      </c>
+      <c r="I24">
+        <v>0.199379991828459</v>
+      </c>
+      <c r="J24">
+        <v>0.43636342866390498</v>
+      </c>
+      <c r="K24">
+        <v>0.32974385725751698</v>
+      </c>
+      <c r="L24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24">
+        <v>25.384041309356601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>391</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>3620.2634539604101</v>
+      </c>
+      <c r="F25">
+        <v>0.97460727337435904</v>
+      </c>
+      <c r="G25">
+        <v>-530.10426271293704</v>
+      </c>
+      <c r="H25">
+        <v>-2.3975136233832401</v>
+      </c>
+      <c r="I25">
+        <v>0.75514050260518795</v>
+      </c>
+      <c r="J25">
+        <v>-141.24873776864999</v>
+      </c>
+      <c r="K25">
+        <v>-1.5385574342897801</v>
+      </c>
+      <c r="L25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25">
+        <v>16.643078088760301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>4897</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>3648.6668231487201</v>
+      </c>
+      <c r="F26">
+        <v>0.10458684367288</v>
+      </c>
+      <c r="G26">
+        <v>-1.54021673322986E-2</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="J26">
+        <v>-3.7247801345082099E-2</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>4897</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>206.76305603981001</v>
+      </c>
+      <c r="F27">
+        <v>9.40078574035174E-2</v>
+      </c>
+      <c r="G27">
+        <v>0.33141792517538898</v>
+      </c>
+      <c r="H27">
+        <v>0.101150258463212</v>
+      </c>
+      <c r="I27">
+        <v>9.6918915395163605E-2</v>
+      </c>
+      <c r="J27">
+        <v>0.31687312997271899</v>
+      </c>
+      <c r="K27">
+        <v>9.5423456311810206E-2</v>
+      </c>
+      <c r="L27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27">
+        <v>143.561383008956</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>4897</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>3779.7075116634301</v>
+      </c>
+      <c r="F28">
+        <v>8.7279205339188495E-2</v>
+      </c>
+      <c r="G28">
+        <v>0.27017113317621899</v>
+      </c>
+      <c r="H28">
+        <v>0.16548580802214299</v>
+      </c>
+      <c r="I28">
+        <v>9.1493360071884799E-2</v>
+      </c>
+      <c r="J28">
+        <v>0.25193171569377099</v>
+      </c>
+      <c r="K28">
+        <v>0.146061972662412</v>
+      </c>
+      <c r="L28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28">
+        <v>113.38422203063899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>307</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>3602.1390421390502</v>
+      </c>
+      <c r="F29">
+        <v>1.74442512901743</v>
+      </c>
+      <c r="G29">
+        <v>-4348.0474198466</v>
+      </c>
+      <c r="H29">
+        <v>-10.8062026229991</v>
+      </c>
+      <c r="I29">
+        <v>2.85989257689328E-2</v>
+      </c>
+      <c r="J29">
+        <v>0.97516166080219902</v>
+      </c>
+      <c r="K29">
+        <v>0.82724295093539302</v>
+      </c>
+      <c r="L29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>307</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>10.6644396781921</v>
+      </c>
+      <c r="F30">
+        <v>6.7121600695407901E-2</v>
+      </c>
+      <c r="G30">
+        <v>0.75615012664320602</v>
+      </c>
+      <c r="H30">
+        <v>0.54572357104464297</v>
+      </c>
+      <c r="I30">
+        <v>7.2324356339505805E-2</v>
+      </c>
+      <c r="J30">
+        <v>0.74115712290518299</v>
+      </c>
+      <c r="K30">
+        <v>0.56311147916321502</v>
+      </c>
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30">
+        <v>6.4098670482635498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>307</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>3626.2913103103601</v>
+      </c>
+      <c r="F31">
+        <v>9.5554495393393203E-3</v>
+      </c>
+      <c r="G31">
+        <v>0.99376820898799501</v>
+      </c>
+      <c r="H31">
+        <v>0.93532908260795999</v>
+      </c>
+      <c r="I31">
+        <v>1.8826467605396E-2</v>
+      </c>
+      <c r="J31">
+        <v>0.98239717057095399</v>
+      </c>
+      <c r="K31">
+        <v>0.88627527431985798</v>
+      </c>
+      <c r="L31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31">
+        <v>22.248533725738501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>4176</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>3674.8507652282701</v>
+      </c>
+      <c r="F32">
+        <v>1.05613149218841</v>
+      </c>
+      <c r="G32">
+        <v>-247886.220299423</v>
+      </c>
+      <c r="H32">
+        <v>-11.437906705636699</v>
+      </c>
+      <c r="I32">
+        <v>5.4419949314154399E-2</v>
+      </c>
+      <c r="J32">
+        <v>0.53384216978646504</v>
+      </c>
+      <c r="K32">
+        <v>0.32205312743707698</v>
+      </c>
+      <c r="L32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>4176</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>227.346302270889</v>
+      </c>
+      <c r="F33">
+        <v>5.5677894035133402E-2</v>
+      </c>
+      <c r="G33">
+        <v>0.53682563121722005</v>
+      </c>
+      <c r="H33">
+        <v>0.34428955419144902</v>
+      </c>
+      <c r="I33">
+        <v>5.5396652010914801E-2</v>
+      </c>
+      <c r="J33">
+        <v>0.53164886071238504</v>
+      </c>
+      <c r="K33">
+        <v>0.30988566776397097</v>
+      </c>
+      <c r="L33" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33">
+        <v>141.523189783096</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>4176</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>3794.1634564399701</v>
+      </c>
+      <c r="F34">
+        <v>5.5677894035133402E-2</v>
+      </c>
+      <c r="G34">
+        <v>0.53682563121722005</v>
+      </c>
+      <c r="H34">
+        <v>0.34428955419144902</v>
+      </c>
+      <c r="I34">
+        <v>5.5396652010914801E-2</v>
+      </c>
+      <c r="J34">
+        <v>0.53164886071238504</v>
+      </c>
+      <c r="K34">
+        <v>0.30988566776397097</v>
+      </c>
+      <c r="L34" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34">
+        <v>95.3996293544769</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>1502</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>3621.2265684604599</v>
+      </c>
+      <c r="F35">
+        <v>812.80281498838201</v>
+      </c>
+      <c r="G35">
+        <v>-21892548.939013202</v>
+      </c>
+      <c r="H35">
+        <v>-5368.1781534983402</v>
+      </c>
+      <c r="I35">
+        <v>833.57601811617803</v>
+      </c>
+      <c r="J35">
+        <v>-26427824.489679798</v>
+      </c>
+      <c r="K35">
+        <v>-6025.4118579194601</v>
+      </c>
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>1502</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>95.185336589813204</v>
+      </c>
+      <c r="F36">
+        <v>9.1053706873821305E-2</v>
+      </c>
+      <c r="G36">
+        <v>0.61968044936337296</v>
+      </c>
+      <c r="H36">
+        <v>0.39852130833361898</v>
+      </c>
+      <c r="I36">
+        <v>8.7356816022082603E-2</v>
+      </c>
+      <c r="J36">
+        <v>0.58070735044671196</v>
+      </c>
+      <c r="K36">
+        <v>0.36844613987899599</v>
+      </c>
+      <c r="L36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36">
+        <v>56.7871539592742</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>1502</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>3648.1607918739301</v>
+      </c>
+      <c r="F37">
+        <v>7.4667012066993194E-2</v>
+      </c>
+      <c r="G37">
+        <v>0.64966064985911898</v>
+      </c>
+      <c r="H37">
+        <v>0.50676783767926803</v>
+      </c>
+      <c r="I37">
+        <v>8.2845363568879199E-2</v>
+      </c>
+      <c r="J37">
+        <v>0.54379340193826697</v>
+      </c>
+      <c r="K37">
+        <v>0.40106208607892102</v>
+      </c>
+      <c r="L37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37">
+        <v>22.691034078598001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>391</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>3605.40083718299</v>
+      </c>
+      <c r="F38">
+        <v>100.769530665044</v>
+      </c>
+      <c r="G38">
+        <v>-121623.62818756999</v>
+      </c>
+      <c r="H38">
+        <v>-350.28596164797602</v>
+      </c>
+      <c r="I38">
+        <v>88.059940260089604</v>
+      </c>
+      <c r="J38">
+        <v>-102508.546326255</v>
+      </c>
+      <c r="K38">
+        <v>-295.03128853391797</v>
+      </c>
+      <c r="L38" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>391</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>60.474621295928898</v>
+      </c>
+      <c r="F39">
+        <v>0.152371433009445</v>
+      </c>
+      <c r="G39">
+        <v>0.59294346851203805</v>
+      </c>
+      <c r="H39">
+        <v>0.46882807710673802</v>
+      </c>
+      <c r="I39">
+        <v>0.187210023967568</v>
+      </c>
+      <c r="J39">
+        <v>0.47470613774056097</v>
+      </c>
+      <c r="K39">
+        <v>0.37065566410902301</v>
+      </c>
+      <c r="L39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39">
+        <v>49.695965051651001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>391</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>3626.6098933219901</v>
+      </c>
+      <c r="F40">
+        <v>1.6977647305680199</v>
+      </c>
+      <c r="G40">
+        <v>-1825.24864853488</v>
+      </c>
+      <c r="H40">
+        <v>-4.9184647590751096</v>
+      </c>
+      <c r="I40">
+        <v>8.5868498135246298</v>
+      </c>
+      <c r="J40">
+        <v>-5925.4259231076603</v>
+      </c>
+      <c r="K40">
+        <v>-27.866431288018902</v>
+      </c>
+      <c r="L40" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40">
+        <v>17.041827678680399</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>4897</v>
+      </c>
+      <c r="C41">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>3718.7866640090901</v>
+      </c>
+      <c r="F41">
+        <v>7.6174332746270199</v>
+      </c>
+      <c r="G41">
+        <v>-1277933.6695938001</v>
+      </c>
+      <c r="H41">
+        <v>-71.833570716143498</v>
+      </c>
+      <c r="I41">
+        <v>25.932916327697601</v>
+      </c>
+      <c r="J41">
+        <v>-4435241.80028331</v>
+      </c>
+      <c r="K41">
+        <v>-241.04055239184299</v>
+      </c>
+      <c r="L41" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>4897</v>
+      </c>
+      <c r="C42">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>364.355062007904</v>
+      </c>
+      <c r="F42">
+        <v>9.2556758372483602E-2</v>
+      </c>
+      <c r="G42">
+        <v>0.34986978501082899</v>
+      </c>
+      <c r="H42">
+        <v>0.11502484325871799</v>
+      </c>
+      <c r="I42">
+        <v>9.6353055252005604E-2</v>
+      </c>
+      <c r="J42">
+        <v>0.31642269260918898</v>
+      </c>
+      <c r="K42">
+        <v>0.100704817647951</v>
+      </c>
+      <c r="L42" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42">
+        <v>218.77388429641701</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>4897</v>
+      </c>
+      <c r="C43">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>3995.6627864837601</v>
+      </c>
+      <c r="F43">
+        <v>9.2437537034513503E-2</v>
+      </c>
+      <c r="G43">
+        <v>0.34915864885319398</v>
+      </c>
+      <c r="H43">
+        <v>0.116164769981653</v>
+      </c>
+      <c r="I43">
+        <v>9.6097640261895503E-2</v>
+      </c>
+      <c r="J43">
+        <v>0.32066000172088699</v>
+      </c>
+      <c r="K43">
+        <v>0.103088690888979</v>
+      </c>
+      <c r="L43" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43">
+        <v>230.22897744178701</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>307</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>3603.8733808994202</v>
+      </c>
+      <c r="F44">
+        <v>0.33515554586692398</v>
+      </c>
+      <c r="G44">
+        <v>-207.202194934234</v>
+      </c>
+      <c r="H44">
+        <v>-1.2683199289588101</v>
+      </c>
+      <c r="I44">
+        <v>1.6017837315841299</v>
+      </c>
+      <c r="J44">
+        <v>-526.11808372037694</v>
+      </c>
+      <c r="K44">
+        <v>-8.6758680009152602</v>
+      </c>
+      <c r="L44" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>307</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>35.2643015384674</v>
+      </c>
+      <c r="F45">
+        <v>6.7328914211905705E-2</v>
+      </c>
+      <c r="G45">
+        <v>0.75776786809946906</v>
+      </c>
+      <c r="H45">
+        <v>0.54432048108592501</v>
+      </c>
+      <c r="I45">
+        <v>6.7560557329282706E-2</v>
+      </c>
+      <c r="J45">
+        <v>0.77578100077152201</v>
+      </c>
+      <c r="K45">
+        <v>0.59188807958493606</v>
+      </c>
+      <c r="L45" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45">
+        <v>14.436012029647801</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>307</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>3632.5874531269001</v>
+      </c>
+      <c r="F46">
+        <v>5.7692768642929604</v>
+      </c>
+      <c r="G46">
+        <v>-17743.5878403467</v>
+      </c>
+      <c r="H46">
+        <v>-38.046245387665003</v>
+      </c>
+      <c r="I46">
+        <v>3.3726914630797702</v>
+      </c>
+      <c r="J46">
+        <v>-8968.1265368311397</v>
+      </c>
+      <c r="K46">
+        <v>-19.3733604987356</v>
+      </c>
+      <c r="L46" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46">
+        <v>26.431973457336401</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M46">
+    <sortCondition ref="D2:D46"/>
+    <sortCondition ref="A2:A46"/>
+    <sortCondition ref="L2:L46"/>
+    <sortCondition ref="E2:E46"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9567,7 +11531,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" activeCellId="3" sqref="I7 I10 I13 I16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10737,7 +12701,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" activeCellId="4" sqref="I4 I7 I10 I13 I16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11925,7 +13889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD90418-1ED9-0345-A83E-9EB2B534BA85}">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -13152,7 +15116,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
